--- a/새롬통합관리시스템.xlsx
+++ b/새롬통합관리시스템.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\googo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\html_cms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0CABD2-F4F1-4322-B16B-F1FD84E480C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6730505E-C1B7-4D1F-AE4B-5DB4234EA318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2690" yWindow="2660" windowWidth="28800" windowHeight="15410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="0" windowWidth="19560" windowHeight="15410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IA기능정의_수정" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="298">
   <si>
     <t>이메일</t>
   </si>
@@ -949,6 +949,12 @@
   </si>
   <si>
     <t>* 신규단지 장비 이력 관리 가능하도록</t>
+  </si>
+  <si>
+    <t>html\01_02_01_공문채번관리.html</t>
+  </si>
+  <si>
+    <t>html\01_02_02_발신공문채번등록.html</t>
   </si>
 </sst>
 </file>
@@ -1028,14 +1034,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="&quot;맑은 고딕&quot;"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1045,14 +1043,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="&quot;맑은 고딕&quot;"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="&quot;맑은 고딕&quot;"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1070,22 +1060,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="&quot;맑은 고딕&quot;"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="&quot;맑은 고딕&quot;"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1106,6 +1080,37 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="&quot;맑은 고딕&quot;"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF0000FF"/>
+      <name val="&quot;맑은 고딕&quot;"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1343,10 +1348,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1396,9 +1402,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1417,35 +1420,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1456,47 +1456,72 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1714,8 +1739,8 @@
   </sheetPr>
   <dimension ref="A1:AA278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1723,46 +1748,47 @@
     <col min="1" max="1" width="4.26953125" customWidth="1"/>
     <col min="2" max="2" width="9.453125" customWidth="1"/>
     <col min="7" max="7" width="18.08984375" customWidth="1"/>
+    <col min="9" max="9" width="31.26953125" customWidth="1"/>
     <col min="11" max="11" width="15.26953125" customWidth="1"/>
     <col min="15" max="15" width="58.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" ht="14">
       <c r="A1" s="1"/>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="75"/>
-      <c r="L1" s="78" t="s">
+      <c r="K1" s="82"/>
+      <c r="L1" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="74"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="76" t="s">
+      <c r="M1" s="71"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="74" t="s">
         <v>57</v>
       </c>
       <c r="P1" s="2"/>
@@ -1770,16 +1796,16 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" ht="14">
       <c r="A2" s="1"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
       <c r="J2" s="4" t="s">
         <v>58</v>
       </c>
@@ -1795,7 +1821,7 @@
       <c r="N2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="77"/>
+      <c r="O2" s="75"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="5" t="s">
         <v>62</v>
@@ -1811,22 +1837,22 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="86"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
+      <c r="I3" s="83"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
-      <c r="O3" s="47"/>
+      <c r="O3" s="46"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -1845,13 +1871,13 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="I4" s="84"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
-      <c r="O4" s="48"/>
+      <c r="O4" s="47"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
@@ -1872,7 +1898,7 @@
       <c r="H5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="85"/>
       <c r="J5" s="15" t="s">
         <v>69</v>
       </c>
@@ -1882,7 +1908,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
-      <c r="O5" s="49"/>
+      <c r="O5" s="48"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -1903,7 +1929,7 @@
       <c r="H6" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="15"/>
+      <c r="I6" s="85"/>
       <c r="J6" s="15" t="s">
         <v>69</v>
       </c>
@@ -1913,7 +1939,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
-      <c r="O6" s="49"/>
+      <c r="O6" s="48"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -1934,7 +1960,7 @@
       <c r="H7" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="85"/>
       <c r="J7" s="15" t="s">
         <v>69</v>
       </c>
@@ -1944,7 +1970,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="49"/>
+      <c r="O7" s="48"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -1963,13 +1989,13 @@
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="I8" s="84"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
-      <c r="O8" s="48"/>
+      <c r="O8" s="47"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1990,7 +2016,7 @@
       <c r="H9" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J9" s="15" t="s">
@@ -2002,7 +2028,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
-      <c r="O9" s="49"/>
+      <c r="O9" s="48"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -2023,7 +2049,7 @@
       <c r="H10" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="85"/>
       <c r="J10" s="15" t="s">
         <v>69</v>
       </c>
@@ -2033,7 +2059,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
-      <c r="O10" s="49"/>
+      <c r="O10" s="48"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -2052,13 +2078,13 @@
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="I11" s="84"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
-      <c r="O11" s="48"/>
+      <c r="O11" s="47"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -2079,7 +2105,9 @@
       <c r="H12" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="23"/>
+      <c r="I12" s="87" t="s">
+        <v>296</v>
+      </c>
       <c r="J12" s="15" t="s">
         <v>69</v>
       </c>
@@ -2089,7 +2117,7 @@
       <c r="L12" s="23"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
-      <c r="O12" s="49"/>
+      <c r="O12" s="48"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -2110,7 +2138,9 @@
       <c r="H13" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="15"/>
+      <c r="I13" s="88" t="s">
+        <v>297</v>
+      </c>
       <c r="J13" s="15" t="s">
         <v>69</v>
       </c>
@@ -2120,7 +2150,7 @@
       <c r="L13" s="23"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
-      <c r="O13" s="49"/>
+      <c r="O13" s="48"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -2141,7 +2171,7 @@
       <c r="H14" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="15"/>
+      <c r="I14" s="85"/>
       <c r="J14" s="15" t="s">
         <v>69</v>
       </c>
@@ -2151,7 +2181,7 @@
       <c r="L14" s="23"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="49"/>
+      <c r="O14" s="48"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -2172,7 +2202,9 @@
       <c r="H15" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="15"/>
+      <c r="I15" s="88" t="s">
+        <v>297</v>
+      </c>
       <c r="J15" s="15" t="s">
         <v>69</v>
       </c>
@@ -2182,7 +2214,7 @@
       <c r="L15" s="23"/>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="49"/>
+      <c r="O15" s="48"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -2203,7 +2235,9 @@
       <c r="H16" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="15"/>
+      <c r="I16" s="88" t="s">
+        <v>297</v>
+      </c>
       <c r="J16" s="15" t="s">
         <v>69</v>
       </c>
@@ -2213,7 +2247,7 @@
       <c r="L16" s="23"/>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="49"/>
+      <c r="O16" s="48"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -2234,7 +2268,7 @@
       <c r="H17" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="15"/>
+      <c r="I17" s="85"/>
       <c r="J17" s="15" t="s">
         <v>69</v>
       </c>
@@ -2244,7 +2278,7 @@
       <c r="L17" s="23"/>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="49"/>
+      <c r="O17" s="48"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -2263,13 +2297,13 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="I18" s="84"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
-      <c r="O18" s="48"/>
+      <c r="O18" s="47"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -2290,7 +2324,7 @@
       <c r="H19" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="23"/>
+      <c r="I19" s="89"/>
       <c r="J19" s="15" t="s">
         <v>69</v>
       </c>
@@ -2300,7 +2334,7 @@
       <c r="L19" s="23"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
-      <c r="O19" s="49"/>
+      <c r="O19" s="48"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -2319,13 +2353,13 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="I20" s="84"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
-      <c r="O20" s="48"/>
+      <c r="O20" s="47"/>
       <c r="P20" s="24"/>
       <c r="Q20" s="26"/>
       <c r="R20" s="26"/>
@@ -2346,7 +2380,7 @@
       <c r="H21" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J21" s="15" t="s">
@@ -2358,7 +2392,7 @@
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="49"/>
+      <c r="O21" s="48"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -2379,7 +2413,7 @@
       <c r="H22" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="15"/>
+      <c r="I22" s="85"/>
       <c r="J22" s="15" t="s">
         <v>69</v>
       </c>
@@ -2389,7 +2423,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
-      <c r="O22" s="49"/>
+      <c r="O22" s="48"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -2410,7 +2444,7 @@
       <c r="H23" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I23" s="15"/>
+      <c r="I23" s="85"/>
       <c r="J23" s="15" t="s">
         <v>69</v>
       </c>
@@ -2420,7 +2454,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="49"/>
+      <c r="O23" s="48"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -2441,7 +2475,7 @@
       <c r="H24" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="15"/>
+      <c r="I24" s="85"/>
       <c r="J24" s="15" t="s">
         <v>69</v>
       </c>
@@ -2451,7 +2485,7 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="49"/>
+      <c r="O24" s="48"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -2472,7 +2506,7 @@
       <c r="H25" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="15"/>
+      <c r="I25" s="85"/>
       <c r="J25" s="15" t="s">
         <v>69</v>
       </c>
@@ -2482,7 +2516,7 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
-      <c r="O25" s="49"/>
+      <c r="O25" s="48"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -2503,7 +2537,7 @@
       <c r="H26" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="29" t="s">
+      <c r="I26" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J26" s="15" t="s">
@@ -2515,7 +2549,7 @@
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="49"/>
+      <c r="O26" s="48"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
@@ -2534,13 +2568,13 @@
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="I27" s="84"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
-      <c r="O27" s="51"/>
+      <c r="O27" s="49"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
@@ -2561,7 +2595,7 @@
       <c r="H28" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I28" s="29" t="s">
+      <c r="I28" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J28" s="15" t="s">
@@ -2573,7 +2607,7 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="49"/>
+      <c r="O28" s="48"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -2586,7 +2620,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="29" t="s">
         <v>95</v>
       </c>
       <c r="F29" s="28"/>
@@ -2594,7 +2628,7 @@
       <c r="H29" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I29" s="15"/>
+      <c r="I29" s="85"/>
       <c r="J29" s="15" t="s">
         <v>69</v>
       </c>
@@ -2604,7 +2638,7 @@
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="49"/>
+      <c r="O29" s="48"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
@@ -2617,7 +2651,7 @@
       <c r="B30" s="2"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="29" t="s">
         <v>96</v>
       </c>
       <c r="F30" s="28"/>
@@ -2625,7 +2659,7 @@
       <c r="H30" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I30" s="15"/>
+      <c r="I30" s="85"/>
       <c r="J30" s="15" t="s">
         <v>69</v>
       </c>
@@ -2635,7 +2669,7 @@
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="49"/>
+      <c r="O30" s="48"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
@@ -2647,16 +2681,16 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="79" t="s">
+      <c r="D31" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="74"/>
+      <c r="E31" s="71"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I31" s="29" t="s">
+      <c r="I31" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J31" s="15" t="s">
@@ -2668,7 +2702,7 @@
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="49"/>
+      <c r="O31" s="48"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -2689,7 +2723,7 @@
       <c r="H32" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I32" s="29" t="s">
+      <c r="I32" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J32" s="15" t="s">
@@ -2701,7 +2735,7 @@
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="49"/>
+      <c r="O32" s="48"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
@@ -2722,7 +2756,7 @@
       <c r="H33" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I33" s="15"/>
+      <c r="I33" s="85"/>
       <c r="J33" s="15" t="s">
         <v>69</v>
       </c>
@@ -2732,7 +2766,7 @@
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="49"/>
+      <c r="O33" s="48"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
@@ -2753,7 +2787,7 @@
       <c r="H34" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I34" s="15"/>
+      <c r="I34" s="85"/>
       <c r="J34" s="15" t="s">
         <v>69</v>
       </c>
@@ -2763,7 +2797,7 @@
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="49"/>
+      <c r="O34" s="48"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
@@ -2784,7 +2818,7 @@
       <c r="H35" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I35" s="15"/>
+      <c r="I35" s="85"/>
       <c r="J35" s="15" t="s">
         <v>69</v>
       </c>
@@ -2794,7 +2828,7 @@
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="49"/>
+      <c r="O35" s="48"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
@@ -2806,16 +2840,16 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="14"/>
-      <c r="D36" s="80" t="s">
+      <c r="D36" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="81"/>
+      <c r="E36" s="80"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I36" s="29" t="s">
+      <c r="I36" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J36" s="15" t="s">
@@ -2827,7 +2861,7 @@
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="49"/>
+      <c r="O36" s="48"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -2840,15 +2874,15 @@
       <c r="B37" s="2"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="80" t="s">
+      <c r="E37" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="F37" s="81"/>
+      <c r="F37" s="80"/>
       <c r="G37" s="28"/>
       <c r="H37" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I37" s="15"/>
+      <c r="I37" s="85"/>
       <c r="J37" s="15" t="s">
         <v>69</v>
       </c>
@@ -2858,7 +2892,7 @@
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="49"/>
+      <c r="O37" s="48"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
@@ -2871,15 +2905,15 @@
       <c r="B38" s="2"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="79" t="s">
+      <c r="E38" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="74"/>
+      <c r="F38" s="71"/>
       <c r="G38" s="17"/>
       <c r="H38" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I38" s="15"/>
+      <c r="I38" s="85"/>
       <c r="J38" s="15" t="s">
         <v>69</v>
       </c>
@@ -2889,7 +2923,7 @@
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="49"/>
+      <c r="O38" s="48"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
@@ -2910,7 +2944,7 @@
       <c r="H39" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I39" s="29" t="s">
+      <c r="I39" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J39" s="15" t="s">
@@ -2922,7 +2956,7 @@
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="49"/>
+      <c r="O39" s="48"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
@@ -2943,7 +2977,7 @@
       <c r="H40" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I40" s="15"/>
+      <c r="I40" s="85"/>
       <c r="J40" s="15" t="s">
         <v>69</v>
       </c>
@@ -2953,7 +2987,7 @@
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="49"/>
+      <c r="O40" s="48"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
@@ -2974,7 +3008,7 @@
       <c r="H41" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I41" s="15"/>
+      <c r="I41" s="85"/>
       <c r="J41" s="15" t="s">
         <v>69</v>
       </c>
@@ -2984,7 +3018,7 @@
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="49"/>
+      <c r="O41" s="48"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
@@ -3005,7 +3039,7 @@
       <c r="H42" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I42" s="15"/>
+      <c r="I42" s="85"/>
       <c r="J42" s="15" t="s">
         <v>69</v>
       </c>
@@ -3015,7 +3049,7 @@
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="49"/>
+      <c r="O42" s="48"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
@@ -3036,7 +3070,7 @@
       <c r="H43" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I43" s="15"/>
+      <c r="I43" s="85"/>
       <c r="J43" s="15" t="s">
         <v>69</v>
       </c>
@@ -3046,7 +3080,7 @@
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="49"/>
+      <c r="O43" s="48"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
@@ -3067,7 +3101,7 @@
       <c r="H44" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I44" s="15"/>
+      <c r="I44" s="85"/>
       <c r="J44" s="15" t="s">
         <v>69</v>
       </c>
@@ -3077,7 +3111,7 @@
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="49"/>
+      <c r="O44" s="48"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
@@ -3098,7 +3132,7 @@
       <c r="H45" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I45" s="29" t="s">
+      <c r="I45" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J45" s="15" t="s">
@@ -3110,7 +3144,7 @@
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
       <c r="N45" s="15"/>
-      <c r="O45" s="49"/>
+      <c r="O45" s="48"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
@@ -3123,7 +3157,7 @@
       <c r="B46" s="2"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="31" t="s">
+      <c r="E46" s="30" t="s">
         <v>109</v>
       </c>
       <c r="F46" s="28"/>
@@ -3131,7 +3165,7 @@
       <c r="H46" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I46" s="15"/>
+      <c r="I46" s="85"/>
       <c r="J46" s="15" t="s">
         <v>69</v>
       </c>
@@ -3141,7 +3175,7 @@
       <c r="L46" s="15"/>
       <c r="M46" s="15"/>
       <c r="N46" s="15"/>
-      <c r="O46" s="49"/>
+      <c r="O46" s="48"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
@@ -3154,7 +3188,7 @@
       <c r="B47" s="2"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="32" t="s">
+      <c r="E47" s="31" t="s">
         <v>110</v>
       </c>
       <c r="F47" s="28"/>
@@ -3162,7 +3196,7 @@
       <c r="H47" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I47" s="15"/>
+      <c r="I47" s="85"/>
       <c r="J47" s="15" t="s">
         <v>69</v>
       </c>
@@ -3172,7 +3206,7 @@
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
-      <c r="O47" s="49"/>
+      <c r="O47" s="48"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
@@ -3185,7 +3219,7 @@
       <c r="B48" s="2"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="31" t="s">
         <v>111</v>
       </c>
       <c r="F48" s="28"/>
@@ -3193,7 +3227,7 @@
       <c r="H48" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I48" s="15"/>
+      <c r="I48" s="85"/>
       <c r="J48" s="15" t="s">
         <v>69</v>
       </c>
@@ -3203,7 +3237,7 @@
       <c r="L48" s="15"/>
       <c r="M48" s="15"/>
       <c r="N48" s="15"/>
-      <c r="O48" s="49"/>
+      <c r="O48" s="48"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
@@ -3216,7 +3250,7 @@
       <c r="B49" s="2"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="32" t="s">
+      <c r="E49" s="31" t="s">
         <v>112</v>
       </c>
       <c r="F49" s="17"/>
@@ -3224,7 +3258,7 @@
       <c r="H49" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I49" s="15"/>
+      <c r="I49" s="85"/>
       <c r="J49" s="15" t="s">
         <v>69</v>
       </c>
@@ -3234,7 +3268,7 @@
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
       <c r="N49" s="15"/>
-      <c r="O49" s="49"/>
+      <c r="O49" s="48"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
@@ -3247,7 +3281,7 @@
       <c r="B50" s="2"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="32" t="s">
+      <c r="E50" s="31" t="s">
         <v>113</v>
       </c>
       <c r="F50" s="19"/>
@@ -3255,7 +3289,7 @@
       <c r="H50" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I50" s="15"/>
+      <c r="I50" s="85"/>
       <c r="J50" s="15" t="s">
         <v>69</v>
       </c>
@@ -3265,7 +3299,7 @@
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
       <c r="N50" s="15"/>
-      <c r="O50" s="49"/>
+      <c r="O50" s="48"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -3278,7 +3312,7 @@
       <c r="B51" s="2"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="32" t="s">
+      <c r="E51" s="31" t="s">
         <v>114</v>
       </c>
       <c r="F51" s="19"/>
@@ -3286,7 +3320,7 @@
       <c r="H51" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I51" s="15"/>
+      <c r="I51" s="85"/>
       <c r="J51" s="15" t="s">
         <v>69</v>
       </c>
@@ -3296,7 +3330,7 @@
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
       <c r="N51" s="15"/>
-      <c r="O51" s="49"/>
+      <c r="O51" s="48"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
@@ -3315,13 +3349,13 @@
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
+      <c r="I52" s="84"/>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
-      <c r="O52" s="51"/>
+      <c r="O52" s="49"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
@@ -3342,7 +3376,7 @@
       <c r="H53" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I53" s="29" t="s">
+      <c r="I53" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J53" s="15" t="s">
@@ -3354,7 +3388,7 @@
       <c r="L53" s="15"/>
       <c r="M53" s="15"/>
       <c r="N53" s="15"/>
-      <c r="O53" s="49"/>
+      <c r="O53" s="48"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
@@ -3375,7 +3409,7 @@
       <c r="H54" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I54" s="15"/>
+      <c r="I54" s="85"/>
       <c r="J54" s="15" t="s">
         <v>69</v>
       </c>
@@ -3385,7 +3419,7 @@
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
       <c r="N54" s="15"/>
-      <c r="O54" s="49"/>
+      <c r="O54" s="48"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
@@ -3406,7 +3440,7 @@
       <c r="H55" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I55" s="15"/>
+      <c r="I55" s="85"/>
       <c r="J55" s="15" t="s">
         <v>69</v>
       </c>
@@ -3416,7 +3450,7 @@
       <c r="L55" s="15"/>
       <c r="M55" s="15"/>
       <c r="N55" s="15"/>
-      <c r="O55" s="49"/>
+      <c r="O55" s="48"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
@@ -3437,7 +3471,7 @@
       <c r="H56" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I56" s="15"/>
+      <c r="I56" s="85"/>
       <c r="J56" s="15" t="s">
         <v>69</v>
       </c>
@@ -3447,7 +3481,7 @@
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
       <c r="N56" s="15"/>
-      <c r="O56" s="49"/>
+      <c r="O56" s="48"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
@@ -3468,7 +3502,7 @@
       <c r="H57" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I57" s="29" t="s">
+      <c r="I57" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J57" s="15" t="s">
@@ -3480,7 +3514,7 @@
       <c r="L57" s="15"/>
       <c r="M57" s="15"/>
       <c r="N57" s="15"/>
-      <c r="O57" s="49"/>
+      <c r="O57" s="48"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
@@ -3501,7 +3535,7 @@
       <c r="H58" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I58" s="15"/>
+      <c r="I58" s="85"/>
       <c r="J58" s="15" t="s">
         <v>69</v>
       </c>
@@ -3511,7 +3545,7 @@
       <c r="L58" s="15"/>
       <c r="M58" s="15"/>
       <c r="N58" s="15"/>
-      <c r="O58" s="49"/>
+      <c r="O58" s="48"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
@@ -3532,7 +3566,7 @@
       <c r="H59" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I59" s="15"/>
+      <c r="I59" s="85"/>
       <c r="J59" s="15" t="s">
         <v>69</v>
       </c>
@@ -3542,7 +3576,7 @@
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
       <c r="N59" s="15"/>
-      <c r="O59" s="49"/>
+      <c r="O59" s="48"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
@@ -3563,7 +3597,7 @@
       <c r="H60" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I60" s="15"/>
+      <c r="I60" s="85"/>
       <c r="J60" s="15" t="s">
         <v>69</v>
       </c>
@@ -3573,7 +3607,7 @@
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
       <c r="N60" s="15"/>
-      <c r="O60" s="49"/>
+      <c r="O60" s="48"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
@@ -3594,7 +3628,7 @@
       <c r="H61" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I61" s="29" t="s">
+      <c r="I61" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J61" s="15" t="s">
@@ -3606,7 +3640,7 @@
       <c r="L61" s="15"/>
       <c r="M61" s="15"/>
       <c r="N61" s="15"/>
-      <c r="O61" s="49"/>
+      <c r="O61" s="48"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
@@ -3619,7 +3653,7 @@
       <c r="B62" s="2"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
-      <c r="E62" s="31" t="s">
+      <c r="E62" s="30" t="s">
         <v>121</v>
       </c>
       <c r="F62" s="28"/>
@@ -3627,7 +3661,7 @@
       <c r="H62" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I62" s="15"/>
+      <c r="I62" s="85"/>
       <c r="J62" s="15" t="s">
         <v>69</v>
       </c>
@@ -3637,7 +3671,7 @@
       <c r="L62" s="15"/>
       <c r="M62" s="15"/>
       <c r="N62" s="15"/>
-      <c r="O62" s="49"/>
+      <c r="O62" s="48"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
@@ -3650,7 +3684,7 @@
       <c r="B63" s="2"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
-      <c r="E63" s="32" t="s">
+      <c r="E63" s="31" t="s">
         <v>122</v>
       </c>
       <c r="F63" s="17"/>
@@ -3658,7 +3692,7 @@
       <c r="H63" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I63" s="15"/>
+      <c r="I63" s="85"/>
       <c r="J63" s="15" t="s">
         <v>69</v>
       </c>
@@ -3668,7 +3702,7 @@
       <c r="L63" s="15"/>
       <c r="M63" s="15"/>
       <c r="N63" s="15"/>
-      <c r="O63" s="49"/>
+      <c r="O63" s="48"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
@@ -3681,7 +3715,7 @@
       <c r="B64" s="2"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
-      <c r="E64" s="32" t="s">
+      <c r="E64" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F64" s="19"/>
@@ -3689,7 +3723,7 @@
       <c r="H64" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I64" s="15"/>
+      <c r="I64" s="85"/>
       <c r="J64" s="15" t="s">
         <v>69</v>
       </c>
@@ -3699,7 +3733,7 @@
       <c r="L64" s="15"/>
       <c r="M64" s="15"/>
       <c r="N64" s="15"/>
-      <c r="O64" s="49"/>
+      <c r="O64" s="48"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
@@ -3720,7 +3754,7 @@
       <c r="H65" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I65" s="29" t="s">
+      <c r="I65" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J65" s="15" t="s">
@@ -3732,7 +3766,7 @@
       <c r="L65" s="15"/>
       <c r="M65" s="15"/>
       <c r="N65" s="15"/>
-      <c r="O65" s="49"/>
+      <c r="O65" s="48"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
@@ -3745,7 +3779,7 @@
       <c r="B66" s="2"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
-      <c r="E66" s="31" t="s">
+      <c r="E66" s="30" t="s">
         <v>123</v>
       </c>
       <c r="F66" s="28"/>
@@ -3753,7 +3787,7 @@
       <c r="H66" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I66" s="15"/>
+      <c r="I66" s="85"/>
       <c r="J66" s="15" t="s">
         <v>69</v>
       </c>
@@ -3763,7 +3797,7 @@
       <c r="L66" s="15"/>
       <c r="M66" s="15"/>
       <c r="N66" s="15"/>
-      <c r="O66" s="49"/>
+      <c r="O66" s="48"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
@@ -3776,7 +3810,7 @@
       <c r="B67" s="2"/>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
-      <c r="E67" s="32" t="s">
+      <c r="E67" s="31" t="s">
         <v>124</v>
       </c>
       <c r="F67" s="17"/>
@@ -3784,7 +3818,7 @@
       <c r="H67" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I67" s="15"/>
+      <c r="I67" s="85"/>
       <c r="J67" s="15" t="s">
         <v>69</v>
       </c>
@@ -3794,7 +3828,7 @@
       <c r="L67" s="15"/>
       <c r="M67" s="15"/>
       <c r="N67" s="15"/>
-      <c r="O67" s="49"/>
+      <c r="O67" s="48"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
@@ -3807,7 +3841,7 @@
       <c r="B68" s="2"/>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
-      <c r="E68" s="32" t="s">
+      <c r="E68" s="31" t="s">
         <v>125</v>
       </c>
       <c r="F68" s="19"/>
@@ -3815,7 +3849,7 @@
       <c r="H68" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I68" s="15"/>
+      <c r="I68" s="85"/>
       <c r="J68" s="15" t="s">
         <v>69</v>
       </c>
@@ -3825,7 +3859,7 @@
       <c r="L68" s="15"/>
       <c r="M68" s="15"/>
       <c r="N68" s="15"/>
-      <c r="O68" s="49"/>
+      <c r="O68" s="48"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
@@ -3838,7 +3872,7 @@
       <c r="B69" s="2"/>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
-      <c r="E69" s="32" t="s">
+      <c r="E69" s="31" t="s">
         <v>126</v>
       </c>
       <c r="F69" s="19"/>
@@ -3846,7 +3880,7 @@
       <c r="H69" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I69" s="15"/>
+      <c r="I69" s="85"/>
       <c r="J69" s="15" t="s">
         <v>69</v>
       </c>
@@ -3856,7 +3890,7 @@
       <c r="L69" s="15"/>
       <c r="M69" s="15"/>
       <c r="N69" s="15"/>
-      <c r="O69" s="49"/>
+      <c r="O69" s="48"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
@@ -3877,7 +3911,7 @@
       <c r="H70" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I70" s="29" t="s">
+      <c r="I70" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J70" s="15" t="s">
@@ -3889,7 +3923,7 @@
       <c r="L70" s="15"/>
       <c r="M70" s="15"/>
       <c r="N70" s="15"/>
-      <c r="O70" s="49"/>
+      <c r="O70" s="48"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
@@ -3902,7 +3936,7 @@
       <c r="B71" s="2"/>
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
-      <c r="E71" s="31" t="s">
+      <c r="E71" s="30" t="s">
         <v>128</v>
       </c>
       <c r="F71" s="28"/>
@@ -3910,7 +3944,7 @@
       <c r="H71" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I71" s="15"/>
+      <c r="I71" s="85"/>
       <c r="J71" s="15" t="s">
         <v>69</v>
       </c>
@@ -3920,7 +3954,7 @@
       <c r="L71" s="15"/>
       <c r="M71" s="15"/>
       <c r="N71" s="15"/>
-      <c r="O71" s="49"/>
+      <c r="O71" s="48"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
@@ -3933,7 +3967,7 @@
       <c r="B72" s="2"/>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
-      <c r="E72" s="32" t="s">
+      <c r="E72" s="31" t="s">
         <v>129</v>
       </c>
       <c r="F72" s="17"/>
@@ -3941,7 +3975,7 @@
       <c r="H72" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I72" s="15"/>
+      <c r="I72" s="85"/>
       <c r="J72" s="15" t="s">
         <v>69</v>
       </c>
@@ -3951,7 +3985,7 @@
       <c r="L72" s="15"/>
       <c r="M72" s="15"/>
       <c r="N72" s="15"/>
-      <c r="O72" s="49"/>
+      <c r="O72" s="48"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
@@ -3964,7 +3998,7 @@
       <c r="B73" s="2"/>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
-      <c r="E73" s="32" t="s">
+      <c r="E73" s="31" t="s">
         <v>130</v>
       </c>
       <c r="F73" s="19"/>
@@ -3972,7 +4006,7 @@
       <c r="H73" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I73" s="15"/>
+      <c r="I73" s="85"/>
       <c r="J73" s="15" t="s">
         <v>69</v>
       </c>
@@ -3982,7 +4016,7 @@
       <c r="L73" s="15"/>
       <c r="M73" s="15"/>
       <c r="N73" s="15"/>
-      <c r="O73" s="49"/>
+      <c r="O73" s="48"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
@@ -3994,16 +4028,16 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="14"/>
-      <c r="D74" s="80" t="s">
+      <c r="D74" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="E74" s="81"/>
+      <c r="E74" s="80"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I74" s="29" t="s">
+      <c r="I74" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J74" s="15" t="s">
@@ -4015,7 +4049,7 @@
       <c r="L74" s="15"/>
       <c r="M74" s="15"/>
       <c r="N74" s="15"/>
-      <c r="O74" s="49"/>
+      <c r="O74" s="48"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
@@ -4028,7 +4062,7 @@
       <c r="B75" s="2"/>
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
-      <c r="E75" s="31" t="s">
+      <c r="E75" s="30" t="s">
         <v>131</v>
       </c>
       <c r="F75" s="28"/>
@@ -4036,7 +4070,7 @@
       <c r="H75" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I75" s="15"/>
+      <c r="I75" s="85"/>
       <c r="J75" s="15" t="s">
         <v>69</v>
       </c>
@@ -4046,7 +4080,7 @@
       <c r="L75" s="15"/>
       <c r="M75" s="15"/>
       <c r="N75" s="15"/>
-      <c r="O75" s="49"/>
+      <c r="O75" s="48"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
@@ -4059,15 +4093,15 @@
       <c r="B76" s="2"/>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
-      <c r="E76" s="82" t="s">
+      <c r="E76" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="F76" s="74"/>
+      <c r="F76" s="71"/>
       <c r="G76" s="17"/>
       <c r="H76" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I76" s="15"/>
+      <c r="I76" s="85"/>
       <c r="J76" s="15" t="s">
         <v>69</v>
       </c>
@@ -4077,7 +4111,7 @@
       <c r="L76" s="15"/>
       <c r="M76" s="15"/>
       <c r="N76" s="15"/>
-      <c r="O76" s="49"/>
+      <c r="O76" s="48"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
@@ -4090,15 +4124,15 @@
       <c r="B77" s="2"/>
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
-      <c r="E77" s="82" t="s">
+      <c r="E77" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="F77" s="74"/>
+      <c r="F77" s="71"/>
       <c r="G77" s="19"/>
       <c r="H77" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I77" s="15"/>
+      <c r="I77" s="85"/>
       <c r="J77" s="15" t="s">
         <v>69</v>
       </c>
@@ -4108,7 +4142,7 @@
       <c r="L77" s="15"/>
       <c r="M77" s="15"/>
       <c r="N77" s="15"/>
-      <c r="O77" s="49"/>
+      <c r="O77" s="48"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
@@ -4127,13 +4161,13 @@
       <c r="F78" s="20"/>
       <c r="G78" s="20"/>
       <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
+      <c r="I78" s="84"/>
       <c r="J78" s="13"/>
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
       <c r="M78" s="13"/>
       <c r="N78" s="13"/>
-      <c r="O78" s="51"/>
+      <c r="O78" s="49"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
@@ -4154,7 +4188,7 @@
       <c r="H79" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I79" s="29" t="s">
+      <c r="I79" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J79" s="15" t="s">
@@ -4166,7 +4200,7 @@
       <c r="L79" s="15"/>
       <c r="M79" s="15"/>
       <c r="N79" s="15"/>
-      <c r="O79" s="49"/>
+      <c r="O79" s="48"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
@@ -4179,7 +4213,7 @@
       <c r="B80" s="2"/>
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
-      <c r="E80" s="33" t="s">
+      <c r="E80" s="32" t="s">
         <v>135</v>
       </c>
       <c r="F80" s="28"/>
@@ -4187,7 +4221,7 @@
       <c r="H80" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I80" s="23"/>
+      <c r="I80" s="89"/>
       <c r="J80" s="15" t="s">
         <v>69</v>
       </c>
@@ -4197,7 +4231,7 @@
       <c r="L80" s="15"/>
       <c r="M80" s="15"/>
       <c r="N80" s="15"/>
-      <c r="O80" s="49"/>
+      <c r="O80" s="48"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
@@ -4211,14 +4245,14 @@
       <c r="C81" s="14"/>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
-      <c r="F81" s="31" t="s">
+      <c r="F81" s="30" t="s">
         <v>136</v>
       </c>
       <c r="G81" s="17"/>
       <c r="H81" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I81" s="15"/>
+      <c r="I81" s="85"/>
       <c r="J81" s="15" t="s">
         <v>69</v>
       </c>
@@ -4228,7 +4262,7 @@
       <c r="L81" s="15"/>
       <c r="M81" s="15"/>
       <c r="N81" s="15"/>
-      <c r="O81" s="49"/>
+      <c r="O81" s="48"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
@@ -4242,14 +4276,14 @@
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
-      <c r="F82" s="32" t="s">
+      <c r="F82" s="31" t="s">
         <v>137</v>
       </c>
       <c r="G82" s="19"/>
       <c r="H82" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I82" s="15"/>
+      <c r="I82" s="85"/>
       <c r="J82" s="15" t="s">
         <v>69</v>
       </c>
@@ -4259,7 +4293,7 @@
       <c r="L82" s="15"/>
       <c r="M82" s="15"/>
       <c r="N82" s="15"/>
-      <c r="O82" s="49"/>
+      <c r="O82" s="48"/>
       <c r="P82" s="2"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
@@ -4273,14 +4307,14 @@
       <c r="C83" s="14"/>
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
-      <c r="F83" s="32" t="s">
+      <c r="F83" s="31" t="s">
         <v>138</v>
       </c>
       <c r="G83" s="19"/>
       <c r="H83" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I83" s="15"/>
+      <c r="I83" s="85"/>
       <c r="J83" s="15" t="s">
         <v>69</v>
       </c>
@@ -4290,7 +4324,7 @@
       <c r="L83" s="15"/>
       <c r="M83" s="15"/>
       <c r="N83" s="15"/>
-      <c r="O83" s="49"/>
+      <c r="O83" s="48"/>
       <c r="P83" s="2"/>
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
@@ -4304,14 +4338,14 @@
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
-      <c r="F84" s="32" t="s">
+      <c r="F84" s="31" t="s">
         <v>139</v>
       </c>
       <c r="G84" s="19"/>
       <c r="H84" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I84" s="15"/>
+      <c r="I84" s="85"/>
       <c r="J84" s="15" t="s">
         <v>69</v>
       </c>
@@ -4321,7 +4355,7 @@
       <c r="L84" s="15"/>
       <c r="M84" s="15"/>
       <c r="N84" s="15"/>
-      <c r="O84" s="49"/>
+      <c r="O84" s="48"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
@@ -4334,7 +4368,7 @@
       <c r="B85" s="2"/>
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
-      <c r="E85" s="33" t="s">
+      <c r="E85" s="32" t="s">
         <v>140</v>
       </c>
       <c r="F85" s="2"/>
@@ -4342,7 +4376,7 @@
       <c r="H85" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I85" s="23"/>
+      <c r="I85" s="89"/>
       <c r="J85" s="15" t="s">
         <v>69</v>
       </c>
@@ -4352,7 +4386,7 @@
       <c r="L85" s="15"/>
       <c r="M85" s="15"/>
       <c r="N85" s="15"/>
-      <c r="O85" s="49"/>
+      <c r="O85" s="48"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
@@ -4366,14 +4400,14 @@
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
-      <c r="F86" s="31" t="s">
+      <c r="F86" s="30" t="s">
         <v>136</v>
       </c>
       <c r="G86" s="17"/>
       <c r="H86" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I86" s="15"/>
+      <c r="I86" s="85"/>
       <c r="J86" s="15" t="s">
         <v>69</v>
       </c>
@@ -4383,7 +4417,7 @@
       <c r="L86" s="15"/>
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
-      <c r="O86" s="49"/>
+      <c r="O86" s="48"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="3"/>
@@ -4397,14 +4431,14 @@
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
-      <c r="F87" s="32" t="s">
+      <c r="F87" s="31" t="s">
         <v>137</v>
       </c>
       <c r="G87" s="19"/>
       <c r="H87" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I87" s="15"/>
+      <c r="I87" s="85"/>
       <c r="J87" s="15" t="s">
         <v>69</v>
       </c>
@@ -4414,7 +4448,7 @@
       <c r="L87" s="15"/>
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
-      <c r="O87" s="49"/>
+      <c r="O87" s="48"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
@@ -4428,14 +4462,14 @@
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
-      <c r="F88" s="32" t="s">
+      <c r="F88" s="31" t="s">
         <v>141</v>
       </c>
       <c r="G88" s="19"/>
       <c r="H88" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I88" s="15"/>
+      <c r="I88" s="85"/>
       <c r="J88" s="15" t="s">
         <v>69</v>
       </c>
@@ -4445,7 +4479,7 @@
       <c r="L88" s="15"/>
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
-      <c r="O88" s="49"/>
+      <c r="O88" s="48"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="3"/>
@@ -4459,14 +4493,14 @@
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
-      <c r="F89" s="32" t="s">
+      <c r="F89" s="31" t="s">
         <v>139</v>
       </c>
       <c r="G89" s="19"/>
       <c r="H89" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I89" s="15"/>
+      <c r="I89" s="85"/>
       <c r="J89" s="15" t="s">
         <v>69</v>
       </c>
@@ -4476,7 +4510,7 @@
       <c r="L89" s="15"/>
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
-      <c r="O89" s="49"/>
+      <c r="O89" s="48"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="3"/>
       <c r="R89" s="3"/>
@@ -4497,7 +4531,7 @@
       <c r="H90" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I90" s="23"/>
+      <c r="I90" s="89"/>
       <c r="J90" s="15" t="s">
         <v>69</v>
       </c>
@@ -4507,7 +4541,7 @@
       <c r="L90" s="15"/>
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
-      <c r="O90" s="49"/>
+      <c r="O90" s="48"/>
       <c r="P90" s="2"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
@@ -4520,7 +4554,7 @@
       <c r="B91" s="2"/>
       <c r="C91" s="14"/>
       <c r="D91" s="14"/>
-      <c r="E91" s="33" t="s">
+      <c r="E91" s="32" t="s">
         <v>135</v>
       </c>
       <c r="F91" s="28"/>
@@ -4528,7 +4562,7 @@
       <c r="H91" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I91" s="23"/>
+      <c r="I91" s="89"/>
       <c r="J91" s="15" t="s">
         <v>69</v>
       </c>
@@ -4538,7 +4572,7 @@
       <c r="L91" s="15"/>
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
-      <c r="O91" s="49"/>
+      <c r="O91" s="48"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="3"/>
       <c r="R91" s="3"/>
@@ -4552,14 +4586,14 @@
       <c r="C92" s="14"/>
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
-      <c r="F92" s="31" t="s">
+      <c r="F92" s="30" t="s">
         <v>142</v>
       </c>
       <c r="G92" s="17"/>
       <c r="H92" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I92" s="15"/>
+      <c r="I92" s="85"/>
       <c r="J92" s="15" t="s">
         <v>69</v>
       </c>
@@ -4569,7 +4603,7 @@
       <c r="L92" s="15"/>
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
-      <c r="O92" s="49"/>
+      <c r="O92" s="48"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="3"/>
       <c r="R92" s="3"/>
@@ -4583,14 +4617,14 @@
       <c r="C93" s="14"/>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
-      <c r="F93" s="32" t="s">
+      <c r="F93" s="31" t="s">
         <v>143</v>
       </c>
       <c r="G93" s="19"/>
       <c r="H93" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I93" s="15"/>
+      <c r="I93" s="85"/>
       <c r="J93" s="15" t="s">
         <v>69</v>
       </c>
@@ -4600,7 +4634,7 @@
       <c r="L93" s="15"/>
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
-      <c r="O93" s="49"/>
+      <c r="O93" s="48"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
@@ -4614,14 +4648,14 @@
       <c r="C94" s="14"/>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
-      <c r="F94" s="32" t="s">
+      <c r="F94" s="31" t="s">
         <v>144</v>
       </c>
       <c r="G94" s="19"/>
       <c r="H94" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I94" s="15"/>
+      <c r="I94" s="85"/>
       <c r="J94" s="15" t="s">
         <v>69</v>
       </c>
@@ -4631,7 +4665,7 @@
       <c r="L94" s="15"/>
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
-      <c r="O94" s="49"/>
+      <c r="O94" s="48"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
@@ -4645,14 +4679,14 @@
       <c r="C95" s="14"/>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
-      <c r="F95" s="32" t="s">
+      <c r="F95" s="31" t="s">
         <v>145</v>
       </c>
       <c r="G95" s="19"/>
       <c r="H95" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I95" s="15"/>
+      <c r="I95" s="85"/>
       <c r="J95" s="15" t="s">
         <v>69</v>
       </c>
@@ -4662,7 +4696,7 @@
       <c r="L95" s="15"/>
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
-      <c r="O95" s="49"/>
+      <c r="O95" s="48"/>
       <c r="P95" s="2"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
@@ -4675,7 +4709,7 @@
       <c r="B96" s="2"/>
       <c r="C96" s="14"/>
       <c r="D96" s="14"/>
-      <c r="E96" s="33" t="s">
+      <c r="E96" s="32" t="s">
         <v>140</v>
       </c>
       <c r="F96" s="2"/>
@@ -4683,7 +4717,7 @@
       <c r="H96" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I96" s="23"/>
+      <c r="I96" s="89"/>
       <c r="J96" s="15" t="s">
         <v>69</v>
       </c>
@@ -4693,7 +4727,7 @@
       <c r="L96" s="15"/>
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
-      <c r="O96" s="49"/>
+      <c r="O96" s="48"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
@@ -4707,14 +4741,14 @@
       <c r="C97" s="14"/>
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
-      <c r="F97" s="31" t="s">
+      <c r="F97" s="30" t="s">
         <v>142</v>
       </c>
       <c r="G97" s="17"/>
       <c r="H97" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I97" s="15"/>
+      <c r="I97" s="85"/>
       <c r="J97" s="15" t="s">
         <v>69</v>
       </c>
@@ -4724,7 +4758,7 @@
       <c r="L97" s="15"/>
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
-      <c r="O97" s="49"/>
+      <c r="O97" s="48"/>
       <c r="P97" s="2"/>
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
@@ -4738,14 +4772,14 @@
       <c r="C98" s="14"/>
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
-      <c r="F98" s="32" t="s">
+      <c r="F98" s="31" t="s">
         <v>143</v>
       </c>
       <c r="G98" s="19"/>
       <c r="H98" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I98" s="15"/>
+      <c r="I98" s="85"/>
       <c r="J98" s="15" t="s">
         <v>69</v>
       </c>
@@ -4755,7 +4789,7 @@
       <c r="L98" s="15"/>
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
-      <c r="O98" s="49"/>
+      <c r="O98" s="48"/>
       <c r="P98" s="2"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
@@ -4769,14 +4803,14 @@
       <c r="C99" s="14"/>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
-      <c r="F99" s="32" t="s">
+      <c r="F99" s="31" t="s">
         <v>144</v>
       </c>
       <c r="G99" s="19"/>
       <c r="H99" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I99" s="15"/>
+      <c r="I99" s="85"/>
       <c r="J99" s="15" t="s">
         <v>69</v>
       </c>
@@ -4786,7 +4820,7 @@
       <c r="L99" s="15"/>
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
-      <c r="O99" s="49"/>
+      <c r="O99" s="48"/>
       <c r="P99" s="2"/>
       <c r="Q99" s="3"/>
       <c r="R99" s="3"/>
@@ -4800,14 +4834,14 @@
       <c r="C100" s="14"/>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
-      <c r="F100" s="32" t="s">
+      <c r="F100" s="31" t="s">
         <v>145</v>
       </c>
       <c r="G100" s="19"/>
       <c r="H100" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I100" s="15"/>
+      <c r="I100" s="85"/>
       <c r="J100" s="15" t="s">
         <v>69</v>
       </c>
@@ -4817,7 +4851,7 @@
       <c r="L100" s="15"/>
       <c r="M100" s="15"/>
       <c r="N100" s="15"/>
-      <c r="O100" s="49"/>
+      <c r="O100" s="48"/>
       <c r="P100" s="2"/>
       <c r="Q100" s="3"/>
       <c r="R100" s="3"/>
@@ -4838,7 +4872,7 @@
       <c r="H101" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I101" s="23"/>
+      <c r="I101" s="89"/>
       <c r="J101" s="15" t="s">
         <v>69</v>
       </c>
@@ -4848,7 +4882,7 @@
       <c r="L101" s="15"/>
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
-      <c r="O101" s="49"/>
+      <c r="O101" s="48"/>
       <c r="P101" s="2"/>
       <c r="Q101" s="3"/>
       <c r="R101" s="3"/>
@@ -4861,7 +4895,7 @@
       <c r="B102" s="2"/>
       <c r="C102" s="14"/>
       <c r="D102" s="14"/>
-      <c r="E102" s="32" t="s">
+      <c r="E102" s="31" t="s">
         <v>147</v>
       </c>
       <c r="F102" s="2"/>
@@ -4869,7 +4903,7 @@
       <c r="H102" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I102" s="15"/>
+      <c r="I102" s="85"/>
       <c r="J102" s="15" t="s">
         <v>69</v>
       </c>
@@ -4879,7 +4913,7 @@
       <c r="L102" s="15"/>
       <c r="M102" s="15"/>
       <c r="N102" s="15"/>
-      <c r="O102" s="49"/>
+      <c r="O102" s="48"/>
       <c r="P102" s="2"/>
       <c r="Q102" s="3"/>
       <c r="R102" s="3"/>
@@ -4892,7 +4926,7 @@
       <c r="B103" s="2"/>
       <c r="C103" s="14"/>
       <c r="D103" s="14"/>
-      <c r="E103" s="32" t="s">
+      <c r="E103" s="31" t="s">
         <v>148</v>
       </c>
       <c r="F103" s="28"/>
@@ -4900,7 +4934,7 @@
       <c r="H103" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I103" s="15"/>
+      <c r="I103" s="85"/>
       <c r="J103" s="15" t="s">
         <v>69</v>
       </c>
@@ -4910,7 +4944,7 @@
       <c r="L103" s="15"/>
       <c r="M103" s="15"/>
       <c r="N103" s="15"/>
-      <c r="O103" s="49"/>
+      <c r="O103" s="48"/>
       <c r="P103" s="2"/>
       <c r="Q103" s="3"/>
       <c r="R103" s="3"/>
@@ -4923,7 +4957,7 @@
       <c r="B104" s="2"/>
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
-      <c r="E104" s="32" t="s">
+      <c r="E104" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F104" s="28"/>
@@ -4931,7 +4965,7 @@
       <c r="H104" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I104" s="15"/>
+      <c r="I104" s="85"/>
       <c r="J104" s="15" t="s">
         <v>69</v>
       </c>
@@ -4941,7 +4975,7 @@
       <c r="L104" s="15"/>
       <c r="M104" s="15"/>
       <c r="N104" s="15"/>
-      <c r="O104" s="49"/>
+      <c r="O104" s="48"/>
       <c r="P104" s="2"/>
       <c r="Q104" s="3"/>
       <c r="R104" s="3"/>
@@ -4962,7 +4996,7 @@
       <c r="H105" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I105" s="23"/>
+      <c r="I105" s="89"/>
       <c r="J105" s="15" t="s">
         <v>69</v>
       </c>
@@ -4972,7 +5006,7 @@
       <c r="L105" s="15"/>
       <c r="M105" s="15"/>
       <c r="N105" s="15"/>
-      <c r="O105" s="49"/>
+      <c r="O105" s="48"/>
       <c r="P105" s="2"/>
       <c r="Q105" s="3"/>
       <c r="R105" s="3"/>
@@ -4985,7 +5019,7 @@
       <c r="B106" s="2"/>
       <c r="C106" s="14"/>
       <c r="D106" s="14"/>
-      <c r="E106" s="32" t="s">
+      <c r="E106" s="31" t="s">
         <v>150</v>
       </c>
       <c r="F106" s="2"/>
@@ -4993,7 +5027,7 @@
       <c r="H106" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I106" s="15"/>
+      <c r="I106" s="85"/>
       <c r="J106" s="15" t="s">
         <v>69</v>
       </c>
@@ -5003,7 +5037,7 @@
       <c r="L106" s="15"/>
       <c r="M106" s="15"/>
       <c r="N106" s="15"/>
-      <c r="O106" s="49"/>
+      <c r="O106" s="48"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="3"/>
       <c r="R106" s="3"/>
@@ -5016,7 +5050,7 @@
       <c r="B107" s="2"/>
       <c r="C107" s="14"/>
       <c r="D107" s="14"/>
-      <c r="E107" s="32" t="s">
+      <c r="E107" s="31" t="s">
         <v>151</v>
       </c>
       <c r="F107" s="28"/>
@@ -5024,7 +5058,7 @@
       <c r="H107" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I107" s="15"/>
+      <c r="I107" s="85"/>
       <c r="J107" s="15" t="s">
         <v>69</v>
       </c>
@@ -5034,7 +5068,7 @@
       <c r="L107" s="15"/>
       <c r="M107" s="15"/>
       <c r="N107" s="15"/>
-      <c r="O107" s="49"/>
+      <c r="O107" s="48"/>
       <c r="P107" s="2"/>
       <c r="Q107" s="3"/>
       <c r="R107" s="3"/>
@@ -5047,7 +5081,7 @@
       <c r="B108" s="2"/>
       <c r="C108" s="14"/>
       <c r="D108" s="14"/>
-      <c r="E108" s="32" t="s">
+      <c r="E108" s="31" t="s">
         <v>152</v>
       </c>
       <c r="F108" s="28"/>
@@ -5055,7 +5089,7 @@
       <c r="H108" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I108" s="15"/>
+      <c r="I108" s="85"/>
       <c r="J108" s="15" t="s">
         <v>69</v>
       </c>
@@ -5065,7 +5099,7 @@
       <c r="L108" s="15"/>
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
-      <c r="O108" s="49"/>
+      <c r="O108" s="48"/>
       <c r="P108" s="2"/>
       <c r="Q108" s="3"/>
       <c r="R108" s="3"/>
@@ -5084,7 +5118,7 @@
       <c r="F109" s="17"/>
       <c r="G109" s="17"/>
       <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
+      <c r="I109" s="85"/>
       <c r="J109" s="15" t="s">
         <v>69</v>
       </c>
@@ -5094,7 +5128,7 @@
       <c r="L109" s="15"/>
       <c r="M109" s="15"/>
       <c r="N109" s="15"/>
-      <c r="O109" s="49"/>
+      <c r="O109" s="48"/>
       <c r="P109" s="2"/>
       <c r="Q109" s="3"/>
       <c r="R109" s="3"/>
@@ -5107,7 +5141,7 @@
       <c r="B110" s="2"/>
       <c r="C110" s="14"/>
       <c r="D110" s="14"/>
-      <c r="E110" s="32" t="s">
+      <c r="E110" s="31" t="s">
         <v>153</v>
       </c>
       <c r="F110" s="2"/>
@@ -5115,7 +5149,7 @@
       <c r="H110" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I110" s="15"/>
+      <c r="I110" s="85"/>
       <c r="J110" s="15" t="s">
         <v>69</v>
       </c>
@@ -5125,7 +5159,7 @@
       <c r="L110" s="15"/>
       <c r="M110" s="15"/>
       <c r="N110" s="15"/>
-      <c r="O110" s="49"/>
+      <c r="O110" s="48"/>
       <c r="P110" s="2"/>
       <c r="Q110" s="3"/>
       <c r="R110" s="3"/>
@@ -5138,7 +5172,7 @@
       <c r="B111" s="2"/>
       <c r="C111" s="14"/>
       <c r="D111" s="14"/>
-      <c r="E111" s="32" t="s">
+      <c r="E111" s="31" t="s">
         <v>154</v>
       </c>
       <c r="F111" s="28"/>
@@ -5146,7 +5180,7 @@
       <c r="H111" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I111" s="15"/>
+      <c r="I111" s="85"/>
       <c r="J111" s="15" t="s">
         <v>69</v>
       </c>
@@ -5156,7 +5190,7 @@
       <c r="L111" s="15"/>
       <c r="M111" s="15"/>
       <c r="N111" s="15"/>
-      <c r="O111" s="49"/>
+      <c r="O111" s="48"/>
       <c r="P111" s="2"/>
       <c r="Q111" s="3"/>
       <c r="R111" s="3"/>
@@ -5175,13 +5209,13 @@
       <c r="F112" s="25"/>
       <c r="G112" s="25"/>
       <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
+      <c r="I112" s="84"/>
       <c r="J112" s="13"/>
       <c r="K112" s="13"/>
       <c r="L112" s="13"/>
       <c r="M112" s="13"/>
       <c r="N112" s="13"/>
-      <c r="O112" s="52">
+      <c r="O112" s="50">
         <v>45901</v>
       </c>
       <c r="P112" s="2"/>
@@ -5194,7 +5228,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2"/>
-      <c r="C113" s="34"/>
+      <c r="C113" s="33"/>
       <c r="D113" s="21" t="s">
         <v>155</v>
       </c>
@@ -5204,7 +5238,7 @@
       <c r="H113" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I113" s="29" t="s">
+      <c r="I113" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J113" s="23" t="s">
@@ -5216,7 +5250,7 @@
       <c r="L113" s="23"/>
       <c r="M113" s="23"/>
       <c r="N113" s="23"/>
-      <c r="O113" s="53" t="s">
+      <c r="O113" s="51" t="s">
         <v>157</v>
       </c>
       <c r="P113" s="2"/>
@@ -5229,9 +5263,9 @@
         <v>112</v>
       </c>
       <c r="B114" s="2"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="35" t="s">
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="34" t="s">
         <v>158</v>
       </c>
       <c r="F114" s="22"/>
@@ -5239,7 +5273,7 @@
       <c r="H114" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I114" s="29" t="s">
+      <c r="I114" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J114" s="23" t="s">
@@ -5251,7 +5285,7 @@
       <c r="L114" s="23"/>
       <c r="M114" s="23"/>
       <c r="N114" s="23"/>
-      <c r="O114" s="53"/>
+      <c r="O114" s="51"/>
       <c r="P114" s="2"/>
       <c r="Q114" s="3"/>
       <c r="R114" s="3"/>
@@ -5262,17 +5296,17 @@
         <v>113</v>
       </c>
       <c r="B115" s="2"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="34"/>
-      <c r="F115" s="39" t="s">
+      <c r="C115" s="33"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="G115" s="37"/>
+      <c r="G115" s="36"/>
       <c r="H115" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I115" s="29" t="s">
+      <c r="I115" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J115" s="23" t="s">
@@ -5284,7 +5318,7 @@
       <c r="L115" s="23"/>
       <c r="M115" s="23"/>
       <c r="N115" s="23"/>
-      <c r="O115" s="53"/>
+      <c r="O115" s="51"/>
       <c r="P115" s="2"/>
       <c r="Q115" s="3"/>
       <c r="R115" s="3"/>
@@ -5295,17 +5329,17 @@
         <v>114</v>
       </c>
       <c r="B116" s="2"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="34"/>
-      <c r="E116" s="34"/>
-      <c r="F116" s="38" t="s">
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="G116" s="36"/>
+      <c r="G116" s="35"/>
       <c r="H116" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I116" s="29" t="s">
+      <c r="I116" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J116" s="23" t="s">
@@ -5317,7 +5351,7 @@
       <c r="L116" s="23"/>
       <c r="M116" s="23"/>
       <c r="N116" s="23"/>
-      <c r="O116" s="53"/>
+      <c r="O116" s="51"/>
       <c r="P116" s="2"/>
       <c r="Q116" s="3"/>
       <c r="R116" s="3"/>
@@ -5328,17 +5362,17 @@
         <v>115</v>
       </c>
       <c r="B117" s="2"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="34"/>
-      <c r="F117" s="38" t="s">
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="G117" s="36"/>
+      <c r="G117" s="35"/>
       <c r="H117" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I117" s="29" t="s">
+      <c r="I117" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J117" s="23"/>
@@ -5346,7 +5380,7 @@
       <c r="L117" s="23"/>
       <c r="M117" s="23"/>
       <c r="N117" s="23"/>
-      <c r="O117" s="53"/>
+      <c r="O117" s="51"/>
       <c r="P117" s="2"/>
       <c r="Q117" s="3"/>
       <c r="R117" s="3"/>
@@ -5357,17 +5391,17 @@
         <v>116</v>
       </c>
       <c r="B118" s="2"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="34"/>
-      <c r="E118" s="34"/>
-      <c r="F118" s="38" t="s">
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="G118" s="36"/>
+      <c r="G118" s="35"/>
       <c r="H118" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I118" s="29" t="s">
+      <c r="I118" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J118" s="23" t="s">
@@ -5379,7 +5413,7 @@
       <c r="L118" s="23"/>
       <c r="M118" s="23"/>
       <c r="N118" s="23"/>
-      <c r="O118" s="53" t="s">
+      <c r="O118" s="51" t="s">
         <v>160</v>
       </c>
       <c r="P118" s="2"/>
@@ -5392,17 +5426,17 @@
         <v>117</v>
       </c>
       <c r="B119" s="2"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="34"/>
-      <c r="E119" s="35" t="s">
+      <c r="C119" s="33"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="F119" s="37"/>
-      <c r="G119" s="36"/>
+      <c r="F119" s="36"/>
+      <c r="G119" s="35"/>
       <c r="H119" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I119" s="29" t="s">
+      <c r="I119" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J119" s="23" t="s">
@@ -5414,7 +5448,7 @@
       <c r="L119" s="23"/>
       <c r="M119" s="23"/>
       <c r="N119" s="23"/>
-      <c r="O119" s="53" t="s">
+      <c r="O119" s="51" t="s">
         <v>252</v>
       </c>
       <c r="P119" s="2"/>
@@ -5427,17 +5461,17 @@
         <v>118</v>
       </c>
       <c r="B120" s="2"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="34"/>
-      <c r="E120" s="34"/>
-      <c r="F120" s="54" t="s">
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="G120" s="36"/>
+      <c r="G120" s="35"/>
       <c r="H120" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I120" s="29" t="s">
+      <c r="I120" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J120" s="23" t="s">
@@ -5449,7 +5483,7 @@
       <c r="L120" s="23"/>
       <c r="M120" s="23"/>
       <c r="N120" s="23"/>
-      <c r="O120" s="53"/>
+      <c r="O120" s="51"/>
       <c r="P120" s="2"/>
       <c r="Q120" s="3"/>
       <c r="R120" s="3"/>
@@ -5460,17 +5494,17 @@
         <v>119</v>
       </c>
       <c r="B121" s="2"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="34"/>
-      <c r="E121" s="34"/>
-      <c r="F121" s="54"/>
-      <c r="G121" s="38" t="s">
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="52"/>
+      <c r="G121" s="37" t="s">
         <v>253</v>
       </c>
       <c r="H121" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I121" s="29" t="s">
+      <c r="I121" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J121" s="23" t="s">
@@ -5482,7 +5516,7 @@
       <c r="L121" s="23"/>
       <c r="M121" s="23"/>
       <c r="N121" s="23"/>
-      <c r="O121" s="53"/>
+      <c r="O121" s="51"/>
       <c r="P121" s="2"/>
       <c r="Q121" s="3"/>
       <c r="R121" s="3"/>
@@ -5493,17 +5527,17 @@
         <v>120</v>
       </c>
       <c r="B122" s="2"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34"/>
-      <c r="F122" s="54"/>
-      <c r="G122" s="38" t="s">
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="52"/>
+      <c r="G122" s="37" t="s">
         <v>254</v>
       </c>
       <c r="H122" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I122" s="29" t="s">
+      <c r="I122" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J122" s="23" t="s">
@@ -5515,7 +5549,7 @@
       <c r="L122" s="23"/>
       <c r="M122" s="23"/>
       <c r="N122" s="23"/>
-      <c r="O122" s="53"/>
+      <c r="O122" s="51"/>
       <c r="P122" s="2"/>
       <c r="Q122" s="3"/>
       <c r="R122" s="3"/>
@@ -5526,17 +5560,17 @@
         <v>121</v>
       </c>
       <c r="B123" s="2"/>
-      <c r="C123" s="34"/>
-      <c r="D123" s="34"/>
-      <c r="E123" s="34"/>
-      <c r="F123" s="54"/>
-      <c r="G123" s="38" t="s">
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="52"/>
+      <c r="G123" s="37" t="s">
         <v>255</v>
       </c>
       <c r="H123" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I123" s="29" t="s">
+      <c r="I123" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J123" s="23" t="s">
@@ -5548,7 +5582,7 @@
       <c r="L123" s="23"/>
       <c r="M123" s="23"/>
       <c r="N123" s="23"/>
-      <c r="O123" s="53"/>
+      <c r="O123" s="51"/>
       <c r="P123" s="2"/>
       <c r="Q123" s="3"/>
       <c r="R123" s="3"/>
@@ -5559,17 +5593,17 @@
         <v>122</v>
       </c>
       <c r="B124" s="2"/>
-      <c r="C124" s="34"/>
-      <c r="D124" s="34"/>
-      <c r="E124" s="34"/>
-      <c r="F124" s="54"/>
-      <c r="G124" s="38" t="s">
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="52"/>
+      <c r="G124" s="37" t="s">
         <v>187</v>
       </c>
       <c r="H124" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I124" s="29" t="s">
+      <c r="I124" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J124" s="23" t="s">
@@ -5581,7 +5615,7 @@
       <c r="L124" s="23"/>
       <c r="M124" s="23"/>
       <c r="N124" s="23"/>
-      <c r="O124" s="53"/>
+      <c r="O124" s="51"/>
       <c r="P124" s="2"/>
       <c r="Q124" s="3"/>
       <c r="R124" s="3"/>
@@ -5592,17 +5626,17 @@
         <v>123</v>
       </c>
       <c r="B125" s="2"/>
-      <c r="C125" s="34"/>
-      <c r="D125" s="34"/>
-      <c r="E125" s="34"/>
-      <c r="F125" s="39" t="s">
+      <c r="C125" s="33"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="G125" s="36"/>
+      <c r="G125" s="35"/>
       <c r="H125" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I125" s="29" t="s">
+      <c r="I125" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J125" s="23" t="s">
@@ -5614,7 +5648,7 @@
       <c r="L125" s="23"/>
       <c r="M125" s="23"/>
       <c r="N125" s="23"/>
-      <c r="O125" s="53"/>
+      <c r="O125" s="51"/>
       <c r="P125" s="2"/>
       <c r="Q125" s="3"/>
       <c r="R125" s="3"/>
@@ -5625,17 +5659,17 @@
         <v>124</v>
       </c>
       <c r="B126" s="2"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="34"/>
-      <c r="F126" s="54" t="s">
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="33"/>
+      <c r="F126" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="G126" s="36"/>
+      <c r="G126" s="35"/>
       <c r="H126" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I126" s="29" t="s">
+      <c r="I126" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J126" s="23" t="s">
@@ -5647,7 +5681,7 @@
       <c r="L126" s="23"/>
       <c r="M126" s="23"/>
       <c r="N126" s="23"/>
-      <c r="O126" s="53"/>
+      <c r="O126" s="51"/>
       <c r="P126" s="2"/>
       <c r="Q126" s="3"/>
       <c r="R126" s="3"/>
@@ -5658,17 +5692,17 @@
         <v>125</v>
       </c>
       <c r="B127" s="2"/>
-      <c r="C127" s="34"/>
-      <c r="D127" s="34"/>
-      <c r="E127" s="34"/>
-      <c r="F127" s="54"/>
-      <c r="G127" s="38" t="s">
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="33"/>
+      <c r="F127" s="52"/>
+      <c r="G127" s="37" t="s">
         <v>173</v>
       </c>
       <c r="H127" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I127" s="29" t="s">
+      <c r="I127" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J127" s="23" t="s">
@@ -5680,7 +5714,7 @@
       <c r="L127" s="23"/>
       <c r="M127" s="23"/>
       <c r="N127" s="23"/>
-      <c r="O127" s="53"/>
+      <c r="O127" s="51"/>
       <c r="P127" s="2"/>
       <c r="Q127" s="3"/>
       <c r="R127" s="3"/>
@@ -5691,17 +5725,17 @@
         <v>126</v>
       </c>
       <c r="B128" s="2"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="34"/>
-      <c r="E128" s="34"/>
-      <c r="F128" s="54"/>
-      <c r="G128" s="38" t="s">
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="33"/>
+      <c r="F128" s="52"/>
+      <c r="G128" s="37" t="s">
         <v>256</v>
       </c>
       <c r="H128" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I128" s="29" t="s">
+      <c r="I128" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J128" s="23" t="s">
@@ -5713,7 +5747,7 @@
       <c r="L128" s="23"/>
       <c r="M128" s="23"/>
       <c r="N128" s="23"/>
-      <c r="O128" s="53"/>
+      <c r="O128" s="51"/>
       <c r="P128" s="2"/>
       <c r="Q128" s="3"/>
       <c r="R128" s="3"/>
@@ -5724,17 +5758,17 @@
         <v>127</v>
       </c>
       <c r="B129" s="2"/>
-      <c r="C129" s="34"/>
-      <c r="D129" s="34"/>
-      <c r="E129" s="34"/>
-      <c r="F129" s="38"/>
-      <c r="G129" s="38" t="s">
+      <c r="C129" s="33"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="37"/>
+      <c r="G129" s="37" t="s">
         <v>257</v>
       </c>
       <c r="H129" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I129" s="29" t="s">
+      <c r="I129" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J129" s="23" t="s">
@@ -5746,7 +5780,7 @@
       <c r="L129" s="23"/>
       <c r="M129" s="23"/>
       <c r="N129" s="23"/>
-      <c r="O129" s="53"/>
+      <c r="O129" s="51"/>
       <c r="P129" s="2"/>
       <c r="Q129" s="3"/>
       <c r="R129" s="3"/>
@@ -5757,17 +5791,17 @@
         <v>128</v>
       </c>
       <c r="B130" s="2"/>
-      <c r="C130" s="34"/>
-      <c r="D130" s="34"/>
-      <c r="E130" s="34"/>
-      <c r="F130" s="54" t="s">
+      <c r="C130" s="33"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="33"/>
+      <c r="F130" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="G130" s="36"/>
+      <c r="G130" s="35"/>
       <c r="H130" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I130" s="29" t="s">
+      <c r="I130" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J130" s="23" t="s">
@@ -5779,7 +5813,7 @@
       <c r="L130" s="23"/>
       <c r="M130" s="23"/>
       <c r="N130" s="23"/>
-      <c r="O130" s="53"/>
+      <c r="O130" s="51"/>
       <c r="P130" s="2"/>
       <c r="Q130" s="3"/>
       <c r="R130" s="3"/>
@@ -5790,7 +5824,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="2"/>
-      <c r="C131" s="34"/>
+      <c r="C131" s="33"/>
       <c r="D131" s="21" t="s">
         <v>14</v>
       </c>
@@ -5800,7 +5834,7 @@
       <c r="H131" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I131" s="29" t="s">
+      <c r="I131" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J131" s="23" t="s">
@@ -5812,7 +5846,7 @@
       <c r="L131" s="23"/>
       <c r="M131" s="23"/>
       <c r="N131" s="23"/>
-      <c r="O131" s="53"/>
+      <c r="O131" s="51"/>
       <c r="P131" s="2"/>
       <c r="Q131" s="3"/>
       <c r="R131" s="3"/>
@@ -5823,9 +5857,9 @@
         <v>130</v>
       </c>
       <c r="B132" s="2"/>
-      <c r="C132" s="34"/>
-      <c r="D132" s="34"/>
-      <c r="E132" s="35" t="s">
+      <c r="C132" s="33"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="34" t="s">
         <v>162</v>
       </c>
       <c r="F132" s="22"/>
@@ -5833,7 +5867,7 @@
       <c r="H132" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I132" s="29" t="s">
+      <c r="I132" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J132" s="23" t="s">
@@ -5845,7 +5879,7 @@
       <c r="L132" s="23"/>
       <c r="M132" s="23"/>
       <c r="N132" s="23"/>
-      <c r="O132" s="53"/>
+      <c r="O132" s="51"/>
       <c r="P132" s="2"/>
       <c r="Q132" s="3"/>
       <c r="R132" s="3"/>
@@ -5856,9 +5890,9 @@
         <v>131</v>
       </c>
       <c r="B133" s="2"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="34"/>
-      <c r="E133" s="35" t="s">
+      <c r="C133" s="33"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="34" t="s">
         <v>163</v>
       </c>
       <c r="F133" s="22"/>
@@ -5866,7 +5900,7 @@
       <c r="H133" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I133" s="29" t="s">
+      <c r="I133" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J133" s="23" t="s">
@@ -5878,7 +5912,7 @@
       <c r="L133" s="23"/>
       <c r="M133" s="23"/>
       <c r="N133" s="23"/>
-      <c r="O133" s="53"/>
+      <c r="O133" s="51"/>
       <c r="P133" s="2"/>
       <c r="Q133" s="3"/>
       <c r="R133" s="3"/>
@@ -5889,9 +5923,9 @@
         <v>132</v>
       </c>
       <c r="B134" s="2"/>
-      <c r="C134" s="34"/>
-      <c r="D134" s="34"/>
-      <c r="E134" s="35" t="s">
+      <c r="C134" s="33"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="34" t="s">
         <v>164</v>
       </c>
       <c r="F134" s="22"/>
@@ -5899,7 +5933,7 @@
       <c r="H134" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I134" s="29" t="s">
+      <c r="I134" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J134" s="23" t="s">
@@ -5911,7 +5945,7 @@
       <c r="L134" s="23"/>
       <c r="M134" s="23"/>
       <c r="N134" s="23"/>
-      <c r="O134" s="53"/>
+      <c r="O134" s="51"/>
       <c r="P134" s="2"/>
       <c r="Q134" s="3"/>
       <c r="R134" s="3"/>
@@ -5922,7 +5956,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="2"/>
-      <c r="C135" s="34"/>
+      <c r="C135" s="33"/>
       <c r="D135" s="21" t="s">
         <v>19</v>
       </c>
@@ -5932,7 +5966,7 @@
       <c r="H135" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I135" s="29" t="s">
+      <c r="I135" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J135" s="23" t="s">
@@ -5944,7 +5978,7 @@
       <c r="L135" s="23"/>
       <c r="M135" s="23"/>
       <c r="N135" s="23"/>
-      <c r="O135" s="53"/>
+      <c r="O135" s="51"/>
       <c r="P135" s="2"/>
       <c r="Q135" s="3"/>
       <c r="R135" s="3"/>
@@ -5955,17 +5989,17 @@
         <v>134</v>
       </c>
       <c r="B136" s="2"/>
-      <c r="C136" s="34"/>
-      <c r="D136" s="34"/>
-      <c r="E136" s="39" t="s">
+      <c r="C136" s="33"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F136" s="37"/>
-      <c r="G136" s="37"/>
+      <c r="F136" s="36"/>
+      <c r="G136" s="36"/>
       <c r="H136" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I136" s="29" t="s">
+      <c r="I136" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J136" s="23" t="s">
@@ -5977,7 +6011,7 @@
       <c r="L136" s="23"/>
       <c r="M136" s="23"/>
       <c r="N136" s="23"/>
-      <c r="O136" s="53"/>
+      <c r="O136" s="51"/>
       <c r="P136" s="2"/>
       <c r="Q136" s="3"/>
       <c r="R136" s="3"/>
@@ -5988,17 +6022,17 @@
         <v>135</v>
       </c>
       <c r="B137" s="2"/>
-      <c r="C137" s="34"/>
-      <c r="D137" s="34"/>
-      <c r="E137" s="54" t="s">
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="52" t="s">
         <v>258</v>
       </c>
       <c r="F137" s="24"/>
-      <c r="G137" s="55"/>
+      <c r="G137" s="53"/>
       <c r="H137" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I137" s="29" t="s">
+      <c r="I137" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J137" s="23" t="s">
@@ -6010,7 +6044,7 @@
       <c r="L137" s="23"/>
       <c r="M137" s="23"/>
       <c r="N137" s="23"/>
-      <c r="O137" s="53"/>
+      <c r="O137" s="51"/>
       <c r="P137" s="2"/>
       <c r="Q137" s="3"/>
       <c r="R137" s="3"/>
@@ -6021,17 +6055,17 @@
         <v>136</v>
       </c>
       <c r="B138" s="2"/>
-      <c r="C138" s="34"/>
-      <c r="D138" s="34"/>
-      <c r="E138" s="38"/>
-      <c r="F138" s="39" t="s">
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="37"/>
+      <c r="F138" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="G138" s="36"/>
+      <c r="G138" s="35"/>
       <c r="H138" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I138" s="29" t="s">
+      <c r="I138" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J138" s="23" t="s">
@@ -6043,7 +6077,7 @@
       <c r="L138" s="23"/>
       <c r="M138" s="23"/>
       <c r="N138" s="23"/>
-      <c r="O138" s="53"/>
+      <c r="O138" s="51"/>
       <c r="P138" s="2"/>
       <c r="Q138" s="3"/>
       <c r="R138" s="3"/>
@@ -6054,17 +6088,17 @@
         <v>137</v>
       </c>
       <c r="B139" s="2"/>
-      <c r="C139" s="34"/>
-      <c r="D139" s="34"/>
-      <c r="E139" s="35" t="s">
+      <c r="C139" s="33"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="34" t="s">
         <v>260</v>
       </c>
       <c r="F139" s="24"/>
-      <c r="G139" s="55"/>
+      <c r="G139" s="53"/>
       <c r="H139" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I139" s="29" t="s">
+      <c r="I139" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J139" s="23" t="s">
@@ -6076,7 +6110,7 @@
       <c r="L139" s="23"/>
       <c r="M139" s="23"/>
       <c r="N139" s="23"/>
-      <c r="O139" s="53"/>
+      <c r="O139" s="51"/>
       <c r="P139" s="2"/>
       <c r="Q139" s="3"/>
       <c r="R139" s="3"/>
@@ -6087,17 +6121,17 @@
         <v>138</v>
       </c>
       <c r="B140" s="2"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="34"/>
-      <c r="E140" s="54"/>
-      <c r="F140" s="39" t="s">
+      <c r="C140" s="33"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="52"/>
+      <c r="F140" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="G140" s="36"/>
+      <c r="G140" s="35"/>
       <c r="H140" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I140" s="29" t="s">
+      <c r="I140" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J140" s="23" t="s">
@@ -6109,7 +6143,7 @@
       <c r="L140" s="23"/>
       <c r="M140" s="23"/>
       <c r="N140" s="23"/>
-      <c r="O140" s="53"/>
+      <c r="O140" s="51"/>
       <c r="P140" s="2"/>
       <c r="Q140" s="3"/>
       <c r="R140" s="3"/>
@@ -6120,7 +6154,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2"/>
-      <c r="C141" s="34"/>
+      <c r="C141" s="33"/>
       <c r="D141" s="21" t="s">
         <v>262</v>
       </c>
@@ -6130,7 +6164,7 @@
       <c r="H141" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I141" s="29" t="s">
+      <c r="I141" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J141" s="23" t="s">
@@ -6142,7 +6176,7 @@
       <c r="L141" s="23"/>
       <c r="M141" s="23"/>
       <c r="N141" s="23"/>
-      <c r="O141" s="53" t="s">
+      <c r="O141" s="51" t="s">
         <v>263</v>
       </c>
       <c r="P141" s="2"/>
@@ -6155,9 +6189,9 @@
         <v>140</v>
       </c>
       <c r="B142" s="2"/>
-      <c r="C142" s="34"/>
-      <c r="D142" s="34"/>
-      <c r="E142" s="35" t="s">
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="34" t="s">
         <v>264</v>
       </c>
       <c r="F142" s="22"/>
@@ -6165,7 +6199,7 @@
       <c r="H142" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I142" s="29" t="s">
+      <c r="I142" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J142" s="23" t="s">
@@ -6177,7 +6211,7 @@
       <c r="L142" s="23"/>
       <c r="M142" s="23"/>
       <c r="N142" s="23"/>
-      <c r="O142" s="53"/>
+      <c r="O142" s="51"/>
       <c r="P142" s="2"/>
       <c r="Q142" s="3"/>
       <c r="R142" s="3"/>
@@ -6188,17 +6222,17 @@
         <v>141</v>
       </c>
       <c r="B143" s="2"/>
-      <c r="C143" s="34"/>
+      <c r="C143" s="33"/>
       <c r="D143" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E143" s="37"/>
-      <c r="F143" s="37"/>
-      <c r="G143" s="37"/>
+      <c r="E143" s="36"/>
+      <c r="F143" s="36"/>
+      <c r="G143" s="36"/>
       <c r="H143" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I143" s="29" t="s">
+      <c r="I143" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J143" s="23" t="s">
@@ -6210,7 +6244,7 @@
       <c r="L143" s="23"/>
       <c r="M143" s="23"/>
       <c r="N143" s="23"/>
-      <c r="O143" s="53" t="s">
+      <c r="O143" s="51" t="s">
         <v>165</v>
       </c>
       <c r="P143" s="2"/>
@@ -6223,9 +6257,9 @@
         <v>142</v>
       </c>
       <c r="B144" s="2"/>
-      <c r="C144" s="34"/>
-      <c r="D144" s="34"/>
-      <c r="E144" s="38" t="s">
+      <c r="C144" s="33"/>
+      <c r="D144" s="33"/>
+      <c r="E144" s="37" t="s">
         <v>166</v>
       </c>
       <c r="F144" s="24"/>
@@ -6233,7 +6267,7 @@
       <c r="H144" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I144" s="29" t="s">
+      <c r="I144" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J144" s="23" t="s">
@@ -6245,7 +6279,7 @@
       <c r="L144" s="23"/>
       <c r="M144" s="23"/>
       <c r="N144" s="23"/>
-      <c r="O144" s="53" t="s">
+      <c r="O144" s="51" t="s">
         <v>167</v>
       </c>
       <c r="P144" s="2"/>
@@ -6258,9 +6292,9 @@
         <v>143</v>
       </c>
       <c r="B145" s="2"/>
-      <c r="C145" s="34"/>
-      <c r="D145" s="34"/>
-      <c r="E145" s="38" t="s">
+      <c r="C145" s="33"/>
+      <c r="D145" s="33"/>
+      <c r="E145" s="37" t="s">
         <v>168</v>
       </c>
       <c r="F145" s="22"/>
@@ -6268,7 +6302,7 @@
       <c r="H145" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I145" s="29" t="s">
+      <c r="I145" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J145" s="23" t="s">
@@ -6280,7 +6314,7 @@
       <c r="L145" s="23"/>
       <c r="M145" s="23"/>
       <c r="N145" s="23"/>
-      <c r="O145" s="53" t="s">
+      <c r="O145" s="51" t="s">
         <v>169</v>
       </c>
       <c r="P145" s="2"/>
@@ -6293,9 +6327,9 @@
         <v>144</v>
       </c>
       <c r="B146" s="2"/>
-      <c r="C146" s="34"/>
-      <c r="D146" s="34"/>
-      <c r="E146" s="38" t="s">
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="37" t="s">
         <v>170</v>
       </c>
       <c r="F146" s="22"/>
@@ -6303,7 +6337,7 @@
       <c r="H146" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I146" s="29" t="s">
+      <c r="I146" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J146" s="23" t="s">
@@ -6315,7 +6349,7 @@
       <c r="L146" s="23"/>
       <c r="M146" s="23"/>
       <c r="N146" s="23"/>
-      <c r="O146" s="53"/>
+      <c r="O146" s="51"/>
       <c r="P146" s="2"/>
       <c r="Q146" s="3"/>
       <c r="R146" s="3"/>
@@ -6326,9 +6360,9 @@
         <v>145</v>
       </c>
       <c r="B147" s="2"/>
-      <c r="C147" s="34"/>
-      <c r="D147" s="34"/>
-      <c r="E147" s="38" t="s">
+      <c r="C147" s="33"/>
+      <c r="D147" s="33"/>
+      <c r="E147" s="37" t="s">
         <v>171</v>
       </c>
       <c r="F147" s="22"/>
@@ -6336,7 +6370,7 @@
       <c r="H147" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I147" s="29" t="s">
+      <c r="I147" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J147" s="23" t="s">
@@ -6348,7 +6382,7 @@
       <c r="L147" s="23"/>
       <c r="M147" s="23"/>
       <c r="N147" s="23"/>
-      <c r="O147" s="53"/>
+      <c r="O147" s="51"/>
       <c r="P147" s="2"/>
       <c r="Q147" s="3"/>
       <c r="R147" s="3"/>
@@ -6359,9 +6393,9 @@
         <v>146</v>
       </c>
       <c r="B148" s="2"/>
-      <c r="C148" s="34"/>
-      <c r="D148" s="34"/>
-      <c r="E148" s="38" t="s">
+      <c r="C148" s="33"/>
+      <c r="D148" s="33"/>
+      <c r="E148" s="37" t="s">
         <v>172</v>
       </c>
       <c r="F148" s="22"/>
@@ -6369,7 +6403,7 @@
       <c r="H148" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I148" s="29" t="s">
+      <c r="I148" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J148" s="23" t="s">
@@ -6381,7 +6415,7 @@
       <c r="L148" s="23"/>
       <c r="M148" s="23"/>
       <c r="N148" s="23"/>
-      <c r="O148" s="53"/>
+      <c r="O148" s="51"/>
       <c r="P148" s="2"/>
       <c r="Q148" s="3"/>
       <c r="R148" s="3"/>
@@ -6392,7 +6426,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2"/>
-      <c r="C149" s="34"/>
+      <c r="C149" s="33"/>
       <c r="D149" s="21" t="s">
         <v>43</v>
       </c>
@@ -6402,7 +6436,7 @@
       <c r="H149" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I149" s="29" t="s">
+      <c r="I149" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J149" s="23" t="s">
@@ -6414,7 +6448,7 @@
       <c r="L149" s="23"/>
       <c r="M149" s="23"/>
       <c r="N149" s="23"/>
-      <c r="O149" s="53"/>
+      <c r="O149" s="51"/>
       <c r="P149" s="2"/>
       <c r="Q149" s="3"/>
       <c r="R149" s="3"/>
@@ -6425,9 +6459,9 @@
         <v>148</v>
       </c>
       <c r="B150" s="2"/>
-      <c r="C150" s="34"/>
-      <c r="D150" s="34"/>
-      <c r="E150" s="35" t="s">
+      <c r="C150" s="33"/>
+      <c r="D150" s="33"/>
+      <c r="E150" s="34" t="s">
         <v>43</v>
       </c>
       <c r="F150" s="22"/>
@@ -6435,7 +6469,7 @@
       <c r="H150" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I150" s="29" t="s">
+      <c r="I150" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J150" s="23" t="s">
@@ -6447,7 +6481,7 @@
       <c r="L150" s="23"/>
       <c r="M150" s="23"/>
       <c r="N150" s="23"/>
-      <c r="O150" s="53"/>
+      <c r="O150" s="51"/>
       <c r="P150" s="2"/>
       <c r="Q150" s="3"/>
       <c r="R150" s="3"/>
@@ -6458,17 +6492,17 @@
         <v>149</v>
       </c>
       <c r="B151" s="2"/>
-      <c r="C151" s="34"/>
-      <c r="D151" s="34"/>
-      <c r="E151" s="34"/>
-      <c r="F151" s="39" t="s">
+      <c r="C151" s="33"/>
+      <c r="D151" s="33"/>
+      <c r="E151" s="33"/>
+      <c r="F151" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="G151" s="37"/>
+      <c r="G151" s="36"/>
       <c r="H151" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I151" s="29" t="s">
+      <c r="I151" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J151" s="23" t="s">
@@ -6480,7 +6514,7 @@
       <c r="L151" s="23"/>
       <c r="M151" s="23"/>
       <c r="N151" s="23"/>
-      <c r="O151" s="53"/>
+      <c r="O151" s="51"/>
       <c r="P151" s="2"/>
       <c r="Q151" s="3"/>
       <c r="R151" s="3"/>
@@ -6491,9 +6525,9 @@
         <v>150</v>
       </c>
       <c r="B152" s="2"/>
-      <c r="C152" s="34"/>
-      <c r="D152" s="34"/>
-      <c r="E152" s="35" t="s">
+      <c r="C152" s="33"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="34" t="s">
         <v>174</v>
       </c>
       <c r="F152" s="24"/>
@@ -6501,7 +6535,7 @@
       <c r="H152" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I152" s="29" t="s">
+      <c r="I152" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J152" s="23" t="s">
@@ -6513,7 +6547,7 @@
       <c r="L152" s="23"/>
       <c r="M152" s="23"/>
       <c r="N152" s="23"/>
-      <c r="O152" s="53"/>
+      <c r="O152" s="51"/>
       <c r="P152" s="2"/>
       <c r="Q152" s="3"/>
       <c r="R152" s="3"/>
@@ -6524,17 +6558,17 @@
         <v>151</v>
       </c>
       <c r="B153" s="2"/>
-      <c r="C153" s="34"/>
-      <c r="D153" s="34"/>
-      <c r="E153" s="34"/>
-      <c r="F153" s="39" t="s">
+      <c r="C153" s="33"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="33"/>
+      <c r="F153" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="G153" s="37"/>
+      <c r="G153" s="36"/>
       <c r="H153" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I153" s="29" t="s">
+      <c r="I153" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J153" s="23" t="s">
@@ -6546,7 +6580,7 @@
       <c r="L153" s="23"/>
       <c r="M153" s="23"/>
       <c r="N153" s="23"/>
-      <c r="O153" s="53"/>
+      <c r="O153" s="51"/>
       <c r="P153" s="2"/>
       <c r="Q153" s="3"/>
       <c r="R153" s="3"/>
@@ -6557,17 +6591,17 @@
         <v>152</v>
       </c>
       <c r="B154" s="2"/>
-      <c r="C154" s="34"/>
-      <c r="D154" s="34"/>
-      <c r="E154" s="34"/>
-      <c r="F154" s="38" t="s">
+      <c r="C154" s="33"/>
+      <c r="D154" s="33"/>
+      <c r="E154" s="33"/>
+      <c r="F154" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="G154" s="36"/>
+      <c r="G154" s="35"/>
       <c r="H154" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I154" s="29" t="s">
+      <c r="I154" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J154" s="23" t="s">
@@ -6579,7 +6613,7 @@
       <c r="L154" s="23"/>
       <c r="M154" s="23"/>
       <c r="N154" s="23"/>
-      <c r="O154" s="53"/>
+      <c r="O154" s="51"/>
       <c r="P154" s="2"/>
       <c r="Q154" s="3"/>
       <c r="R154" s="3"/>
@@ -6590,9 +6624,9 @@
         <v>153</v>
       </c>
       <c r="B155" s="2"/>
-      <c r="C155" s="34"/>
-      <c r="D155" s="34"/>
-      <c r="E155" s="35" t="s">
+      <c r="C155" s="33"/>
+      <c r="D155" s="33"/>
+      <c r="E155" s="34" t="s">
         <v>177</v>
       </c>
       <c r="F155" s="24"/>
@@ -6600,7 +6634,7 @@
       <c r="H155" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I155" s="29" t="s">
+      <c r="I155" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J155" s="23" t="s">
@@ -6612,7 +6646,7 @@
       <c r="L155" s="23"/>
       <c r="M155" s="23"/>
       <c r="N155" s="23"/>
-      <c r="O155" s="53"/>
+      <c r="O155" s="51"/>
       <c r="P155" s="2"/>
       <c r="Q155" s="3"/>
       <c r="R155" s="3"/>
@@ -6623,17 +6657,17 @@
         <v>154</v>
       </c>
       <c r="B156" s="2"/>
-      <c r="C156" s="34"/>
-      <c r="D156" s="34"/>
-      <c r="E156" s="34"/>
-      <c r="F156" s="39" t="s">
+      <c r="C156" s="33"/>
+      <c r="D156" s="33"/>
+      <c r="E156" s="33"/>
+      <c r="F156" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="G156" s="37"/>
+      <c r="G156" s="36"/>
       <c r="H156" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I156" s="29" t="s">
+      <c r="I156" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J156" s="23" t="s">
@@ -6645,7 +6679,7 @@
       <c r="L156" s="23"/>
       <c r="M156" s="23"/>
       <c r="N156" s="23"/>
-      <c r="O156" s="53"/>
+      <c r="O156" s="51"/>
       <c r="P156" s="2"/>
       <c r="Q156" s="3"/>
       <c r="R156" s="3"/>
@@ -6656,17 +6690,17 @@
         <v>155</v>
       </c>
       <c r="B157" s="2"/>
-      <c r="C157" s="34"/>
-      <c r="D157" s="34"/>
-      <c r="E157" s="34"/>
-      <c r="F157" s="38" t="s">
+      <c r="C157" s="33"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="33"/>
+      <c r="F157" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="G157" s="36"/>
+      <c r="G157" s="35"/>
       <c r="H157" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I157" s="29" t="s">
+      <c r="I157" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J157" s="23" t="s">
@@ -6678,7 +6712,7 @@
       <c r="L157" s="23"/>
       <c r="M157" s="23"/>
       <c r="N157" s="23"/>
-      <c r="O157" s="53"/>
+      <c r="O157" s="51"/>
       <c r="P157" s="2"/>
       <c r="Q157" s="3"/>
       <c r="R157" s="3"/>
@@ -6689,17 +6723,17 @@
         <v>156</v>
       </c>
       <c r="B158" s="2"/>
-      <c r="C158" s="34"/>
-      <c r="D158" s="34"/>
-      <c r="E158" s="56"/>
-      <c r="F158" s="38" t="s">
+      <c r="C158" s="33"/>
+      <c r="D158" s="33"/>
+      <c r="E158" s="54"/>
+      <c r="F158" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="G158" s="36"/>
+      <c r="G158" s="35"/>
       <c r="H158" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I158" s="29" t="s">
+      <c r="I158" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J158" s="23" t="s">
@@ -6711,7 +6745,7 @@
       <c r="L158" s="23"/>
       <c r="M158" s="23"/>
       <c r="N158" s="23"/>
-      <c r="O158" s="53"/>
+      <c r="O158" s="51"/>
       <c r="P158" s="2"/>
       <c r="Q158" s="3"/>
       <c r="R158" s="3"/>
@@ -6730,13 +6764,13 @@
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
       <c r="H159" s="13"/>
-      <c r="I159" s="13"/>
+      <c r="I159" s="84"/>
       <c r="J159" s="13"/>
       <c r="K159" s="13"/>
       <c r="L159" s="13"/>
       <c r="M159" s="13"/>
       <c r="N159" s="13"/>
-      <c r="O159" s="51"/>
+      <c r="O159" s="49"/>
       <c r="P159" s="2"/>
       <c r="Q159" s="3"/>
       <c r="R159" s="3"/>
@@ -6757,7 +6791,7 @@
       <c r="H160" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I160" s="29" t="s">
+      <c r="I160" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J160" s="15" t="s">
@@ -6769,7 +6803,7 @@
       <c r="L160" s="15"/>
       <c r="M160" s="15"/>
       <c r="N160" s="15"/>
-      <c r="O160" s="49"/>
+      <c r="O160" s="48"/>
       <c r="P160" s="2"/>
       <c r="Q160" s="3"/>
       <c r="R160" s="3"/>
@@ -6782,7 +6816,7 @@
       <c r="B161" s="2"/>
       <c r="C161" s="14"/>
       <c r="D161" s="14"/>
-      <c r="E161" s="33" t="s">
+      <c r="E161" s="32" t="s">
         <v>184</v>
       </c>
       <c r="F161" s="28"/>
@@ -6790,7 +6824,7 @@
       <c r="H161" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I161" s="29" t="s">
+      <c r="I161" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J161" s="15" t="s">
@@ -6802,7 +6836,7 @@
       <c r="L161" s="15"/>
       <c r="M161" s="15"/>
       <c r="N161" s="15"/>
-      <c r="O161" s="49"/>
+      <c r="O161" s="48"/>
       <c r="P161" s="2"/>
       <c r="Q161" s="3"/>
       <c r="R161" s="3"/>
@@ -6816,14 +6850,14 @@
       <c r="C162" s="14"/>
       <c r="D162" s="14"/>
       <c r="E162" s="14"/>
-      <c r="F162" s="31" t="s">
+      <c r="F162" s="30" t="s">
         <v>185</v>
       </c>
       <c r="G162" s="17"/>
       <c r="H162" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I162" s="50" t="s">
+      <c r="I162" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J162" s="15" t="s">
@@ -6835,7 +6869,7 @@
       <c r="L162" s="15"/>
       <c r="M162" s="15"/>
       <c r="N162" s="15"/>
-      <c r="O162" s="49"/>
+      <c r="O162" s="48"/>
       <c r="P162" s="2"/>
       <c r="Q162" s="3"/>
       <c r="R162" s="3"/>
@@ -6849,12 +6883,12 @@
       <c r="C163" s="14"/>
       <c r="D163" s="14"/>
       <c r="E163" s="14"/>
-      <c r="F163" s="42" t="s">
+      <c r="F163" s="41" t="s">
         <v>186</v>
       </c>
       <c r="G163" s="19"/>
       <c r="H163" s="15"/>
-      <c r="I163" s="50" t="s">
+      <c r="I163" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J163" s="15" t="s">
@@ -6866,7 +6900,7 @@
       <c r="L163" s="15"/>
       <c r="M163" s="15"/>
       <c r="N163" s="15"/>
-      <c r="O163" s="49"/>
+      <c r="O163" s="48"/>
       <c r="P163" s="2"/>
       <c r="Q163" s="3"/>
       <c r="R163" s="3"/>
@@ -6880,14 +6914,14 @@
       <c r="C164" s="14"/>
       <c r="D164" s="14"/>
       <c r="E164" s="14"/>
-      <c r="F164" s="42"/>
-      <c r="G164" s="32" t="s">
+      <c r="F164" s="41"/>
+      <c r="G164" s="31" t="s">
         <v>183</v>
       </c>
       <c r="H164" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I164" s="50" t="s">
+      <c r="I164" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J164" s="15" t="s">
@@ -6899,7 +6933,7 @@
       <c r="L164" s="15"/>
       <c r="M164" s="15"/>
       <c r="N164" s="15"/>
-      <c r="O164" s="49"/>
+      <c r="O164" s="48"/>
       <c r="P164" s="2"/>
       <c r="Q164" s="3"/>
       <c r="R164" s="3"/>
@@ -6913,14 +6947,14 @@
       <c r="C165" s="14"/>
       <c r="D165" s="14"/>
       <c r="E165" s="14"/>
-      <c r="F165" s="42"/>
-      <c r="G165" s="32" t="s">
+      <c r="F165" s="41"/>
+      <c r="G165" s="31" t="s">
         <v>182</v>
       </c>
       <c r="H165" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I165" s="50" t="s">
+      <c r="I165" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J165" s="15" t="s">
@@ -6932,7 +6966,7 @@
       <c r="L165" s="15"/>
       <c r="M165" s="15"/>
       <c r="N165" s="15"/>
-      <c r="O165" s="49"/>
+      <c r="O165" s="48"/>
       <c r="P165" s="2"/>
       <c r="Q165" s="3"/>
       <c r="R165" s="3"/>
@@ -6946,14 +6980,14 @@
       <c r="C166" s="14"/>
       <c r="D166" s="14"/>
       <c r="E166" s="14"/>
-      <c r="F166" s="42"/>
-      <c r="G166" s="32" t="s">
+      <c r="F166" s="41"/>
+      <c r="G166" s="31" t="s">
         <v>181</v>
       </c>
       <c r="H166" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I166" s="50" t="s">
+      <c r="I166" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J166" s="15" t="s">
@@ -6965,7 +6999,7 @@
       <c r="L166" s="15"/>
       <c r="M166" s="15"/>
       <c r="N166" s="15"/>
-      <c r="O166" s="49"/>
+      <c r="O166" s="48"/>
       <c r="P166" s="2"/>
       <c r="Q166" s="3"/>
       <c r="R166" s="3"/>
@@ -6979,14 +7013,14 @@
       <c r="C167" s="14"/>
       <c r="D167" s="14"/>
       <c r="E167" s="14"/>
-      <c r="F167" s="42"/>
-      <c r="G167" s="32" t="s">
+      <c r="F167" s="41"/>
+      <c r="G167" s="31" t="s">
         <v>187</v>
       </c>
       <c r="H167" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I167" s="50" t="s">
+      <c r="I167" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J167" s="15" t="s">
@@ -6998,7 +7032,7 @@
       <c r="L167" s="15"/>
       <c r="M167" s="15"/>
       <c r="N167" s="15"/>
-      <c r="O167" s="49"/>
+      <c r="O167" s="48"/>
       <c r="P167" s="2"/>
       <c r="Q167" s="3"/>
       <c r="R167" s="3"/>
@@ -7009,17 +7043,17 @@
         <v>166</v>
       </c>
       <c r="B168" s="3"/>
-      <c r="C168" s="42"/>
-      <c r="D168" s="42"/>
-      <c r="E168" s="42"/>
-      <c r="F168" s="42"/>
-      <c r="G168" s="32" t="s">
+      <c r="C168" s="41"/>
+      <c r="D168" s="41"/>
+      <c r="E168" s="41"/>
+      <c r="F168" s="41"/>
+      <c r="G168" s="31" t="s">
         <v>188</v>
       </c>
       <c r="H168" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I168" s="50" t="s">
+      <c r="I168" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J168" s="15" t="s">
@@ -7028,10 +7062,10 @@
       <c r="K168" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="L168" s="44"/>
-      <c r="M168" s="44"/>
-      <c r="N168" s="44"/>
-      <c r="O168" s="49"/>
+      <c r="L168" s="43"/>
+      <c r="M168" s="43"/>
+      <c r="N168" s="43"/>
+      <c r="O168" s="48"/>
       <c r="P168" s="3"/>
       <c r="Q168" s="3"/>
       <c r="R168" s="3"/>
@@ -7045,14 +7079,14 @@
       <c r="C169" s="14"/>
       <c r="D169" s="14"/>
       <c r="E169" s="14"/>
-      <c r="F169" s="31" t="s">
+      <c r="F169" s="30" t="s">
         <v>189</v>
       </c>
       <c r="G169" s="19"/>
       <c r="H169" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I169" s="50" t="s">
+      <c r="I169" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J169" s="15" t="s">
@@ -7064,7 +7098,7 @@
       <c r="L169" s="15"/>
       <c r="M169" s="15"/>
       <c r="N169" s="15"/>
-      <c r="O169" s="49"/>
+      <c r="O169" s="48"/>
       <c r="P169" s="2"/>
       <c r="Q169" s="3"/>
       <c r="R169" s="3"/>
@@ -7077,7 +7111,7 @@
       <c r="B170" s="2"/>
       <c r="C170" s="14"/>
       <c r="D170" s="14"/>
-      <c r="E170" s="33" t="s">
+      <c r="E170" s="32" t="s">
         <v>21</v>
       </c>
       <c r="F170" s="2"/>
@@ -7085,7 +7119,7 @@
       <c r="H170" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I170" s="29" t="s">
+      <c r="I170" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J170" s="15" t="s">
@@ -7097,7 +7131,7 @@
       <c r="L170" s="15"/>
       <c r="M170" s="15"/>
       <c r="N170" s="15"/>
-      <c r="O170" s="49"/>
+      <c r="O170" s="48"/>
       <c r="P170" s="2"/>
       <c r="Q170" s="3"/>
       <c r="R170" s="3"/>
@@ -7111,14 +7145,14 @@
       <c r="C171" s="14"/>
       <c r="D171" s="14"/>
       <c r="E171" s="14"/>
-      <c r="F171" s="31" t="s">
+      <c r="F171" s="30" t="s">
         <v>190</v>
       </c>
       <c r="G171" s="17"/>
       <c r="H171" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I171" s="50" t="s">
+      <c r="I171" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J171" s="15" t="s">
@@ -7130,7 +7164,7 @@
       <c r="L171" s="15"/>
       <c r="M171" s="15"/>
       <c r="N171" s="15"/>
-      <c r="O171" s="49"/>
+      <c r="O171" s="48"/>
       <c r="P171" s="2"/>
       <c r="Q171" s="3"/>
       <c r="R171" s="3"/>
@@ -7144,14 +7178,14 @@
       <c r="C172" s="14"/>
       <c r="D172" s="14"/>
       <c r="E172" s="14"/>
-      <c r="F172" s="32" t="s">
+      <c r="F172" s="31" t="s">
         <v>191</v>
       </c>
       <c r="G172" s="19"/>
       <c r="H172" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I172" s="50" t="s">
+      <c r="I172" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J172" s="15" t="s">
@@ -7163,7 +7197,7 @@
       <c r="L172" s="15"/>
       <c r="M172" s="15"/>
       <c r="N172" s="15"/>
-      <c r="O172" s="49"/>
+      <c r="O172" s="48"/>
       <c r="P172" s="2"/>
       <c r="Q172" s="3"/>
       <c r="R172" s="3"/>
@@ -7177,14 +7211,14 @@
       <c r="C173" s="14"/>
       <c r="D173" s="14"/>
       <c r="E173" s="14"/>
-      <c r="F173" s="32" t="s">
+      <c r="F173" s="31" t="s">
         <v>192</v>
       </c>
       <c r="G173" s="19"/>
       <c r="H173" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I173" s="50" t="s">
+      <c r="I173" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J173" s="15" t="s">
@@ -7196,7 +7230,7 @@
       <c r="L173" s="15"/>
       <c r="M173" s="15"/>
       <c r="N173" s="15"/>
-      <c r="O173" s="49"/>
+      <c r="O173" s="48"/>
       <c r="P173" s="2"/>
       <c r="Q173" s="3"/>
       <c r="R173" s="3"/>
@@ -7210,14 +7244,14 @@
       <c r="C174" s="14"/>
       <c r="D174" s="14"/>
       <c r="E174" s="14"/>
-      <c r="F174" s="42" t="s">
+      <c r="F174" s="41" t="s">
         <v>193</v>
       </c>
       <c r="G174" s="19"/>
       <c r="H174" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I174" s="29" t="s">
+      <c r="I174" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J174" s="15" t="s">
@@ -7229,7 +7263,7 @@
       <c r="L174" s="15"/>
       <c r="M174" s="15"/>
       <c r="N174" s="15"/>
-      <c r="O174" s="49"/>
+      <c r="O174" s="48"/>
       <c r="P174" s="2"/>
       <c r="Q174" s="3"/>
       <c r="R174" s="3"/>
@@ -7243,14 +7277,14 @@
       <c r="C175" s="14"/>
       <c r="D175" s="14"/>
       <c r="E175" s="14"/>
-      <c r="F175" s="42"/>
-      <c r="G175" s="30" t="s">
+      <c r="F175" s="41"/>
+      <c r="G175" s="29" t="s">
         <v>194</v>
       </c>
       <c r="H175" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I175" s="29" t="s">
+      <c r="I175" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J175" s="15" t="s">
@@ -7262,7 +7296,7 @@
       <c r="L175" s="15"/>
       <c r="M175" s="15"/>
       <c r="N175" s="15"/>
-      <c r="O175" s="49"/>
+      <c r="O175" s="48"/>
       <c r="P175" s="2"/>
       <c r="Q175" s="3"/>
       <c r="R175" s="3"/>
@@ -7276,14 +7310,14 @@
       <c r="C176" s="14"/>
       <c r="D176" s="14"/>
       <c r="E176" s="14"/>
-      <c r="F176" s="42"/>
-      <c r="G176" s="30" t="s">
+      <c r="F176" s="41"/>
+      <c r="G176" s="29" t="s">
         <v>195</v>
       </c>
       <c r="H176" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I176" s="50" t="s">
+      <c r="I176" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J176" s="15" t="s">
@@ -7295,7 +7329,7 @@
       <c r="L176" s="15"/>
       <c r="M176" s="15"/>
       <c r="N176" s="15"/>
-      <c r="O176" s="49"/>
+      <c r="O176" s="48"/>
       <c r="P176" s="2"/>
       <c r="Q176" s="3"/>
       <c r="R176" s="3"/>
@@ -7309,14 +7343,14 @@
       <c r="C177" s="14"/>
       <c r="D177" s="14"/>
       <c r="E177" s="14"/>
-      <c r="F177" s="42"/>
-      <c r="G177" s="30" t="s">
+      <c r="F177" s="41"/>
+      <c r="G177" s="29" t="s">
         <v>196</v>
       </c>
       <c r="H177" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I177" s="50" t="s">
+      <c r="I177" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J177" s="15" t="s">
@@ -7328,7 +7362,7 @@
       <c r="L177" s="15"/>
       <c r="M177" s="15"/>
       <c r="N177" s="15"/>
-      <c r="O177" s="49"/>
+      <c r="O177" s="48"/>
       <c r="P177" s="2"/>
       <c r="Q177" s="3"/>
       <c r="R177" s="3"/>
@@ -7342,14 +7376,14 @@
       <c r="C178" s="14"/>
       <c r="D178" s="14"/>
       <c r="E178" s="14"/>
-      <c r="F178" s="33" t="s">
+      <c r="F178" s="32" t="s">
         <v>197</v>
       </c>
       <c r="G178" s="19"/>
       <c r="H178" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I178" s="50" t="s">
+      <c r="I178" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J178" s="15" t="s">
@@ -7361,7 +7395,7 @@
       <c r="L178" s="15"/>
       <c r="M178" s="15"/>
       <c r="N178" s="15"/>
-      <c r="O178" s="49"/>
+      <c r="O178" s="48"/>
       <c r="P178" s="2"/>
       <c r="Q178" s="3"/>
       <c r="R178" s="3"/>
@@ -7375,14 +7409,14 @@
       <c r="C179" s="14"/>
       <c r="D179" s="14"/>
       <c r="E179" s="14"/>
-      <c r="F179" s="33" t="s">
+      <c r="F179" s="32" t="s">
         <v>265</v>
       </c>
       <c r="G179" s="19"/>
       <c r="H179" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I179" s="50" t="s">
+      <c r="I179" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J179" s="15" t="s">
@@ -7394,7 +7428,7 @@
       <c r="L179" s="15"/>
       <c r="M179" s="15"/>
       <c r="N179" s="15"/>
-      <c r="O179" s="49"/>
+      <c r="O179" s="48"/>
       <c r="P179" s="2"/>
       <c r="Q179" s="3"/>
       <c r="R179" s="3"/>
@@ -7408,14 +7442,14 @@
       <c r="C180" s="14"/>
       <c r="D180" s="14"/>
       <c r="E180" s="14"/>
-      <c r="F180" s="33" t="s">
+      <c r="F180" s="32" t="s">
         <v>266</v>
       </c>
       <c r="G180" s="19"/>
       <c r="H180" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I180" s="50" t="s">
+      <c r="I180" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J180" s="15" t="s">
@@ -7427,7 +7461,7 @@
       <c r="L180" s="15"/>
       <c r="M180" s="15"/>
       <c r="N180" s="15"/>
-      <c r="O180" s="49"/>
+      <c r="O180" s="48"/>
       <c r="P180" s="2"/>
       <c r="Q180" s="3"/>
       <c r="R180" s="3"/>
@@ -7441,14 +7475,14 @@
       <c r="C181" s="14"/>
       <c r="D181" s="14"/>
       <c r="E181" s="14"/>
-      <c r="F181" s="33" t="s">
+      <c r="F181" s="32" t="s">
         <v>198</v>
       </c>
       <c r="G181" s="19"/>
       <c r="H181" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I181" s="50" t="s">
+      <c r="I181" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J181" s="15" t="s">
@@ -7460,7 +7494,7 @@
       <c r="L181" s="15"/>
       <c r="M181" s="15"/>
       <c r="N181" s="15"/>
-      <c r="O181" s="49"/>
+      <c r="O181" s="48"/>
       <c r="P181" s="2"/>
       <c r="Q181" s="3"/>
       <c r="R181" s="3"/>
@@ -7474,14 +7508,14 @@
       <c r="C182" s="14"/>
       <c r="D182" s="14"/>
       <c r="E182" s="14"/>
-      <c r="F182" s="33" t="s">
+      <c r="F182" s="32" t="s">
         <v>267</v>
       </c>
       <c r="G182" s="19"/>
       <c r="H182" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I182" s="50" t="s">
+      <c r="I182" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J182" s="15" t="s">
@@ -7493,7 +7527,7 @@
       <c r="L182" s="15"/>
       <c r="M182" s="15"/>
       <c r="N182" s="15"/>
-      <c r="O182" s="49"/>
+      <c r="O182" s="48"/>
       <c r="P182" s="2"/>
       <c r="Q182" s="3"/>
       <c r="R182" s="3"/>
@@ -7506,7 +7540,7 @@
       <c r="B183" s="2"/>
       <c r="C183" s="14"/>
       <c r="D183" s="14"/>
-      <c r="E183" s="33" t="s">
+      <c r="E183" s="32" t="s">
         <v>30</v>
       </c>
       <c r="F183" s="28"/>
@@ -7514,7 +7548,7 @@
       <c r="H183" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I183" s="50" t="s">
+      <c r="I183" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J183" s="15" t="s">
@@ -7526,7 +7560,7 @@
       <c r="L183" s="15"/>
       <c r="M183" s="15"/>
       <c r="N183" s="15"/>
-      <c r="O183" s="57" t="s">
+      <c r="O183" s="55" t="s">
         <v>268</v>
       </c>
       <c r="P183" s="2"/>
@@ -7542,14 +7576,14 @@
       <c r="C184" s="14"/>
       <c r="D184" s="14"/>
       <c r="E184" s="14"/>
-      <c r="F184" s="31" t="s">
+      <c r="F184" s="30" t="s">
         <v>269</v>
       </c>
       <c r="G184" s="17"/>
       <c r="H184" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I184" s="50" t="s">
+      <c r="I184" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J184" s="15" t="s">
@@ -7561,7 +7595,7 @@
       <c r="L184" s="15"/>
       <c r="M184" s="15"/>
       <c r="N184" s="15"/>
-      <c r="O184" s="58" t="s">
+      <c r="O184" s="56" t="s">
         <v>270</v>
       </c>
       <c r="P184" s="2"/>
@@ -7577,14 +7611,14 @@
       <c r="C185" s="14"/>
       <c r="D185" s="14"/>
       <c r="E185" s="14"/>
-      <c r="F185" s="32" t="s">
+      <c r="F185" s="31" t="s">
         <v>271</v>
       </c>
       <c r="G185" s="19"/>
       <c r="H185" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I185" s="50" t="s">
+      <c r="I185" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J185" s="15" t="s">
@@ -7596,7 +7630,7 @@
       <c r="L185" s="15"/>
       <c r="M185" s="15"/>
       <c r="N185" s="15"/>
-      <c r="O185" s="49"/>
+      <c r="O185" s="48"/>
       <c r="P185" s="2"/>
       <c r="Q185" s="3"/>
       <c r="R185" s="3"/>
@@ -7610,14 +7644,14 @@
       <c r="C186" s="14"/>
       <c r="D186" s="14"/>
       <c r="E186" s="14"/>
-      <c r="F186" s="32" t="s">
+      <c r="F186" s="31" t="s">
         <v>199</v>
       </c>
       <c r="G186" s="19"/>
       <c r="H186" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I186" s="50" t="s">
+      <c r="I186" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J186" s="15" t="s">
@@ -7629,7 +7663,7 @@
       <c r="L186" s="15"/>
       <c r="M186" s="15"/>
       <c r="N186" s="15"/>
-      <c r="O186" s="49" t="s">
+      <c r="O186" s="48" t="s">
         <v>272</v>
       </c>
       <c r="P186" s="2"/>
@@ -7638,47 +7672,47 @@
       <c r="S186" s="3"/>
     </row>
     <row r="187" spans="1:27" ht="13">
-      <c r="A187" s="59">
+      <c r="A187" s="57">
         <v>185</v>
       </c>
-      <c r="B187" s="60"/>
-      <c r="C187" s="61"/>
-      <c r="D187" s="61"/>
-      <c r="E187" s="61"/>
-      <c r="F187" s="62" t="s">
+      <c r="B187" s="58"/>
+      <c r="C187" s="59"/>
+      <c r="D187" s="59"/>
+      <c r="E187" s="59"/>
+      <c r="F187" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="G187" s="63"/>
-      <c r="H187" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="I187" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="J187" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="K187" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="L187" s="64"/>
-      <c r="M187" s="64"/>
-      <c r="N187" s="64"/>
-      <c r="O187" s="66" t="s">
+      <c r="G187" s="61"/>
+      <c r="H187" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="I187" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="J187" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="K187" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="L187" s="62"/>
+      <c r="M187" s="62"/>
+      <c r="N187" s="62"/>
+      <c r="O187" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="P187" s="60"/>
-      <c r="Q187" s="67"/>
-      <c r="R187" s="67"/>
-      <c r="S187" s="67"/>
-      <c r="T187" s="68"/>
-      <c r="U187" s="68"/>
-      <c r="V187" s="68"/>
-      <c r="W187" s="68"/>
-      <c r="X187" s="68"/>
-      <c r="Y187" s="68"/>
-      <c r="Z187" s="68"/>
-      <c r="AA187" s="68"/>
+      <c r="P187" s="58"/>
+      <c r="Q187" s="64"/>
+      <c r="R187" s="64"/>
+      <c r="S187" s="64"/>
+      <c r="T187" s="65"/>
+      <c r="U187" s="65"/>
+      <c r="V187" s="65"/>
+      <c r="W187" s="65"/>
+      <c r="X187" s="65"/>
+      <c r="Y187" s="65"/>
+      <c r="Z187" s="65"/>
+      <c r="AA187" s="65"/>
     </row>
     <row r="188" spans="1:27" ht="13">
       <c r="A188" s="8">
@@ -7687,7 +7721,7 @@
       <c r="B188" s="2"/>
       <c r="C188" s="14"/>
       <c r="D188" s="14"/>
-      <c r="E188" s="33" t="s">
+      <c r="E188" s="32" t="s">
         <v>38</v>
       </c>
       <c r="F188" s="2"/>
@@ -7695,7 +7729,7 @@
       <c r="H188" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I188" s="50" t="s">
+      <c r="I188" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J188" s="15" t="s">
@@ -7707,7 +7741,7 @@
       <c r="L188" s="15"/>
       <c r="M188" s="15"/>
       <c r="N188" s="15"/>
-      <c r="O188" s="49"/>
+      <c r="O188" s="48"/>
       <c r="P188" s="2"/>
       <c r="Q188" s="3"/>
       <c r="R188" s="3"/>
@@ -7721,14 +7755,14 @@
       <c r="C189" s="14"/>
       <c r="D189" s="14"/>
       <c r="E189" s="14"/>
-      <c r="F189" s="31" t="s">
+      <c r="F189" s="30" t="s">
         <v>200</v>
       </c>
       <c r="G189" s="17"/>
       <c r="H189" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I189" s="50" t="s">
+      <c r="I189" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J189" s="15" t="s">
@@ -7740,7 +7774,7 @@
       <c r="L189" s="15"/>
       <c r="M189" s="15"/>
       <c r="N189" s="15"/>
-      <c r="O189" s="49"/>
+      <c r="O189" s="48"/>
       <c r="P189" s="2"/>
       <c r="Q189" s="3"/>
       <c r="R189" s="3"/>
@@ -7754,14 +7788,14 @@
       <c r="C190" s="14"/>
       <c r="D190" s="14"/>
       <c r="E190" s="14"/>
-      <c r="F190" s="32" t="s">
+      <c r="F190" s="31" t="s">
         <v>201</v>
       </c>
       <c r="G190" s="19"/>
       <c r="H190" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I190" s="50" t="s">
+      <c r="I190" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J190" s="15" t="s">
@@ -7773,7 +7807,7 @@
       <c r="L190" s="15"/>
       <c r="M190" s="15"/>
       <c r="N190" s="15"/>
-      <c r="O190" s="49"/>
+      <c r="O190" s="48"/>
       <c r="P190" s="2"/>
       <c r="Q190" s="3"/>
       <c r="R190" s="3"/>
@@ -7787,14 +7821,14 @@
       <c r="C191" s="14"/>
       <c r="D191" s="14"/>
       <c r="E191" s="14"/>
-      <c r="F191" s="32" t="s">
+      <c r="F191" s="31" t="s">
         <v>202</v>
       </c>
       <c r="G191" s="19"/>
       <c r="H191" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I191" s="50" t="s">
+      <c r="I191" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J191" s="15" t="s">
@@ -7806,7 +7840,7 @@
       <c r="L191" s="15"/>
       <c r="M191" s="15"/>
       <c r="N191" s="15"/>
-      <c r="O191" s="49"/>
+      <c r="O191" s="48"/>
       <c r="P191" s="2"/>
       <c r="Q191" s="3"/>
       <c r="R191" s="3"/>
@@ -7820,14 +7854,14 @@
       <c r="C192" s="14"/>
       <c r="D192" s="14"/>
       <c r="E192" s="14"/>
-      <c r="F192" s="32" t="s">
+      <c r="F192" s="31" t="s">
         <v>203</v>
       </c>
       <c r="G192" s="19"/>
       <c r="H192" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I192" s="50" t="s">
+      <c r="I192" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J192" s="15" t="s">
@@ -7839,7 +7873,7 @@
       <c r="L192" s="15"/>
       <c r="M192" s="15"/>
       <c r="N192" s="15"/>
-      <c r="O192" s="49"/>
+      <c r="O192" s="48"/>
       <c r="P192" s="2"/>
       <c r="Q192" s="3"/>
       <c r="R192" s="3"/>
@@ -7853,14 +7887,14 @@
       <c r="C193" s="14"/>
       <c r="D193" s="14"/>
       <c r="E193" s="14"/>
-      <c r="F193" s="32" t="s">
+      <c r="F193" s="31" t="s">
         <v>204</v>
       </c>
       <c r="G193" s="19"/>
       <c r="H193" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I193" s="50" t="s">
+      <c r="I193" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J193" s="15" t="s">
@@ -7872,7 +7906,7 @@
       <c r="L193" s="15"/>
       <c r="M193" s="15"/>
       <c r="N193" s="15"/>
-      <c r="O193" s="49"/>
+      <c r="O193" s="48"/>
       <c r="P193" s="2"/>
       <c r="Q193" s="3"/>
       <c r="R193" s="3"/>
@@ -7885,7 +7919,7 @@
       <c r="B194" s="2"/>
       <c r="C194" s="14"/>
       <c r="D194" s="14"/>
-      <c r="E194" s="33" t="s">
+      <c r="E194" s="32" t="s">
         <v>44</v>
       </c>
       <c r="F194" s="2"/>
@@ -7893,7 +7927,7 @@
       <c r="H194" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I194" s="50" t="s">
+      <c r="I194" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J194" s="15" t="s">
@@ -7905,7 +7939,7 @@
       <c r="L194" s="15"/>
       <c r="M194" s="15"/>
       <c r="N194" s="15"/>
-      <c r="O194" s="49"/>
+      <c r="O194" s="48"/>
       <c r="P194" s="2"/>
       <c r="Q194" s="3"/>
       <c r="R194" s="3"/>
@@ -7919,14 +7953,14 @@
       <c r="C195" s="14"/>
       <c r="D195" s="14"/>
       <c r="E195" s="14"/>
-      <c r="F195" s="31" t="s">
+      <c r="F195" s="30" t="s">
         <v>205</v>
       </c>
       <c r="G195" s="17"/>
       <c r="H195" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I195" s="50" t="s">
+      <c r="I195" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J195" s="15" t="s">
@@ -7938,7 +7972,7 @@
       <c r="L195" s="15"/>
       <c r="M195" s="15"/>
       <c r="N195" s="15"/>
-      <c r="O195" s="49"/>
+      <c r="O195" s="48"/>
       <c r="P195" s="2"/>
       <c r="Q195" s="3"/>
       <c r="R195" s="3"/>
@@ -7952,14 +7986,14 @@
       <c r="C196" s="14"/>
       <c r="D196" s="14"/>
       <c r="E196" s="14"/>
-      <c r="F196" s="32" t="s">
+      <c r="F196" s="31" t="s">
         <v>206</v>
       </c>
       <c r="G196" s="19"/>
       <c r="H196" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I196" s="50" t="s">
+      <c r="I196" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J196" s="15" t="s">
@@ -7971,7 +8005,7 @@
       <c r="L196" s="15"/>
       <c r="M196" s="15"/>
       <c r="N196" s="15"/>
-      <c r="O196" s="49"/>
+      <c r="O196" s="48"/>
       <c r="P196" s="2"/>
       <c r="Q196" s="3"/>
       <c r="R196" s="3"/>
@@ -7985,14 +8019,14 @@
       <c r="C197" s="14"/>
       <c r="D197" s="14"/>
       <c r="E197" s="14"/>
-      <c r="F197" s="32" t="s">
+      <c r="F197" s="31" t="s">
         <v>275</v>
       </c>
       <c r="G197" s="19"/>
       <c r="H197" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I197" s="50" t="s">
+      <c r="I197" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J197" s="15" t="s">
@@ -8004,7 +8038,7 @@
       <c r="L197" s="15"/>
       <c r="M197" s="15"/>
       <c r="N197" s="15"/>
-      <c r="O197" s="49" t="s">
+      <c r="O197" s="48" t="s">
         <v>276</v>
       </c>
       <c r="P197" s="2"/>
@@ -8020,14 +8054,14 @@
       <c r="C198" s="14"/>
       <c r="D198" s="14"/>
       <c r="E198" s="14"/>
-      <c r="F198" s="32" t="s">
+      <c r="F198" s="31" t="s">
         <v>277</v>
       </c>
       <c r="G198" s="19"/>
       <c r="H198" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I198" s="50" t="s">
+      <c r="I198" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J198" s="15"/>
@@ -8037,7 +8071,7 @@
       <c r="L198" s="15"/>
       <c r="M198" s="15"/>
       <c r="N198" s="15"/>
-      <c r="O198" s="49"/>
+      <c r="O198" s="48"/>
       <c r="P198" s="2"/>
       <c r="Q198" s="3"/>
       <c r="R198" s="3"/>
@@ -8051,14 +8085,14 @@
       <c r="C199" s="14"/>
       <c r="D199" s="14"/>
       <c r="E199" s="14"/>
-      <c r="F199" s="32" t="s">
+      <c r="F199" s="31" t="s">
         <v>207</v>
       </c>
       <c r="G199" s="19"/>
       <c r="H199" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I199" s="50" t="s">
+      <c r="I199" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J199" s="15" t="s">
@@ -8070,7 +8104,7 @@
       <c r="L199" s="15"/>
       <c r="M199" s="15"/>
       <c r="N199" s="15"/>
-      <c r="O199" s="49"/>
+      <c r="O199" s="48"/>
       <c r="P199" s="2"/>
       <c r="Q199" s="3"/>
       <c r="R199" s="3"/>
@@ -8083,7 +8117,7 @@
       <c r="B200" s="2"/>
       <c r="C200" s="14"/>
       <c r="D200" s="14"/>
-      <c r="E200" s="33" t="s">
+      <c r="E200" s="32" t="s">
         <v>46</v>
       </c>
       <c r="F200" s="2"/>
@@ -8091,7 +8125,7 @@
       <c r="H200" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I200" s="50" t="s">
+      <c r="I200" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J200" s="15" t="s">
@@ -8103,7 +8137,7 @@
       <c r="L200" s="15"/>
       <c r="M200" s="15"/>
       <c r="N200" s="15"/>
-      <c r="O200" s="49"/>
+      <c r="O200" s="48"/>
       <c r="P200" s="2"/>
       <c r="Q200" s="3"/>
       <c r="R200" s="3"/>
@@ -8117,14 +8151,14 @@
       <c r="C201" s="14"/>
       <c r="D201" s="14"/>
       <c r="E201" s="14"/>
-      <c r="F201" s="31" t="s">
+      <c r="F201" s="30" t="s">
         <v>208</v>
       </c>
       <c r="G201" s="17"/>
       <c r="H201" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I201" s="50" t="s">
+      <c r="I201" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J201" s="15" t="s">
@@ -8136,7 +8170,7 @@
       <c r="L201" s="15"/>
       <c r="M201" s="15"/>
       <c r="N201" s="15"/>
-      <c r="O201" s="49" t="s">
+      <c r="O201" s="48" t="s">
         <v>278</v>
       </c>
       <c r="P201" s="2"/>
@@ -8152,14 +8186,14 @@
       <c r="C202" s="14"/>
       <c r="D202" s="14"/>
       <c r="E202" s="14"/>
-      <c r="F202" s="32" t="s">
+      <c r="F202" s="31" t="s">
         <v>209</v>
       </c>
       <c r="G202" s="19"/>
       <c r="H202" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I202" s="50" t="s">
+      <c r="I202" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J202" s="15" t="s">
@@ -8171,7 +8205,7 @@
       <c r="L202" s="15"/>
       <c r="M202" s="15"/>
       <c r="N202" s="15"/>
-      <c r="O202" s="49" t="s">
+      <c r="O202" s="48" t="s">
         <v>279</v>
       </c>
       <c r="P202" s="2"/>
@@ -8194,7 +8228,7 @@
       <c r="H203" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I203" s="50" t="s">
+      <c r="I203" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J203" s="15" t="s">
@@ -8206,7 +8240,7 @@
       <c r="L203" s="15"/>
       <c r="M203" s="15"/>
       <c r="N203" s="15"/>
-      <c r="O203" s="49"/>
+      <c r="O203" s="48"/>
       <c r="P203" s="2"/>
       <c r="Q203" s="3"/>
       <c r="R203" s="3"/>
@@ -8218,8 +8252,8 @@
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="14"/>
-      <c r="D204" s="40"/>
-      <c r="E204" s="41" t="s">
+      <c r="D204" s="39"/>
+      <c r="E204" s="40" t="s">
         <v>15</v>
       </c>
       <c r="F204" s="28"/>
@@ -8227,7 +8261,7 @@
       <c r="H204" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I204" s="50" t="s">
+      <c r="I204" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J204" s="15" t="s">
@@ -8239,7 +8273,7 @@
       <c r="L204" s="15"/>
       <c r="M204" s="15"/>
       <c r="N204" s="15"/>
-      <c r="O204" s="49"/>
+      <c r="O204" s="48"/>
       <c r="P204" s="2"/>
       <c r="Q204" s="3"/>
       <c r="R204" s="3"/>
@@ -8252,7 +8286,7 @@
       <c r="B205" s="2"/>
       <c r="C205" s="14"/>
       <c r="D205" s="14"/>
-      <c r="E205" s="32" t="s">
+      <c r="E205" s="31" t="s">
         <v>20</v>
       </c>
       <c r="F205" s="17"/>
@@ -8260,7 +8294,7 @@
       <c r="H205" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I205" s="50" t="s">
+      <c r="I205" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J205" s="15" t="s">
@@ -8272,7 +8306,7 @@
       <c r="L205" s="15"/>
       <c r="M205" s="15"/>
       <c r="N205" s="15"/>
-      <c r="O205" s="49"/>
+      <c r="O205" s="48"/>
       <c r="P205" s="2"/>
       <c r="Q205" s="3"/>
       <c r="R205" s="3"/>
@@ -8293,7 +8327,7 @@
       <c r="H206" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I206" s="50" t="s">
+      <c r="I206" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J206" s="15" t="s">
@@ -8305,7 +8339,7 @@
       <c r="L206" s="15"/>
       <c r="M206" s="15"/>
       <c r="N206" s="15"/>
-      <c r="O206" s="49"/>
+      <c r="O206" s="48"/>
       <c r="P206" s="2"/>
       <c r="Q206" s="3"/>
       <c r="R206" s="3"/>
@@ -8317,8 +8351,8 @@
       </c>
       <c r="B207" s="2"/>
       <c r="C207" s="14"/>
-      <c r="D207" s="40"/>
-      <c r="E207" s="41" t="s">
+      <c r="D207" s="39"/>
+      <c r="E207" s="40" t="s">
         <v>210</v>
       </c>
       <c r="F207" s="28"/>
@@ -8326,7 +8360,7 @@
       <c r="H207" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I207" s="50" t="s">
+      <c r="I207" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J207" s="15" t="s">
@@ -8338,7 +8372,7 @@
       <c r="L207" s="15"/>
       <c r="M207" s="15"/>
       <c r="N207" s="15"/>
-      <c r="O207" s="49"/>
+      <c r="O207" s="48"/>
       <c r="P207" s="2"/>
       <c r="Q207" s="3"/>
       <c r="R207" s="3"/>
@@ -8351,7 +8385,7 @@
       <c r="B208" s="2"/>
       <c r="C208" s="14"/>
       <c r="D208" s="14"/>
-      <c r="E208" s="32" t="s">
+      <c r="E208" s="31" t="s">
         <v>22</v>
       </c>
       <c r="F208" s="28"/>
@@ -8359,7 +8393,7 @@
       <c r="H208" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I208" s="50" t="s">
+      <c r="I208" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J208" s="15" t="s">
@@ -8371,7 +8405,7 @@
       <c r="L208" s="15"/>
       <c r="M208" s="15"/>
       <c r="N208" s="15"/>
-      <c r="O208" s="49"/>
+      <c r="O208" s="48"/>
       <c r="P208" s="2"/>
       <c r="Q208" s="3"/>
       <c r="R208" s="3"/>
@@ -8384,7 +8418,7 @@
       <c r="B209" s="2"/>
       <c r="C209" s="14"/>
       <c r="D209" s="14"/>
-      <c r="E209" s="32" t="s">
+      <c r="E209" s="31" t="s">
         <v>31</v>
       </c>
       <c r="F209" s="28"/>
@@ -8392,7 +8426,7 @@
       <c r="H209" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I209" s="50" t="s">
+      <c r="I209" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J209" s="15" t="s">
@@ -8404,7 +8438,7 @@
       <c r="L209" s="15"/>
       <c r="M209" s="15"/>
       <c r="N209" s="15"/>
-      <c r="O209" s="49"/>
+      <c r="O209" s="48"/>
       <c r="P209" s="2"/>
       <c r="Q209" s="3"/>
       <c r="R209" s="3"/>
@@ -8423,13 +8457,13 @@
       <c r="F210" s="25"/>
       <c r="G210" s="25"/>
       <c r="H210" s="13"/>
-      <c r="I210" s="13"/>
+      <c r="I210" s="84"/>
       <c r="J210" s="13"/>
       <c r="K210" s="13"/>
       <c r="L210" s="13"/>
       <c r="M210" s="13"/>
       <c r="N210" s="13"/>
-      <c r="O210" s="51"/>
+      <c r="O210" s="49"/>
       <c r="P210" s="2"/>
       <c r="Q210" s="3"/>
       <c r="R210" s="3"/>
@@ -8450,7 +8484,7 @@
       <c r="H211" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I211" s="29" t="s">
+      <c r="I211" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J211" s="15" t="s">
@@ -8462,7 +8496,7 @@
       <c r="L211" s="15"/>
       <c r="M211" s="15"/>
       <c r="N211" s="15"/>
-      <c r="O211" s="49"/>
+      <c r="O211" s="48"/>
       <c r="P211" s="2"/>
       <c r="Q211" s="3"/>
       <c r="R211" s="3"/>
@@ -8473,23 +8507,23 @@
       <c r="B212" s="2"/>
       <c r="C212" s="14"/>
       <c r="D212" s="14"/>
-      <c r="E212" s="69" t="s">
+      <c r="E212" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="F212" s="70"/>
-      <c r="G212" s="70"/>
-      <c r="H212" s="71" t="s">
+      <c r="F212" s="67"/>
+      <c r="G212" s="67"/>
+      <c r="H212" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="I212" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="J212" s="71"/>
-      <c r="K212" s="71"/>
-      <c r="L212" s="71"/>
-      <c r="M212" s="71"/>
-      <c r="N212" s="71"/>
-      <c r="O212" s="73"/>
+      <c r="I212" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="J212" s="68"/>
+      <c r="K212" s="68"/>
+      <c r="L212" s="68"/>
+      <c r="M212" s="68"/>
+      <c r="N212" s="68"/>
+      <c r="O212" s="69"/>
       <c r="P212" s="2"/>
       <c r="Q212" s="3"/>
       <c r="R212" s="3"/>
@@ -8502,7 +8536,7 @@
       <c r="B213" s="2"/>
       <c r="C213" s="14"/>
       <c r="D213" s="14"/>
-      <c r="E213" s="33" t="s">
+      <c r="E213" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F213" s="28"/>
@@ -8510,7 +8544,7 @@
       <c r="H213" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I213" s="50" t="s">
+      <c r="I213" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J213" s="15" t="s">
@@ -8522,7 +8556,7 @@
       <c r="L213" s="15"/>
       <c r="M213" s="15"/>
       <c r="N213" s="15"/>
-      <c r="O213" s="49"/>
+      <c r="O213" s="48"/>
       <c r="P213" s="2"/>
       <c r="Q213" s="3"/>
       <c r="R213" s="3"/>
@@ -8536,14 +8570,14 @@
       <c r="C214" s="14"/>
       <c r="D214" s="14"/>
       <c r="E214" s="14"/>
-      <c r="F214" s="33" t="s">
+      <c r="F214" s="32" t="s">
         <v>211</v>
       </c>
       <c r="G214" s="17"/>
       <c r="H214" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I214" s="50" t="s">
+      <c r="I214" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J214" s="15" t="s">
@@ -8555,7 +8589,7 @@
       <c r="L214" s="15"/>
       <c r="M214" s="15"/>
       <c r="N214" s="15"/>
-      <c r="O214" s="49" t="s">
+      <c r="O214" s="48" t="s">
         <v>212</v>
       </c>
       <c r="P214" s="2"/>
@@ -8571,14 +8605,14 @@
       <c r="C215" s="14"/>
       <c r="D215" s="14"/>
       <c r="E215" s="14"/>
-      <c r="F215" s="33" t="s">
+      <c r="F215" s="32" t="s">
         <v>39</v>
       </c>
       <c r="G215" s="19"/>
       <c r="H215" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I215" s="50" t="s">
+      <c r="I215" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J215" s="15" t="s">
@@ -8590,7 +8624,7 @@
       <c r="L215" s="15"/>
       <c r="M215" s="15"/>
       <c r="N215" s="15"/>
-      <c r="O215" s="49"/>
+      <c r="O215" s="48"/>
       <c r="P215" s="2"/>
       <c r="Q215" s="3"/>
       <c r="R215" s="3"/>
@@ -8603,7 +8637,7 @@
       <c r="B216" s="2"/>
       <c r="C216" s="14"/>
       <c r="D216" s="14"/>
-      <c r="E216" s="33" t="s">
+      <c r="E216" s="32" t="s">
         <v>23</v>
       </c>
       <c r="F216" s="28"/>
@@ -8611,7 +8645,7 @@
       <c r="H216" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I216" s="29" t="s">
+      <c r="I216" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J216" s="15" t="s">
@@ -8623,7 +8657,7 @@
       <c r="L216" s="15"/>
       <c r="M216" s="15"/>
       <c r="N216" s="15"/>
-      <c r="O216" s="49" t="s">
+      <c r="O216" s="48" t="s">
         <v>281</v>
       </c>
       <c r="P216" s="2"/>
@@ -8639,14 +8673,14 @@
       <c r="C217" s="14"/>
       <c r="D217" s="14"/>
       <c r="E217" s="14"/>
-      <c r="F217" s="33" t="s">
+      <c r="F217" s="32" t="s">
         <v>213</v>
       </c>
       <c r="G217" s="17"/>
       <c r="H217" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I217" s="50" t="s">
+      <c r="I217" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J217" s="15" t="s">
@@ -8658,7 +8692,7 @@
       <c r="L217" s="15"/>
       <c r="M217" s="15"/>
       <c r="N217" s="15"/>
-      <c r="O217" s="49"/>
+      <c r="O217" s="48"/>
       <c r="P217" s="2"/>
       <c r="Q217" s="3"/>
       <c r="R217" s="3"/>
@@ -8672,14 +8706,14 @@
       <c r="C218" s="14"/>
       <c r="D218" s="14"/>
       <c r="E218" s="14"/>
-      <c r="F218" s="33" t="s">
+      <c r="F218" s="32" t="s">
         <v>214</v>
       </c>
       <c r="G218" s="19"/>
       <c r="H218" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I218" s="50" t="s">
+      <c r="I218" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J218" s="15" t="s">
@@ -8691,7 +8725,7 @@
       <c r="L218" s="15"/>
       <c r="M218" s="15"/>
       <c r="N218" s="15"/>
-      <c r="O218" s="49"/>
+      <c r="O218" s="48"/>
       <c r="P218" s="2"/>
       <c r="Q218" s="3"/>
       <c r="R218" s="3"/>
@@ -8704,7 +8738,7 @@
       <c r="B219" s="2"/>
       <c r="C219" s="14"/>
       <c r="D219" s="14"/>
-      <c r="E219" s="33" t="s">
+      <c r="E219" s="32" t="s">
         <v>32</v>
       </c>
       <c r="F219" s="28"/>
@@ -8712,7 +8746,7 @@
       <c r="H219" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I219" s="29" t="s">
+      <c r="I219" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J219" s="15" t="s">
@@ -8724,7 +8758,7 @@
       <c r="L219" s="15"/>
       <c r="M219" s="15"/>
       <c r="N219" s="15"/>
-      <c r="O219" s="49"/>
+      <c r="O219" s="48"/>
       <c r="P219" s="2"/>
       <c r="Q219" s="3"/>
       <c r="R219" s="3"/>
@@ -8738,14 +8772,14 @@
       <c r="C220" s="14"/>
       <c r="D220" s="14"/>
       <c r="E220" s="14"/>
-      <c r="F220" s="33" t="s">
+      <c r="F220" s="32" t="s">
         <v>282</v>
       </c>
       <c r="G220" s="17"/>
       <c r="H220" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I220" s="29" t="s">
+      <c r="I220" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J220" s="15" t="s">
@@ -8757,7 +8791,7 @@
       <c r="L220" s="15"/>
       <c r="M220" s="15"/>
       <c r="N220" s="15"/>
-      <c r="O220" s="49"/>
+      <c r="O220" s="48"/>
       <c r="P220" s="2"/>
       <c r="Q220" s="3"/>
       <c r="R220" s="3"/>
@@ -8771,14 +8805,14 @@
       <c r="C221" s="14"/>
       <c r="D221" s="14"/>
       <c r="E221" s="14"/>
-      <c r="F221" s="33" t="s">
+      <c r="F221" s="32" t="s">
         <v>283</v>
       </c>
       <c r="G221" s="19"/>
       <c r="H221" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I221" s="29" t="s">
+      <c r="I221" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J221" s="15" t="s">
@@ -8790,7 +8824,7 @@
       <c r="L221" s="15"/>
       <c r="M221" s="15"/>
       <c r="N221" s="15"/>
-      <c r="O221" s="49"/>
+      <c r="O221" s="48"/>
       <c r="P221" s="2"/>
       <c r="Q221" s="3"/>
       <c r="R221" s="3"/>
@@ -8803,7 +8837,7 @@
       <c r="B222" s="2"/>
       <c r="C222" s="14"/>
       <c r="D222" s="14"/>
-      <c r="E222" s="33" t="s">
+      <c r="E222" s="32" t="s">
         <v>284</v>
       </c>
       <c r="F222" s="28"/>
@@ -8811,7 +8845,7 @@
       <c r="H222" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I222" s="29" t="s">
+      <c r="I222" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J222" s="15" t="s">
@@ -8823,7 +8857,7 @@
       <c r="L222" s="15"/>
       <c r="M222" s="15"/>
       <c r="N222" s="15"/>
-      <c r="O222" s="49"/>
+      <c r="O222" s="48"/>
       <c r="P222" s="2"/>
       <c r="Q222" s="3"/>
       <c r="R222" s="3"/>
@@ -8837,14 +8871,14 @@
       <c r="C223" s="14"/>
       <c r="D223" s="14"/>
       <c r="E223" s="14"/>
-      <c r="F223" s="33" t="s">
+      <c r="F223" s="32" t="s">
         <v>285</v>
       </c>
       <c r="G223" s="17"/>
       <c r="H223" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I223" s="29" t="s">
+      <c r="I223" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J223" s="15" t="s">
@@ -8856,7 +8890,7 @@
       <c r="L223" s="15"/>
       <c r="M223" s="15"/>
       <c r="N223" s="15"/>
-      <c r="O223" s="49"/>
+      <c r="O223" s="48"/>
       <c r="P223" s="2"/>
       <c r="Q223" s="3"/>
       <c r="R223" s="3"/>
@@ -8870,14 +8904,14 @@
       <c r="C224" s="14"/>
       <c r="D224" s="14"/>
       <c r="E224" s="14"/>
-      <c r="F224" s="33" t="s">
+      <c r="F224" s="32" t="s">
         <v>286</v>
       </c>
       <c r="G224" s="19"/>
       <c r="H224" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I224" s="29" t="s">
+      <c r="I224" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J224" s="15"/>
@@ -8885,7 +8919,7 @@
       <c r="L224" s="15"/>
       <c r="M224" s="15"/>
       <c r="N224" s="15"/>
-      <c r="O224" s="49"/>
+      <c r="O224" s="48"/>
       <c r="P224" s="2"/>
       <c r="Q224" s="3"/>
       <c r="R224" s="3"/>
@@ -8899,14 +8933,14 @@
       <c r="C225" s="14"/>
       <c r="D225" s="14"/>
       <c r="E225" s="14"/>
-      <c r="F225" s="33" t="s">
+      <c r="F225" s="32" t="s">
         <v>287</v>
       </c>
       <c r="G225" s="19"/>
       <c r="H225" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I225" s="29" t="s">
+      <c r="I225" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J225" s="15" t="s">
@@ -8918,7 +8952,7 @@
       <c r="L225" s="15"/>
       <c r="M225" s="15"/>
       <c r="N225" s="15"/>
-      <c r="O225" s="49"/>
+      <c r="O225" s="48"/>
       <c r="P225" s="2"/>
       <c r="Q225" s="3"/>
       <c r="R225" s="3"/>
@@ -8931,7 +8965,7 @@
       <c r="B226" s="2"/>
       <c r="C226" s="14"/>
       <c r="D226" s="14"/>
-      <c r="E226" s="33" t="s">
+      <c r="E226" s="32" t="s">
         <v>288</v>
       </c>
       <c r="F226" s="28"/>
@@ -8939,7 +8973,7 @@
       <c r="H226" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I226" s="29" t="s">
+      <c r="I226" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J226" s="15" t="s">
@@ -8951,7 +8985,7 @@
       <c r="L226" s="15"/>
       <c r="M226" s="15"/>
       <c r="N226" s="15"/>
-      <c r="O226" s="49"/>
+      <c r="O226" s="48"/>
       <c r="P226" s="2"/>
       <c r="Q226" s="3"/>
       <c r="R226" s="3"/>
@@ -8965,14 +8999,14 @@
       <c r="C227" s="14"/>
       <c r="D227" s="14"/>
       <c r="E227" s="14"/>
-      <c r="F227" s="33" t="s">
+      <c r="F227" s="32" t="s">
         <v>289</v>
       </c>
       <c r="G227" s="17"/>
       <c r="H227" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I227" s="29" t="s">
+      <c r="I227" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J227" s="15" t="s">
@@ -8984,7 +9018,7 @@
       <c r="L227" s="15"/>
       <c r="M227" s="15"/>
       <c r="N227" s="15"/>
-      <c r="O227" s="49" t="s">
+      <c r="O227" s="48" t="s">
         <v>290</v>
       </c>
       <c r="P227" s="2"/>
@@ -9000,14 +9034,14 @@
       <c r="C228" s="14"/>
       <c r="D228" s="14"/>
       <c r="E228" s="14"/>
-      <c r="F228" s="33" t="s">
+      <c r="F228" s="32" t="s">
         <v>291</v>
       </c>
       <c r="G228" s="19"/>
       <c r="H228" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I228" s="29" t="s">
+      <c r="I228" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J228" s="15" t="s">
@@ -9019,7 +9053,7 @@
       <c r="L228" s="15"/>
       <c r="M228" s="15"/>
       <c r="N228" s="15"/>
-      <c r="O228" s="49"/>
+      <c r="O228" s="48"/>
       <c r="P228" s="2"/>
       <c r="Q228" s="3"/>
       <c r="R228" s="3"/>
@@ -9040,7 +9074,7 @@
       <c r="H229" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I229" s="29" t="s">
+      <c r="I229" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J229" s="15" t="s">
@@ -9052,7 +9086,7 @@
       <c r="L229" s="15"/>
       <c r="M229" s="15"/>
       <c r="N229" s="15"/>
-      <c r="O229" s="49" t="s">
+      <c r="O229" s="48" t="s">
         <v>292</v>
       </c>
       <c r="P229" s="2"/>
@@ -9075,7 +9109,7 @@
       <c r="H230" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I230" s="29" t="s">
+      <c r="I230" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J230" s="15" t="s">
@@ -9087,7 +9121,7 @@
       <c r="L230" s="15"/>
       <c r="M230" s="15"/>
       <c r="N230" s="15"/>
-      <c r="O230" s="49"/>
+      <c r="O230" s="48"/>
       <c r="P230" s="2"/>
       <c r="Q230" s="3"/>
       <c r="R230" s="3"/>
@@ -9108,7 +9142,7 @@
       <c r="H231" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I231" s="29" t="s">
+      <c r="I231" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J231" s="15" t="s">
@@ -9120,7 +9154,7 @@
       <c r="L231" s="15"/>
       <c r="M231" s="15"/>
       <c r="N231" s="15"/>
-      <c r="O231" s="49"/>
+      <c r="O231" s="48"/>
       <c r="P231" s="2"/>
       <c r="Q231" s="3"/>
       <c r="R231" s="3"/>
@@ -9141,7 +9175,7 @@
       <c r="H232" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I232" s="29" t="s">
+      <c r="I232" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J232" s="15" t="s">
@@ -9153,7 +9187,7 @@
       <c r="L232" s="15"/>
       <c r="M232" s="15"/>
       <c r="N232" s="15"/>
-      <c r="O232" s="49" t="s">
+      <c r="O232" s="48" t="s">
         <v>216</v>
       </c>
       <c r="P232" s="2"/>
@@ -9176,7 +9210,7 @@
       <c r="H233" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I233" s="50" t="s">
+      <c r="I233" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J233" s="15" t="s">
@@ -9188,7 +9222,7 @@
       <c r="L233" s="15"/>
       <c r="M233" s="15"/>
       <c r="N233" s="15"/>
-      <c r="O233" s="49" t="s">
+      <c r="O233" s="48" t="s">
         <v>218</v>
       </c>
       <c r="P233" s="2"/>
@@ -9211,7 +9245,7 @@
       <c r="H234" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I234" s="50" t="s">
+      <c r="I234" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J234" s="15" t="s">
@@ -9223,7 +9257,7 @@
       <c r="L234" s="15"/>
       <c r="M234" s="15"/>
       <c r="N234" s="15"/>
-      <c r="O234" s="49"/>
+      <c r="O234" s="48"/>
       <c r="P234" s="2"/>
       <c r="Q234" s="3"/>
       <c r="R234" s="3"/>
@@ -9244,7 +9278,7 @@
       <c r="H235" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I235" s="50" t="s">
+      <c r="I235" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J235" s="15" t="s">
@@ -9256,7 +9290,7 @@
       <c r="L235" s="15"/>
       <c r="M235" s="15"/>
       <c r="N235" s="15"/>
-      <c r="O235" s="49"/>
+      <c r="O235" s="48"/>
       <c r="P235" s="2"/>
       <c r="Q235" s="3"/>
       <c r="R235" s="3"/>
@@ -9275,13 +9309,13 @@
       <c r="F236" s="20"/>
       <c r="G236" s="20"/>
       <c r="H236" s="13"/>
-      <c r="I236" s="13"/>
+      <c r="I236" s="84"/>
       <c r="J236" s="13"/>
       <c r="K236" s="13"/>
       <c r="L236" s="13"/>
       <c r="M236" s="13"/>
       <c r="N236" s="13"/>
-      <c r="O236" s="51"/>
+      <c r="O236" s="49"/>
       <c r="P236" s="2"/>
       <c r="Q236" s="3"/>
       <c r="R236" s="3"/>
@@ -9302,7 +9336,7 @@
       <c r="H237" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I237" s="23"/>
+      <c r="I237" s="89"/>
       <c r="J237" s="15" t="s">
         <v>69</v>
       </c>
@@ -9312,7 +9346,7 @@
       <c r="L237" s="15"/>
       <c r="M237" s="15"/>
       <c r="N237" s="15"/>
-      <c r="O237" s="49"/>
+      <c r="O237" s="48"/>
       <c r="P237" s="2"/>
       <c r="Q237" s="3"/>
       <c r="R237" s="3"/>
@@ -9333,7 +9367,7 @@
       <c r="H238" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I238" s="23"/>
+      <c r="I238" s="89"/>
       <c r="J238" s="15" t="s">
         <v>69</v>
       </c>
@@ -9343,7 +9377,7 @@
       <c r="L238" s="15"/>
       <c r="M238" s="15"/>
       <c r="N238" s="15"/>
-      <c r="O238" s="49"/>
+      <c r="O238" s="48"/>
       <c r="P238" s="2"/>
       <c r="Q238" s="3"/>
       <c r="R238" s="3"/>
@@ -9357,14 +9391,14 @@
       <c r="C239" s="14"/>
       <c r="D239" s="14"/>
       <c r="E239" s="14"/>
-      <c r="F239" s="31" t="s">
+      <c r="F239" s="30" t="s">
         <v>222</v>
       </c>
       <c r="G239" s="17"/>
       <c r="H239" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I239" s="15"/>
+      <c r="I239" s="85"/>
       <c r="J239" s="15" t="s">
         <v>69</v>
       </c>
@@ -9374,7 +9408,7 @@
       <c r="L239" s="15"/>
       <c r="M239" s="15"/>
       <c r="N239" s="15"/>
-      <c r="O239" s="49"/>
+      <c r="O239" s="48"/>
       <c r="P239" s="2"/>
       <c r="Q239" s="3"/>
       <c r="R239" s="3"/>
@@ -9388,14 +9422,14 @@
       <c r="C240" s="14"/>
       <c r="D240" s="14"/>
       <c r="E240" s="14"/>
-      <c r="F240" s="32" t="s">
+      <c r="F240" s="31" t="s">
         <v>223</v>
       </c>
       <c r="G240" s="19"/>
       <c r="H240" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I240" s="15"/>
+      <c r="I240" s="85"/>
       <c r="J240" s="15" t="s">
         <v>69</v>
       </c>
@@ -9405,7 +9439,7 @@
       <c r="L240" s="15"/>
       <c r="M240" s="15"/>
       <c r="N240" s="15"/>
-      <c r="O240" s="49"/>
+      <c r="O240" s="48"/>
       <c r="P240" s="2"/>
       <c r="Q240" s="3"/>
       <c r="R240" s="3"/>
@@ -9426,7 +9460,7 @@
       <c r="H241" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I241" s="23"/>
+      <c r="I241" s="89"/>
       <c r="J241" s="15" t="s">
         <v>69</v>
       </c>
@@ -9436,7 +9470,7 @@
       <c r="L241" s="15"/>
       <c r="M241" s="15"/>
       <c r="N241" s="15"/>
-      <c r="O241" s="49"/>
+      <c r="O241" s="48"/>
       <c r="P241" s="2"/>
       <c r="Q241" s="3"/>
       <c r="R241" s="3"/>
@@ -9457,7 +9491,7 @@
       <c r="H242" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I242" s="15"/>
+      <c r="I242" s="85"/>
       <c r="J242" s="15" t="s">
         <v>69</v>
       </c>
@@ -9467,7 +9501,7 @@
       <c r="L242" s="15"/>
       <c r="M242" s="15"/>
       <c r="N242" s="15"/>
-      <c r="O242" s="49"/>
+      <c r="O242" s="48"/>
       <c r="P242" s="2"/>
       <c r="Q242" s="3"/>
       <c r="R242" s="3"/>
@@ -9488,7 +9522,7 @@
       <c r="H243" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I243" s="23"/>
+      <c r="I243" s="89"/>
       <c r="J243" s="15" t="s">
         <v>69</v>
       </c>
@@ -9498,7 +9532,7 @@
       <c r="L243" s="15"/>
       <c r="M243" s="15"/>
       <c r="N243" s="15"/>
-      <c r="O243" s="49"/>
+      <c r="O243" s="48"/>
       <c r="P243" s="2"/>
       <c r="Q243" s="3"/>
       <c r="R243" s="3"/>
@@ -9511,7 +9545,7 @@
       <c r="B244" s="2"/>
       <c r="C244" s="14"/>
       <c r="D244" s="14"/>
-      <c r="E244" s="31" t="s">
+      <c r="E244" s="30" t="s">
         <v>227</v>
       </c>
       <c r="F244" s="28"/>
@@ -9519,7 +9553,7 @@
       <c r="H244" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I244" s="15"/>
+      <c r="I244" s="85"/>
       <c r="J244" s="15" t="s">
         <v>69</v>
       </c>
@@ -9529,7 +9563,7 @@
       <c r="L244" s="15"/>
       <c r="M244" s="15"/>
       <c r="N244" s="15"/>
-      <c r="O244" s="49"/>
+      <c r="O244" s="48"/>
       <c r="P244" s="2"/>
       <c r="Q244" s="3"/>
       <c r="R244" s="3"/>
@@ -9542,7 +9576,7 @@
       <c r="B245" s="2"/>
       <c r="C245" s="14"/>
       <c r="D245" s="14"/>
-      <c r="E245" s="32" t="s">
+      <c r="E245" s="31" t="s">
         <v>228</v>
       </c>
       <c r="F245" s="28"/>
@@ -9550,7 +9584,7 @@
       <c r="H245" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I245" s="15"/>
+      <c r="I245" s="85"/>
       <c r="J245" s="15" t="s">
         <v>69</v>
       </c>
@@ -9560,7 +9594,7 @@
       <c r="L245" s="15"/>
       <c r="M245" s="15"/>
       <c r="N245" s="15"/>
-      <c r="O245" s="49"/>
+      <c r="O245" s="48"/>
       <c r="P245" s="2"/>
       <c r="Q245" s="3"/>
       <c r="R245" s="3"/>
@@ -9573,7 +9607,7 @@
       <c r="B246" s="2"/>
       <c r="C246" s="14"/>
       <c r="D246" s="14"/>
-      <c r="E246" s="32" t="s">
+      <c r="E246" s="31" t="s">
         <v>229</v>
       </c>
       <c r="F246" s="28"/>
@@ -9581,7 +9615,7 @@
       <c r="H246" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I246" s="15"/>
+      <c r="I246" s="85"/>
       <c r="J246" s="15" t="s">
         <v>69</v>
       </c>
@@ -9591,7 +9625,7 @@
       <c r="L246" s="15"/>
       <c r="M246" s="15"/>
       <c r="N246" s="15"/>
-      <c r="O246" s="49"/>
+      <c r="O246" s="48"/>
       <c r="P246" s="2"/>
       <c r="Q246" s="3"/>
       <c r="R246" s="3"/>
@@ -9601,7 +9635,7 @@
       <c r="A247" s="8">
         <v>271</v>
       </c>
-      <c r="B247" s="43"/>
+      <c r="B247" s="42"/>
       <c r="C247" s="19"/>
       <c r="D247" s="16" t="s">
         <v>45</v>
@@ -9612,7 +9646,7 @@
       <c r="H247" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I247" s="15"/>
+      <c r="I247" s="85"/>
       <c r="J247" s="15" t="s">
         <v>69</v>
       </c>
@@ -9622,7 +9656,7 @@
       <c r="L247" s="15"/>
       <c r="M247" s="15"/>
       <c r="N247" s="15"/>
-      <c r="O247" s="49"/>
+      <c r="O247" s="48"/>
       <c r="P247" s="2"/>
       <c r="Q247" s="3"/>
       <c r="R247" s="3"/>
@@ -9633,7 +9667,7 @@
         <v>272</v>
       </c>
       <c r="B248" s="2"/>
-      <c r="C248" s="45" t="s">
+      <c r="C248" s="44" t="s">
         <v>230</v>
       </c>
       <c r="D248" s="20"/>
@@ -9641,13 +9675,13 @@
       <c r="F248" s="20"/>
       <c r="G248" s="20"/>
       <c r="H248" s="13"/>
-      <c r="I248" s="13"/>
+      <c r="I248" s="84"/>
       <c r="J248" s="13"/>
       <c r="K248" s="13"/>
       <c r="L248" s="13"/>
       <c r="M248" s="13"/>
       <c r="N248" s="13"/>
-      <c r="O248" s="51"/>
+      <c r="O248" s="49"/>
       <c r="P248" s="2"/>
       <c r="Q248" s="3"/>
       <c r="R248" s="3"/>
@@ -9668,7 +9702,7 @@
       <c r="H249" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I249" s="29" t="s">
+      <c r="I249" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J249" s="15" t="s">
@@ -9680,7 +9714,7 @@
       <c r="L249" s="15"/>
       <c r="M249" s="15"/>
       <c r="N249" s="15"/>
-      <c r="O249" s="49"/>
+      <c r="O249" s="48"/>
       <c r="P249" s="2"/>
       <c r="Q249" s="3"/>
       <c r="R249" s="3"/>
@@ -9701,7 +9735,7 @@
       <c r="H250" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I250" s="50" t="s">
+      <c r="I250" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J250" s="15" t="s">
@@ -9713,7 +9747,7 @@
       <c r="L250" s="15"/>
       <c r="M250" s="15"/>
       <c r="N250" s="15"/>
-      <c r="O250" s="49"/>
+      <c r="O250" s="48"/>
       <c r="P250" s="2"/>
       <c r="Q250" s="3"/>
       <c r="R250" s="3"/>
@@ -9734,7 +9768,7 @@
       <c r="H251" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I251" s="50" t="s">
+      <c r="I251" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J251" s="15" t="s">
@@ -9746,7 +9780,7 @@
       <c r="L251" s="15"/>
       <c r="M251" s="15"/>
       <c r="N251" s="15"/>
-      <c r="O251" s="49"/>
+      <c r="O251" s="48"/>
       <c r="P251" s="2"/>
       <c r="Q251" s="3"/>
       <c r="R251" s="3"/>
@@ -9767,7 +9801,7 @@
       <c r="H252" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I252" s="50" t="s">
+      <c r="I252" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J252" s="15" t="s">
@@ -9779,7 +9813,7 @@
       <c r="L252" s="15"/>
       <c r="M252" s="15"/>
       <c r="N252" s="15"/>
-      <c r="O252" s="49"/>
+      <c r="O252" s="48"/>
       <c r="P252" s="2"/>
       <c r="Q252" s="3"/>
       <c r="R252" s="3"/>
@@ -9800,7 +9834,7 @@
       <c r="H253" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I253" s="29" t="s">
+      <c r="I253" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J253" s="15" t="s">
@@ -9812,7 +9846,7 @@
       <c r="L253" s="15"/>
       <c r="M253" s="15"/>
       <c r="N253" s="15"/>
-      <c r="O253" s="49"/>
+      <c r="O253" s="48"/>
       <c r="P253" s="2"/>
       <c r="Q253" s="3"/>
       <c r="R253" s="3"/>
@@ -9825,7 +9859,7 @@
       <c r="B254" s="2"/>
       <c r="C254" s="14"/>
       <c r="D254" s="14"/>
-      <c r="E254" s="31" t="s">
+      <c r="E254" s="30" t="s">
         <v>234</v>
       </c>
       <c r="F254" s="28"/>
@@ -9833,7 +9867,7 @@
       <c r="H254" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I254" s="50" t="s">
+      <c r="I254" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J254" s="15" t="s">
@@ -9845,7 +9879,7 @@
       <c r="L254" s="15"/>
       <c r="M254" s="15"/>
       <c r="N254" s="15"/>
-      <c r="O254" s="49"/>
+      <c r="O254" s="48"/>
       <c r="P254" s="2"/>
       <c r="Q254" s="3"/>
       <c r="R254" s="3"/>
@@ -9858,7 +9892,7 @@
       <c r="B255" s="2"/>
       <c r="C255" s="14"/>
       <c r="D255" s="14"/>
-      <c r="E255" s="32" t="s">
+      <c r="E255" s="31" t="s">
         <v>235</v>
       </c>
       <c r="F255" s="28"/>
@@ -9866,7 +9900,7 @@
       <c r="H255" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I255" s="50" t="s">
+      <c r="I255" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J255" s="15" t="s">
@@ -9878,7 +9912,7 @@
       <c r="L255" s="15"/>
       <c r="M255" s="15"/>
       <c r="N255" s="15"/>
-      <c r="O255" s="49"/>
+      <c r="O255" s="48"/>
       <c r="P255" s="2"/>
       <c r="Q255" s="3"/>
       <c r="R255" s="3"/>
@@ -9891,7 +9925,7 @@
       <c r="B256" s="2"/>
       <c r="C256" s="14"/>
       <c r="D256" s="14"/>
-      <c r="E256" s="32" t="s">
+      <c r="E256" s="31" t="s">
         <v>236</v>
       </c>
       <c r="F256" s="28"/>
@@ -9899,7 +9933,7 @@
       <c r="H256" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I256" s="50" t="s">
+      <c r="I256" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J256" s="15" t="s">
@@ -9911,7 +9945,7 @@
       <c r="L256" s="15"/>
       <c r="M256" s="15"/>
       <c r="N256" s="15"/>
-      <c r="O256" s="49"/>
+      <c r="O256" s="48"/>
       <c r="P256" s="2"/>
       <c r="Q256" s="3"/>
       <c r="R256" s="3"/>
@@ -9932,7 +9966,7 @@
       <c r="H257" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I257" s="23"/>
+      <c r="I257" s="89"/>
       <c r="J257" s="15" t="s">
         <v>69</v>
       </c>
@@ -9942,7 +9976,7 @@
       <c r="L257" s="15"/>
       <c r="M257" s="15"/>
       <c r="N257" s="15"/>
-      <c r="O257" s="49"/>
+      <c r="O257" s="48"/>
       <c r="P257" s="2"/>
       <c r="Q257" s="3"/>
       <c r="R257" s="3"/>
@@ -9955,7 +9989,7 @@
       <c r="B258" s="2"/>
       <c r="C258" s="14"/>
       <c r="D258" s="14"/>
-      <c r="E258" s="31" t="s">
+      <c r="E258" s="30" t="s">
         <v>237</v>
       </c>
       <c r="F258" s="28"/>
@@ -9963,7 +9997,7 @@
       <c r="H258" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I258" s="15"/>
+      <c r="I258" s="85"/>
       <c r="J258" s="15" t="s">
         <v>69</v>
       </c>
@@ -9973,7 +10007,7 @@
       <c r="L258" s="15"/>
       <c r="M258" s="15"/>
       <c r="N258" s="15"/>
-      <c r="O258" s="49"/>
+      <c r="O258" s="48"/>
       <c r="P258" s="2"/>
       <c r="Q258" s="3"/>
       <c r="R258" s="3"/>
@@ -9986,7 +10020,7 @@
       <c r="B259" s="2"/>
       <c r="C259" s="14"/>
       <c r="D259" s="14"/>
-      <c r="E259" s="32" t="s">
+      <c r="E259" s="31" t="s">
         <v>238</v>
       </c>
       <c r="F259" s="28"/>
@@ -9994,7 +10028,7 @@
       <c r="H259" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I259" s="15"/>
+      <c r="I259" s="85"/>
       <c r="J259" s="15" t="s">
         <v>69</v>
       </c>
@@ -10004,7 +10038,7 @@
       <c r="L259" s="15"/>
       <c r="M259" s="15"/>
       <c r="N259" s="15"/>
-      <c r="O259" s="49"/>
+      <c r="O259" s="48"/>
       <c r="P259" s="2"/>
       <c r="Q259" s="3"/>
       <c r="R259" s="3"/>
@@ -10017,7 +10051,7 @@
       <c r="B260" s="2"/>
       <c r="C260" s="14"/>
       <c r="D260" s="14"/>
-      <c r="E260" s="32" t="s">
+      <c r="E260" s="31" t="s">
         <v>239</v>
       </c>
       <c r="F260" s="28"/>
@@ -10025,7 +10059,7 @@
       <c r="H260" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I260" s="15"/>
+      <c r="I260" s="85"/>
       <c r="J260" s="15" t="s">
         <v>69</v>
       </c>
@@ -10035,7 +10069,7 @@
       <c r="L260" s="15"/>
       <c r="M260" s="15"/>
       <c r="N260" s="15"/>
-      <c r="O260" s="49"/>
+      <c r="O260" s="48"/>
       <c r="P260" s="2"/>
       <c r="Q260" s="3"/>
       <c r="R260" s="3"/>
@@ -10056,7 +10090,7 @@
       <c r="H261" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I261" s="29" t="s">
+      <c r="I261" s="90" t="s">
         <v>156</v>
       </c>
       <c r="J261" s="15" t="s">
@@ -10068,7 +10102,7 @@
       <c r="L261" s="15"/>
       <c r="M261" s="15"/>
       <c r="N261" s="15"/>
-      <c r="O261" s="49"/>
+      <c r="O261" s="48"/>
       <c r="P261" s="2"/>
       <c r="Q261" s="3"/>
       <c r="R261" s="3"/>
@@ -10081,7 +10115,7 @@
       <c r="B262" s="2"/>
       <c r="C262" s="14"/>
       <c r="D262" s="14"/>
-      <c r="E262" s="31" t="s">
+      <c r="E262" s="30" t="s">
         <v>234</v>
       </c>
       <c r="F262" s="28"/>
@@ -10089,7 +10123,7 @@
       <c r="H262" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I262" s="50" t="s">
+      <c r="I262" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J262" s="15" t="s">
@@ -10101,7 +10135,7 @@
       <c r="L262" s="15"/>
       <c r="M262" s="15"/>
       <c r="N262" s="15"/>
-      <c r="O262" s="49"/>
+      <c r="O262" s="48"/>
       <c r="P262" s="2"/>
       <c r="Q262" s="3"/>
       <c r="R262" s="3"/>
@@ -10114,7 +10148,7 @@
       <c r="B263" s="2"/>
       <c r="C263" s="14"/>
       <c r="D263" s="14"/>
-      <c r="E263" s="32" t="s">
+      <c r="E263" s="31" t="s">
         <v>235</v>
       </c>
       <c r="F263" s="28"/>
@@ -10122,7 +10156,7 @@
       <c r="H263" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I263" s="50" t="s">
+      <c r="I263" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J263" s="15" t="s">
@@ -10134,7 +10168,7 @@
       <c r="L263" s="15"/>
       <c r="M263" s="15"/>
       <c r="N263" s="15"/>
-      <c r="O263" s="49"/>
+      <c r="O263" s="48"/>
       <c r="P263" s="2"/>
       <c r="Q263" s="3"/>
       <c r="R263" s="3"/>
@@ -10147,7 +10181,7 @@
       <c r="B264" s="2"/>
       <c r="C264" s="14"/>
       <c r="D264" s="14"/>
-      <c r="E264" s="32" t="s">
+      <c r="E264" s="31" t="s">
         <v>236</v>
       </c>
       <c r="F264" s="28"/>
@@ -10155,7 +10189,7 @@
       <c r="H264" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I264" s="50" t="s">
+      <c r="I264" s="86" t="s">
         <v>156</v>
       </c>
       <c r="J264" s="15" t="s">
@@ -10167,7 +10201,7 @@
       <c r="L264" s="15"/>
       <c r="M264" s="15"/>
       <c r="N264" s="15"/>
-      <c r="O264" s="49"/>
+      <c r="O264" s="48"/>
       <c r="P264" s="2"/>
       <c r="Q264" s="3"/>
       <c r="R264" s="3"/>
@@ -10188,7 +10222,7 @@
       <c r="H265" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I265" s="23"/>
+      <c r="I265" s="89"/>
       <c r="J265" s="15" t="s">
         <v>69</v>
       </c>
@@ -10198,7 +10232,7 @@
       <c r="L265" s="15"/>
       <c r="M265" s="15"/>
       <c r="N265" s="15"/>
-      <c r="O265" s="49"/>
+      <c r="O265" s="48"/>
       <c r="P265" s="2"/>
       <c r="Q265" s="3"/>
       <c r="R265" s="3"/>
@@ -10211,7 +10245,7 @@
       <c r="B266" s="2"/>
       <c r="C266" s="14"/>
       <c r="D266" s="14"/>
-      <c r="E266" s="31" t="s">
+      <c r="E266" s="30" t="s">
         <v>241</v>
       </c>
       <c r="F266" s="28"/>
@@ -10219,7 +10253,7 @@
       <c r="H266" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I266" s="15"/>
+      <c r="I266" s="85"/>
       <c r="J266" s="15" t="s">
         <v>69</v>
       </c>
@@ -10229,7 +10263,7 @@
       <c r="L266" s="15"/>
       <c r="M266" s="15"/>
       <c r="N266" s="15"/>
-      <c r="O266" s="49"/>
+      <c r="O266" s="48"/>
       <c r="P266" s="2"/>
       <c r="Q266" s="3"/>
       <c r="R266" s="3"/>
@@ -10242,7 +10276,7 @@
       <c r="B267" s="2"/>
       <c r="C267" s="14"/>
       <c r="D267" s="14"/>
-      <c r="E267" s="32" t="s">
+      <c r="E267" s="31" t="s">
         <v>242</v>
       </c>
       <c r="F267" s="28"/>
@@ -10250,7 +10284,7 @@
       <c r="H267" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I267" s="15"/>
+      <c r="I267" s="85"/>
       <c r="J267" s="15" t="s">
         <v>69</v>
       </c>
@@ -10260,7 +10294,7 @@
       <c r="L267" s="15"/>
       <c r="M267" s="15"/>
       <c r="N267" s="15"/>
-      <c r="O267" s="49"/>
+      <c r="O267" s="48"/>
       <c r="P267" s="2"/>
       <c r="Q267" s="3"/>
       <c r="R267" s="3"/>
@@ -10273,7 +10307,7 @@
       <c r="B268" s="2"/>
       <c r="C268" s="14"/>
       <c r="D268" s="14"/>
-      <c r="E268" s="32" t="s">
+      <c r="E268" s="31" t="s">
         <v>243</v>
       </c>
       <c r="F268" s="28"/>
@@ -10281,7 +10315,7 @@
       <c r="H268" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I268" s="15"/>
+      <c r="I268" s="85"/>
       <c r="J268" s="15" t="s">
         <v>69</v>
       </c>
@@ -10291,7 +10325,7 @@
       <c r="L268" s="15"/>
       <c r="M268" s="15"/>
       <c r="N268" s="15"/>
-      <c r="O268" s="49"/>
+      <c r="O268" s="48"/>
       <c r="P268" s="2"/>
       <c r="Q268" s="3"/>
       <c r="R268" s="3"/>
@@ -10304,7 +10338,7 @@
       <c r="B269" s="2"/>
       <c r="C269" s="14"/>
       <c r="D269" s="14"/>
-      <c r="E269" s="32" t="s">
+      <c r="E269" s="31" t="s">
         <v>244</v>
       </c>
       <c r="F269" s="28"/>
@@ -10312,7 +10346,7 @@
       <c r="H269" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I269" s="15"/>
+      <c r="I269" s="85"/>
       <c r="J269" s="15" t="s">
         <v>69</v>
       </c>
@@ -10322,7 +10356,7 @@
       <c r="L269" s="15"/>
       <c r="M269" s="15"/>
       <c r="N269" s="15"/>
-      <c r="O269" s="49"/>
+      <c r="O269" s="48"/>
       <c r="P269" s="2"/>
       <c r="Q269" s="3"/>
       <c r="R269" s="3"/>
@@ -10343,7 +10377,7 @@
       <c r="H270" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I270" s="23"/>
+      <c r="I270" s="89"/>
       <c r="J270" s="15" t="s">
         <v>69</v>
       </c>
@@ -10353,7 +10387,7 @@
       <c r="L270" s="15"/>
       <c r="M270" s="15"/>
       <c r="N270" s="15"/>
-      <c r="O270" s="49"/>
+      <c r="O270" s="48"/>
       <c r="P270" s="2"/>
       <c r="Q270" s="3"/>
       <c r="R270" s="3"/>
@@ -10366,7 +10400,7 @@
       <c r="B271" s="2"/>
       <c r="C271" s="14"/>
       <c r="D271" s="14"/>
-      <c r="E271" s="31" t="s">
+      <c r="E271" s="30" t="s">
         <v>245</v>
       </c>
       <c r="F271" s="28"/>
@@ -10374,7 +10408,7 @@
       <c r="H271" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I271" s="15"/>
+      <c r="I271" s="85"/>
       <c r="J271" s="15" t="s">
         <v>69</v>
       </c>
@@ -10384,7 +10418,7 @@
       <c r="L271" s="15"/>
       <c r="M271" s="15"/>
       <c r="N271" s="15"/>
-      <c r="O271" s="49"/>
+      <c r="O271" s="48"/>
       <c r="P271" s="2"/>
       <c r="Q271" s="3"/>
       <c r="R271" s="3"/>
@@ -10397,7 +10431,7 @@
       <c r="B272" s="2"/>
       <c r="C272" s="14"/>
       <c r="D272" s="14"/>
-      <c r="E272" s="32" t="s">
+      <c r="E272" s="31" t="s">
         <v>246</v>
       </c>
       <c r="F272" s="28"/>
@@ -10405,7 +10439,7 @@
       <c r="H272" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I272" s="15"/>
+      <c r="I272" s="85"/>
       <c r="J272" s="15" t="s">
         <v>69</v>
       </c>
@@ -10415,7 +10449,7 @@
       <c r="L272" s="15"/>
       <c r="M272" s="15"/>
       <c r="N272" s="15"/>
-      <c r="O272" s="49"/>
+      <c r="O272" s="48"/>
       <c r="P272" s="2"/>
       <c r="Q272" s="3"/>
       <c r="R272" s="3"/>
@@ -10428,7 +10462,7 @@
       <c r="B273" s="19"/>
       <c r="C273" s="18"/>
       <c r="D273" s="18"/>
-      <c r="E273" s="32" t="s">
+      <c r="E273" s="31" t="s">
         <v>247</v>
       </c>
       <c r="F273" s="17"/>
@@ -10436,7 +10470,7 @@
       <c r="H273" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I273" s="15"/>
+      <c r="I273" s="85"/>
       <c r="J273" s="15" t="s">
         <v>69</v>
       </c>
@@ -10446,29 +10480,36 @@
       <c r="L273" s="15"/>
       <c r="M273" s="15"/>
       <c r="N273" s="15"/>
-      <c r="O273" s="49"/>
+      <c r="O273" s="48"/>
       <c r="P273" s="2"/>
       <c r="Q273" s="3"/>
       <c r="R273" s="3"/>
       <c r="S273" s="3"/>
     </row>
     <row r="276" spans="1:19" ht="12.5">
-      <c r="C276" s="46" t="s">
+      <c r="C276" s="45" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="277" spans="1:19" ht="12.5">
-      <c r="C277" s="46" t="s">
+      <c r="C277" s="45" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="278" spans="1:19" ht="12.5">
-      <c r="C278" s="46" t="s">
+      <c r="C278" s="45" t="s">
         <v>295</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="E76:F76"/>
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="B1:B2"/>
@@ -10481,15 +10522,8 @@
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I9" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="I21" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
@@ -10640,6 +10674,10 @@
     <hyperlink ref="I262" r:id="rId147" xr:uid="{00000000-0004-0000-0200-000092000000}"/>
     <hyperlink ref="I263" r:id="rId148" xr:uid="{00000000-0004-0000-0200-000093000000}"/>
     <hyperlink ref="I264" r:id="rId149" xr:uid="{00000000-0004-0000-0200-000094000000}"/>
+    <hyperlink ref="I12" r:id="rId150" xr:uid="{F602D8ED-CE9B-49B7-AB00-B8A72A569876}"/>
+    <hyperlink ref="I13" r:id="rId151" xr:uid="{5A5E7929-0411-42D1-BFC3-6A047CE31061}"/>
+    <hyperlink ref="I15" r:id="rId152" xr:uid="{30F2F4B9-7720-421C-BE36-0CE7FCA7AB76}"/>
+    <hyperlink ref="I16" r:id="rId153" xr:uid="{7159F267-A4DD-4486-A98B-82849EA38BD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/새롬통합관리시스템.xlsx
+++ b/새롬통합관리시스템.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\html_cms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6730505E-C1B7-4D1F-AE4B-5DB4234EA318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3561F1C-469E-43DB-9495-B268F2FDCBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="0" windowWidth="19560" windowHeight="15410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="2700" windowWidth="29060" windowHeight="15410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IA기능정의_수정" sheetId="3" r:id="rId1"/>
@@ -302,9 +302,6 @@
   </si>
   <si>
     <t>스마트 체크</t>
-  </si>
-  <si>
-    <t>스마트 체크 현황</t>
   </si>
   <si>
     <t>스마트 체크 등록</t>
@@ -955,6 +952,10 @@
   </si>
   <si>
     <t>html\01_02_02_발신공문채번등록.html</t>
+  </si>
+  <si>
+    <t>스마트체크 현황</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1739,8 +1740,8 @@
   </sheetPr>
   <dimension ref="A1:AA278"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2017,7 +2018,7 @@
         <v>68</v>
       </c>
       <c r="I9" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>69</v>
@@ -2106,7 +2107,7 @@
         <v>79</v>
       </c>
       <c r="I12" s="87" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>69</v>
@@ -2139,7 +2140,7 @@
         <v>76</v>
       </c>
       <c r="I13" s="88" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>69</v>
@@ -2203,7 +2204,7 @@
         <v>68</v>
       </c>
       <c r="I15" s="88" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>69</v>
@@ -2236,7 +2237,7 @@
         <v>68</v>
       </c>
       <c r="I16" s="88" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J16" s="15" t="s">
         <v>69</v>
@@ -2381,7 +2382,7 @@
         <v>79</v>
       </c>
       <c r="I21" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>69</v>
@@ -2538,7 +2539,7 @@
         <v>79</v>
       </c>
       <c r="I26" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J26" s="15" t="s">
         <v>69</v>
@@ -2587,7 +2588,7 @@
       <c r="B28" s="2"/>
       <c r="C28" s="14"/>
       <c r="D28" s="27" t="s">
-        <v>94</v>
+        <v>297</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
@@ -2596,7 +2597,7 @@
         <v>79</v>
       </c>
       <c r="I28" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>69</v>
@@ -2621,7 +2622,7 @@
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
@@ -2652,7 +2653,7 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
@@ -2682,7 +2683,7 @@
       <c r="B31" s="2"/>
       <c r="C31" s="14"/>
       <c r="D31" s="78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E31" s="71"/>
       <c r="F31" s="17"/>
@@ -2691,7 +2692,7 @@
         <v>68</v>
       </c>
       <c r="I31" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J31" s="15" t="s">
         <v>69</v>
@@ -2724,7 +2725,7 @@
         <v>79</v>
       </c>
       <c r="I32" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J32" s="15" t="s">
         <v>69</v>
@@ -2749,7 +2750,7 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
@@ -2780,7 +2781,7 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -2811,7 +2812,7 @@
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
@@ -2850,7 +2851,7 @@
         <v>79</v>
       </c>
       <c r="I36" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J36" s="15" t="s">
         <v>69</v>
@@ -2875,7 +2876,7 @@
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F37" s="80"/>
       <c r="G37" s="28"/>
@@ -2906,7 +2907,7 @@
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F38" s="71"/>
       <c r="G38" s="17"/>
@@ -2945,7 +2946,7 @@
         <v>79</v>
       </c>
       <c r="I39" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J39" s="15" t="s">
         <v>69</v>
@@ -2970,7 +2971,7 @@
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
@@ -3001,7 +3002,7 @@
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
@@ -3032,7 +3033,7 @@
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
@@ -3063,7 +3064,7 @@
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
@@ -3094,7 +3095,7 @@
       <c r="C44" s="14"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
@@ -3124,7 +3125,7 @@
       <c r="B45" s="2"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -3133,7 +3134,7 @@
         <v>79</v>
       </c>
       <c r="I45" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J45" s="15" t="s">
         <v>69</v>
@@ -3158,7 +3159,7 @@
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F46" s="28"/>
       <c r="G46" s="28"/>
@@ -3189,7 +3190,7 @@
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F47" s="28"/>
       <c r="G47" s="28"/>
@@ -3220,7 +3221,7 @@
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="28"/>
@@ -3251,7 +3252,7 @@
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
@@ -3282,7 +3283,7 @@
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
@@ -3313,7 +3314,7 @@
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
@@ -3377,7 +3378,7 @@
         <v>79</v>
       </c>
       <c r="I53" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J53" s="15" t="s">
         <v>69</v>
@@ -3402,7 +3403,7 @@
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F54" s="28"/>
       <c r="G54" s="28"/>
@@ -3433,7 +3434,7 @@
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F55" s="28"/>
       <c r="G55" s="28"/>
@@ -3464,7 +3465,7 @@
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
       <c r="E56" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
@@ -3503,7 +3504,7 @@
         <v>79</v>
       </c>
       <c r="I57" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J57" s="15" t="s">
         <v>69</v>
@@ -3528,7 +3529,7 @@
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
       <c r="E58" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F58" s="28"/>
       <c r="G58" s="28"/>
@@ -3559,7 +3560,7 @@
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
       <c r="E59" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
@@ -3590,7 +3591,7 @@
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
       <c r="E60" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
@@ -3629,7 +3630,7 @@
         <v>79</v>
       </c>
       <c r="I61" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J61" s="15" t="s">
         <v>69</v>
@@ -3654,7 +3655,7 @@
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F62" s="28"/>
       <c r="G62" s="28"/>
@@ -3685,7 +3686,7 @@
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
       <c r="E63" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
@@ -3716,7 +3717,7 @@
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
       <c r="E64" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
@@ -3755,7 +3756,7 @@
         <v>79</v>
       </c>
       <c r="I65" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J65" s="15" t="s">
         <v>69</v>
@@ -3780,7 +3781,7 @@
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
       <c r="E66" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F66" s="28"/>
       <c r="G66" s="28"/>
@@ -3811,7 +3812,7 @@
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
       <c r="E67" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
@@ -3842,7 +3843,7 @@
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
       <c r="E68" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
@@ -3873,7 +3874,7 @@
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
       <c r="E69" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
@@ -3903,7 +3904,7 @@
       <c r="B70" s="2"/>
       <c r="C70" s="14"/>
       <c r="D70" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -3912,7 +3913,7 @@
         <v>79</v>
       </c>
       <c r="I70" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J70" s="15" t="s">
         <v>69</v>
@@ -3937,7 +3938,7 @@
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
       <c r="E71" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F71" s="28"/>
       <c r="G71" s="28"/>
@@ -3968,7 +3969,7 @@
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
       <c r="E72" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
@@ -3999,7 +4000,7 @@
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
       <c r="E73" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
@@ -4038,7 +4039,7 @@
         <v>79</v>
       </c>
       <c r="I74" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J74" s="15" t="s">
         <v>69</v>
@@ -4063,7 +4064,7 @@
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
       <c r="E75" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F75" s="28"/>
       <c r="G75" s="28"/>
@@ -4094,7 +4095,7 @@
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
       <c r="E76" s="70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F76" s="71"/>
       <c r="G76" s="17"/>
@@ -4125,7 +4126,7 @@
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
       <c r="E77" s="70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F77" s="71"/>
       <c r="G77" s="19"/>
@@ -4180,7 +4181,7 @@
       <c r="B79" s="2"/>
       <c r="C79" s="14"/>
       <c r="D79" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E79" s="28"/>
       <c r="F79" s="28"/>
@@ -4189,7 +4190,7 @@
         <v>79</v>
       </c>
       <c r="I79" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J79" s="15" t="s">
         <v>69</v>
@@ -4214,7 +4215,7 @@
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
       <c r="E80" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F80" s="28"/>
       <c r="G80" s="28"/>
@@ -4246,7 +4247,7 @@
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G81" s="17"/>
       <c r="H81" s="15" t="s">
@@ -4277,7 +4278,7 @@
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
       <c r="F82" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G82" s="19"/>
       <c r="H82" s="15" t="s">
@@ -4308,7 +4309,7 @@
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
       <c r="F83" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G83" s="19"/>
       <c r="H83" s="15" t="s">
@@ -4339,7 +4340,7 @@
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
       <c r="F84" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G84" s="19"/>
       <c r="H84" s="15" t="s">
@@ -4369,7 +4370,7 @@
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
       <c r="E85" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -4401,7 +4402,7 @@
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
       <c r="F86" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G86" s="17"/>
       <c r="H86" s="15" t="s">
@@ -4432,7 +4433,7 @@
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
       <c r="F87" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G87" s="19"/>
       <c r="H87" s="15" t="s">
@@ -4463,7 +4464,7 @@
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
       <c r="F88" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G88" s="19"/>
       <c r="H88" s="15" t="s">
@@ -4494,7 +4495,7 @@
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
       <c r="F89" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G89" s="19"/>
       <c r="H89" s="15" t="s">
@@ -4555,7 +4556,7 @@
       <c r="C91" s="14"/>
       <c r="D91" s="14"/>
       <c r="E91" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F91" s="28"/>
       <c r="G91" s="28"/>
@@ -4587,7 +4588,7 @@
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
       <c r="F92" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G92" s="17"/>
       <c r="H92" s="15" t="s">
@@ -4618,7 +4619,7 @@
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
       <c r="F93" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G93" s="19"/>
       <c r="H93" s="15" t="s">
@@ -4649,7 +4650,7 @@
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
       <c r="F94" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G94" s="19"/>
       <c r="H94" s="15" t="s">
@@ -4680,7 +4681,7 @@
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
       <c r="F95" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G95" s="19"/>
       <c r="H95" s="15" t="s">
@@ -4710,7 +4711,7 @@
       <c r="C96" s="14"/>
       <c r="D96" s="14"/>
       <c r="E96" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -4742,7 +4743,7 @@
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
       <c r="F97" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G97" s="17"/>
       <c r="H97" s="15" t="s">
@@ -4773,7 +4774,7 @@
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
       <c r="F98" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G98" s="19"/>
       <c r="H98" s="15" t="s">
@@ -4804,7 +4805,7 @@
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
       <c r="F99" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G99" s="19"/>
       <c r="H99" s="15" t="s">
@@ -4835,7 +4836,7 @@
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
       <c r="F100" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G100" s="19"/>
       <c r="H100" s="15" t="s">
@@ -4864,7 +4865,7 @@
       <c r="B101" s="2"/>
       <c r="C101" s="14"/>
       <c r="D101" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E101" s="17"/>
       <c r="F101" s="19"/>
@@ -4896,7 +4897,7 @@
       <c r="C102" s="14"/>
       <c r="D102" s="14"/>
       <c r="E102" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -4927,7 +4928,7 @@
       <c r="C103" s="14"/>
       <c r="D103" s="14"/>
       <c r="E103" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F103" s="28"/>
       <c r="G103" s="28"/>
@@ -4958,7 +4959,7 @@
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
       <c r="E104" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F104" s="28"/>
       <c r="G104" s="28"/>
@@ -5020,7 +5021,7 @@
       <c r="C106" s="14"/>
       <c r="D106" s="14"/>
       <c r="E106" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -5051,7 +5052,7 @@
       <c r="C107" s="14"/>
       <c r="D107" s="14"/>
       <c r="E107" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F107" s="28"/>
       <c r="G107" s="28"/>
@@ -5082,7 +5083,7 @@
       <c r="C108" s="14"/>
       <c r="D108" s="14"/>
       <c r="E108" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F108" s="28"/>
       <c r="G108" s="28"/>
@@ -5142,7 +5143,7 @@
       <c r="C110" s="14"/>
       <c r="D110" s="14"/>
       <c r="E110" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -5173,7 +5174,7 @@
       <c r="C111" s="14"/>
       <c r="D111" s="14"/>
       <c r="E111" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F111" s="28"/>
       <c r="G111" s="28"/>
@@ -5230,7 +5231,7 @@
       <c r="B113" s="2"/>
       <c r="C113" s="33"/>
       <c r="D113" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E113" s="22"/>
       <c r="F113" s="22"/>
@@ -5239,7 +5240,7 @@
         <v>79</v>
       </c>
       <c r="I113" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J113" s="23" t="s">
         <v>69</v>
@@ -5251,7 +5252,7 @@
       <c r="M113" s="23"/>
       <c r="N113" s="23"/>
       <c r="O113" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" s="3"/>
@@ -5266,7 +5267,7 @@
       <c r="C114" s="33"/>
       <c r="D114" s="33"/>
       <c r="E114" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F114" s="22"/>
       <c r="G114" s="22"/>
@@ -5274,7 +5275,7 @@
         <v>68</v>
       </c>
       <c r="I114" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J114" s="23" t="s">
         <v>69</v>
@@ -5300,14 +5301,14 @@
       <c r="D115" s="33"/>
       <c r="E115" s="33"/>
       <c r="F115" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G115" s="36"/>
       <c r="H115" s="23" t="s">
         <v>68</v>
       </c>
       <c r="I115" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J115" s="23" t="s">
         <v>69</v>
@@ -5333,14 +5334,14 @@
       <c r="D116" s="33"/>
       <c r="E116" s="33"/>
       <c r="F116" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G116" s="35"/>
       <c r="H116" s="23" t="s">
         <v>68</v>
       </c>
       <c r="I116" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J116" s="23" t="s">
         <v>69</v>
@@ -5366,14 +5367,14 @@
       <c r="D117" s="33"/>
       <c r="E117" s="33"/>
       <c r="F117" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G117" s="35"/>
       <c r="H117" s="23" t="s">
         <v>68</v>
       </c>
       <c r="I117" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J117" s="23"/>
       <c r="K117" s="23"/>
@@ -5395,14 +5396,14 @@
       <c r="D118" s="33"/>
       <c r="E118" s="33"/>
       <c r="F118" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G118" s="35"/>
       <c r="H118" s="23" t="s">
         <v>68</v>
       </c>
       <c r="I118" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J118" s="23" t="s">
         <v>69</v>
@@ -5414,7 +5415,7 @@
       <c r="M118" s="23"/>
       <c r="N118" s="23"/>
       <c r="O118" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" s="3"/>
@@ -5429,7 +5430,7 @@
       <c r="C119" s="33"/>
       <c r="D119" s="33"/>
       <c r="E119" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F119" s="36"/>
       <c r="G119" s="35"/>
@@ -5437,7 +5438,7 @@
         <v>79</v>
       </c>
       <c r="I119" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J119" s="23" t="s">
         <v>69</v>
@@ -5449,7 +5450,7 @@
       <c r="M119" s="23"/>
       <c r="N119" s="23"/>
       <c r="O119" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P119" s="2"/>
       <c r="Q119" s="3"/>
@@ -5465,14 +5466,14 @@
       <c r="D120" s="33"/>
       <c r="E120" s="33"/>
       <c r="F120" s="52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G120" s="35"/>
       <c r="H120" s="23" t="s">
         <v>68</v>
       </c>
       <c r="I120" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J120" s="23" t="s">
         <v>69</v>
@@ -5499,13 +5500,13 @@
       <c r="E121" s="33"/>
       <c r="F121" s="52"/>
       <c r="G121" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H121" s="23" t="s">
         <v>68</v>
       </c>
       <c r="I121" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J121" s="23" t="s">
         <v>69</v>
@@ -5532,13 +5533,13 @@
       <c r="E122" s="33"/>
       <c r="F122" s="52"/>
       <c r="G122" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H122" s="23" t="s">
         <v>68</v>
       </c>
       <c r="I122" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J122" s="23" t="s">
         <v>69</v>
@@ -5565,13 +5566,13 @@
       <c r="E123" s="33"/>
       <c r="F123" s="52"/>
       <c r="G123" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H123" s="23" t="s">
         <v>68</v>
       </c>
       <c r="I123" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J123" s="23" t="s">
         <v>69</v>
@@ -5598,13 +5599,13 @@
       <c r="E124" s="33"/>
       <c r="F124" s="52"/>
       <c r="G124" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H124" s="23" t="s">
         <v>68</v>
       </c>
       <c r="I124" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J124" s="23" t="s">
         <v>69</v>
@@ -5630,14 +5631,14 @@
       <c r="D125" s="33"/>
       <c r="E125" s="33"/>
       <c r="F125" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G125" s="35"/>
       <c r="H125" s="23" t="s">
         <v>68</v>
       </c>
       <c r="I125" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J125" s="23" t="s">
         <v>69</v>
@@ -5663,14 +5664,14 @@
       <c r="D126" s="33"/>
       <c r="E126" s="33"/>
       <c r="F126" s="52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G126" s="35"/>
       <c r="H126" s="23" t="s">
         <v>68</v>
       </c>
       <c r="I126" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J126" s="23" t="s">
         <v>69</v>
@@ -5697,13 +5698,13 @@
       <c r="E127" s="33"/>
       <c r="F127" s="52"/>
       <c r="G127" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H127" s="23" t="s">
         <v>68</v>
       </c>
       <c r="I127" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J127" s="23" t="s">
         <v>69</v>
@@ -5730,13 +5731,13 @@
       <c r="E128" s="33"/>
       <c r="F128" s="52"/>
       <c r="G128" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H128" s="23" t="s">
         <v>68</v>
       </c>
       <c r="I128" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J128" s="23" t="s">
         <v>69</v>
@@ -5763,13 +5764,13 @@
       <c r="E129" s="33"/>
       <c r="F129" s="37"/>
       <c r="G129" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H129" s="23" t="s">
         <v>68</v>
       </c>
       <c r="I129" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J129" s="23" t="s">
         <v>69</v>
@@ -5795,14 +5796,14 @@
       <c r="D130" s="33"/>
       <c r="E130" s="33"/>
       <c r="F130" s="52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G130" s="35"/>
       <c r="H130" s="23" t="s">
         <v>68</v>
       </c>
       <c r="I130" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J130" s="23" t="s">
         <v>69</v>
@@ -5835,7 +5836,7 @@
         <v>79</v>
       </c>
       <c r="I131" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J131" s="23" t="s">
         <v>69</v>
@@ -5860,7 +5861,7 @@
       <c r="C132" s="33"/>
       <c r="D132" s="33"/>
       <c r="E132" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F132" s="22"/>
       <c r="G132" s="22"/>
@@ -5868,7 +5869,7 @@
         <v>68</v>
       </c>
       <c r="I132" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J132" s="23" t="s">
         <v>69</v>
@@ -5893,7 +5894,7 @@
       <c r="C133" s="33"/>
       <c r="D133" s="33"/>
       <c r="E133" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F133" s="22"/>
       <c r="G133" s="22"/>
@@ -5901,7 +5902,7 @@
         <v>68</v>
       </c>
       <c r="I133" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J133" s="23" t="s">
         <v>69</v>
@@ -5926,7 +5927,7 @@
       <c r="C134" s="33"/>
       <c r="D134" s="33"/>
       <c r="E134" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F134" s="22"/>
       <c r="G134" s="22"/>
@@ -5934,7 +5935,7 @@
         <v>68</v>
       </c>
       <c r="I134" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J134" s="23" t="s">
         <v>69</v>
@@ -5967,7 +5968,7 @@
         <v>79</v>
       </c>
       <c r="I135" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J135" s="23" t="s">
         <v>69</v>
@@ -6000,7 +6001,7 @@
         <v>68</v>
       </c>
       <c r="I136" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J136" s="23" t="s">
         <v>69</v>
@@ -6025,7 +6026,7 @@
       <c r="C137" s="33"/>
       <c r="D137" s="33"/>
       <c r="E137" s="52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F137" s="24"/>
       <c r="G137" s="53"/>
@@ -6033,7 +6034,7 @@
         <v>68</v>
       </c>
       <c r="I137" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J137" s="23" t="s">
         <v>69</v>
@@ -6059,14 +6060,14 @@
       <c r="D138" s="33"/>
       <c r="E138" s="37"/>
       <c r="F138" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G138" s="35"/>
       <c r="H138" s="23" t="s">
         <v>68</v>
       </c>
       <c r="I138" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J138" s="23" t="s">
         <v>69</v>
@@ -6091,7 +6092,7 @@
       <c r="C139" s="33"/>
       <c r="D139" s="33"/>
       <c r="E139" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F139" s="24"/>
       <c r="G139" s="53"/>
@@ -6099,7 +6100,7 @@
         <v>68</v>
       </c>
       <c r="I139" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J139" s="23" t="s">
         <v>69</v>
@@ -6125,14 +6126,14 @@
       <c r="D140" s="33"/>
       <c r="E140" s="52"/>
       <c r="F140" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G140" s="35"/>
       <c r="H140" s="23" t="s">
         <v>68</v>
       </c>
       <c r="I140" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J140" s="23" t="s">
         <v>69</v>
@@ -6156,7 +6157,7 @@
       <c r="B141" s="2"/>
       <c r="C141" s="33"/>
       <c r="D141" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E141" s="22"/>
       <c r="F141" s="22"/>
@@ -6165,7 +6166,7 @@
         <v>79</v>
       </c>
       <c r="I141" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J141" s="23" t="s">
         <v>69</v>
@@ -6177,7 +6178,7 @@
       <c r="M141" s="23"/>
       <c r="N141" s="23"/>
       <c r="O141" s="51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" s="3"/>
@@ -6192,7 +6193,7 @@
       <c r="C142" s="33"/>
       <c r="D142" s="33"/>
       <c r="E142" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F142" s="22"/>
       <c r="G142" s="22"/>
@@ -6200,7 +6201,7 @@
         <v>68</v>
       </c>
       <c r="I142" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J142" s="23" t="s">
         <v>69</v>
@@ -6233,7 +6234,7 @@
         <v>68</v>
       </c>
       <c r="I143" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J143" s="23" t="s">
         <v>69</v>
@@ -6245,7 +6246,7 @@
       <c r="M143" s="23"/>
       <c r="N143" s="23"/>
       <c r="O143" s="51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P143" s="2"/>
       <c r="Q143" s="3"/>
@@ -6260,7 +6261,7 @@
       <c r="C144" s="33"/>
       <c r="D144" s="33"/>
       <c r="E144" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F144" s="24"/>
       <c r="G144" s="24"/>
@@ -6268,7 +6269,7 @@
         <v>68</v>
       </c>
       <c r="I144" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J144" s="23" t="s">
         <v>69</v>
@@ -6280,7 +6281,7 @@
       <c r="M144" s="23"/>
       <c r="N144" s="23"/>
       <c r="O144" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" s="3"/>
@@ -6295,7 +6296,7 @@
       <c r="C145" s="33"/>
       <c r="D145" s="33"/>
       <c r="E145" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F145" s="22"/>
       <c r="G145" s="22"/>
@@ -6303,7 +6304,7 @@
         <v>68</v>
       </c>
       <c r="I145" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J145" s="23" t="s">
         <v>69</v>
@@ -6315,7 +6316,7 @@
       <c r="M145" s="23"/>
       <c r="N145" s="23"/>
       <c r="O145" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P145" s="2"/>
       <c r="Q145" s="3"/>
@@ -6330,7 +6331,7 @@
       <c r="C146" s="33"/>
       <c r="D146" s="33"/>
       <c r="E146" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F146" s="22"/>
       <c r="G146" s="22"/>
@@ -6338,7 +6339,7 @@
         <v>68</v>
       </c>
       <c r="I146" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J146" s="23" t="s">
         <v>69</v>
@@ -6363,7 +6364,7 @@
       <c r="C147" s="33"/>
       <c r="D147" s="33"/>
       <c r="E147" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F147" s="22"/>
       <c r="G147" s="22"/>
@@ -6371,7 +6372,7 @@
         <v>68</v>
       </c>
       <c r="I147" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J147" s="23" t="s">
         <v>69</v>
@@ -6396,7 +6397,7 @@
       <c r="C148" s="33"/>
       <c r="D148" s="33"/>
       <c r="E148" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F148" s="22"/>
       <c r="G148" s="22"/>
@@ -6404,7 +6405,7 @@
         <v>68</v>
       </c>
       <c r="I148" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J148" s="23" t="s">
         <v>69</v>
@@ -6437,7 +6438,7 @@
         <v>68</v>
       </c>
       <c r="I149" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J149" s="23" t="s">
         <v>69</v>
@@ -6470,7 +6471,7 @@
         <v>68</v>
       </c>
       <c r="I150" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J150" s="23" t="s">
         <v>69</v>
@@ -6496,14 +6497,14 @@
       <c r="D151" s="33"/>
       <c r="E151" s="33"/>
       <c r="F151" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G151" s="36"/>
       <c r="H151" s="23" t="s">
         <v>68</v>
       </c>
       <c r="I151" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J151" s="23" t="s">
         <v>69</v>
@@ -6528,7 +6529,7 @@
       <c r="C152" s="33"/>
       <c r="D152" s="33"/>
       <c r="E152" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F152" s="24"/>
       <c r="G152" s="24"/>
@@ -6536,7 +6537,7 @@
         <v>68</v>
       </c>
       <c r="I152" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J152" s="23" t="s">
         <v>69</v>
@@ -6562,14 +6563,14 @@
       <c r="D153" s="33"/>
       <c r="E153" s="33"/>
       <c r="F153" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G153" s="36"/>
       <c r="H153" s="23" t="s">
         <v>68</v>
       </c>
       <c r="I153" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J153" s="23" t="s">
         <v>69</v>
@@ -6595,14 +6596,14 @@
       <c r="D154" s="33"/>
       <c r="E154" s="33"/>
       <c r="F154" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G154" s="35"/>
       <c r="H154" s="23" t="s">
         <v>68</v>
       </c>
       <c r="I154" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J154" s="23" t="s">
         <v>69</v>
@@ -6627,7 +6628,7 @@
       <c r="C155" s="33"/>
       <c r="D155" s="33"/>
       <c r="E155" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F155" s="24"/>
       <c r="G155" s="24"/>
@@ -6635,7 +6636,7 @@
         <v>68</v>
       </c>
       <c r="I155" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J155" s="23" t="s">
         <v>69</v>
@@ -6661,14 +6662,14 @@
       <c r="D156" s="33"/>
       <c r="E156" s="33"/>
       <c r="F156" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G156" s="36"/>
       <c r="H156" s="23" t="s">
         <v>68</v>
       </c>
       <c r="I156" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J156" s="23" t="s">
         <v>69</v>
@@ -6694,14 +6695,14 @@
       <c r="D157" s="33"/>
       <c r="E157" s="33"/>
       <c r="F157" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G157" s="35"/>
       <c r="H157" s="23" t="s">
         <v>68</v>
       </c>
       <c r="I157" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J157" s="23" t="s">
         <v>69</v>
@@ -6727,14 +6728,14 @@
       <c r="D158" s="33"/>
       <c r="E158" s="54"/>
       <c r="F158" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G158" s="35"/>
       <c r="H158" s="23" t="s">
         <v>68</v>
       </c>
       <c r="I158" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J158" s="23" t="s">
         <v>69</v>
@@ -6783,7 +6784,7 @@
       <c r="B160" s="2"/>
       <c r="C160" s="14"/>
       <c r="D160" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -6792,7 +6793,7 @@
         <v>79</v>
       </c>
       <c r="I160" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J160" s="15" t="s">
         <v>69</v>
@@ -6817,7 +6818,7 @@
       <c r="C161" s="14"/>
       <c r="D161" s="14"/>
       <c r="E161" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F161" s="28"/>
       <c r="G161" s="28"/>
@@ -6825,7 +6826,7 @@
         <v>79</v>
       </c>
       <c r="I161" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J161" s="15" t="s">
         <v>69</v>
@@ -6851,14 +6852,14 @@
       <c r="D162" s="14"/>
       <c r="E162" s="14"/>
       <c r="F162" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G162" s="17"/>
       <c r="H162" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I162" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J162" s="15" t="s">
         <v>69</v>
@@ -6884,12 +6885,12 @@
       <c r="D163" s="14"/>
       <c r="E163" s="14"/>
       <c r="F163" s="41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G163" s="19"/>
       <c r="H163" s="15"/>
       <c r="I163" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J163" s="15" t="s">
         <v>69</v>
@@ -6916,13 +6917,13 @@
       <c r="E164" s="14"/>
       <c r="F164" s="41"/>
       <c r="G164" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H164" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I164" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J164" s="15" t="s">
         <v>69</v>
@@ -6949,13 +6950,13 @@
       <c r="E165" s="14"/>
       <c r="F165" s="41"/>
       <c r="G165" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H165" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I165" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J165" s="15" t="s">
         <v>69</v>
@@ -6982,13 +6983,13 @@
       <c r="E166" s="14"/>
       <c r="F166" s="41"/>
       <c r="G166" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H166" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I166" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J166" s="15" t="s">
         <v>69</v>
@@ -7015,13 +7016,13 @@
       <c r="E167" s="14"/>
       <c r="F167" s="41"/>
       <c r="G167" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H167" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I167" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J167" s="15" t="s">
         <v>69</v>
@@ -7048,13 +7049,13 @@
       <c r="E168" s="41"/>
       <c r="F168" s="41"/>
       <c r="G168" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H168" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I168" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J168" s="15" t="s">
         <v>69</v>
@@ -7080,14 +7081,14 @@
       <c r="D169" s="14"/>
       <c r="E169" s="14"/>
       <c r="F169" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G169" s="19"/>
       <c r="H169" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I169" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J169" s="15" t="s">
         <v>69</v>
@@ -7120,7 +7121,7 @@
         <v>79</v>
       </c>
       <c r="I170" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J170" s="15" t="s">
         <v>69</v>
@@ -7146,14 +7147,14 @@
       <c r="D171" s="14"/>
       <c r="E171" s="14"/>
       <c r="F171" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G171" s="17"/>
       <c r="H171" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I171" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J171" s="15" t="s">
         <v>69</v>
@@ -7179,14 +7180,14 @@
       <c r="D172" s="14"/>
       <c r="E172" s="14"/>
       <c r="F172" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G172" s="19"/>
       <c r="H172" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I172" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J172" s="15" t="s">
         <v>69</v>
@@ -7212,14 +7213,14 @@
       <c r="D173" s="14"/>
       <c r="E173" s="14"/>
       <c r="F173" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G173" s="19"/>
       <c r="H173" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I173" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J173" s="15" t="s">
         <v>69</v>
@@ -7245,14 +7246,14 @@
       <c r="D174" s="14"/>
       <c r="E174" s="14"/>
       <c r="F174" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G174" s="19"/>
       <c r="H174" s="23" t="s">
         <v>79</v>
       </c>
       <c r="I174" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J174" s="15" t="s">
         <v>69</v>
@@ -7279,13 +7280,13 @@
       <c r="E175" s="14"/>
       <c r="F175" s="41"/>
       <c r="G175" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H175" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I175" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J175" s="15" t="s">
         <v>69</v>
@@ -7312,13 +7313,13 @@
       <c r="E176" s="14"/>
       <c r="F176" s="41"/>
       <c r="G176" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H176" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I176" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J176" s="15" t="s">
         <v>69</v>
@@ -7345,13 +7346,13 @@
       <c r="E177" s="14"/>
       <c r="F177" s="41"/>
       <c r="G177" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H177" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I177" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J177" s="15" t="s">
         <v>69</v>
@@ -7377,14 +7378,14 @@
       <c r="D178" s="14"/>
       <c r="E178" s="14"/>
       <c r="F178" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G178" s="19"/>
       <c r="H178" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I178" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J178" s="15" t="s">
         <v>69</v>
@@ -7410,14 +7411,14 @@
       <c r="D179" s="14"/>
       <c r="E179" s="14"/>
       <c r="F179" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G179" s="19"/>
       <c r="H179" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I179" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J179" s="15" t="s">
         <v>69</v>
@@ -7443,14 +7444,14 @@
       <c r="D180" s="14"/>
       <c r="E180" s="14"/>
       <c r="F180" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G180" s="19"/>
       <c r="H180" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I180" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J180" s="15" t="s">
         <v>69</v>
@@ -7476,14 +7477,14 @@
       <c r="D181" s="14"/>
       <c r="E181" s="14"/>
       <c r="F181" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G181" s="19"/>
       <c r="H181" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I181" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J181" s="15" t="s">
         <v>69</v>
@@ -7509,14 +7510,14 @@
       <c r="D182" s="14"/>
       <c r="E182" s="14"/>
       <c r="F182" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G182" s="19"/>
       <c r="H182" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I182" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J182" s="15" t="s">
         <v>69</v>
@@ -7549,7 +7550,7 @@
         <v>79</v>
       </c>
       <c r="I183" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J183" s="15" t="s">
         <v>69</v>
@@ -7561,7 +7562,7 @@
       <c r="M183" s="15"/>
       <c r="N183" s="15"/>
       <c r="O183" s="55" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P183" s="2"/>
       <c r="Q183" s="3"/>
@@ -7577,14 +7578,14 @@
       <c r="D184" s="14"/>
       <c r="E184" s="14"/>
       <c r="F184" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G184" s="17"/>
       <c r="H184" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I184" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J184" s="15" t="s">
         <v>69</v>
@@ -7596,7 +7597,7 @@
       <c r="M184" s="15"/>
       <c r="N184" s="15"/>
       <c r="O184" s="56" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P184" s="2"/>
       <c r="Q184" s="3"/>
@@ -7612,14 +7613,14 @@
       <c r="D185" s="14"/>
       <c r="E185" s="14"/>
       <c r="F185" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G185" s="19"/>
       <c r="H185" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I185" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J185" s="15" t="s">
         <v>69</v>
@@ -7645,14 +7646,14 @@
       <c r="D186" s="14"/>
       <c r="E186" s="14"/>
       <c r="F186" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G186" s="19"/>
       <c r="H186" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I186" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J186" s="15" t="s">
         <v>69</v>
@@ -7664,7 +7665,7 @@
       <c r="M186" s="15"/>
       <c r="N186" s="15"/>
       <c r="O186" s="48" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P186" s="2"/>
       <c r="Q186" s="3"/>
@@ -7680,14 +7681,14 @@
       <c r="D187" s="59"/>
       <c r="E187" s="59"/>
       <c r="F187" s="60" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G187" s="61"/>
       <c r="H187" s="62" t="s">
         <v>68</v>
       </c>
       <c r="I187" s="91" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J187" s="62" t="s">
         <v>69</v>
@@ -7699,7 +7700,7 @@
       <c r="M187" s="62"/>
       <c r="N187" s="62"/>
       <c r="O187" s="63" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P187" s="58"/>
       <c r="Q187" s="64"/>
@@ -7730,7 +7731,7 @@
         <v>79</v>
       </c>
       <c r="I188" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J188" s="15" t="s">
         <v>69</v>
@@ -7756,14 +7757,14 @@
       <c r="D189" s="14"/>
       <c r="E189" s="14"/>
       <c r="F189" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G189" s="17"/>
       <c r="H189" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I189" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J189" s="15" t="s">
         <v>69</v>
@@ -7789,14 +7790,14 @@
       <c r="D190" s="14"/>
       <c r="E190" s="14"/>
       <c r="F190" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G190" s="19"/>
       <c r="H190" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I190" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J190" s="15" t="s">
         <v>69</v>
@@ -7822,14 +7823,14 @@
       <c r="D191" s="14"/>
       <c r="E191" s="14"/>
       <c r="F191" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G191" s="19"/>
       <c r="H191" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I191" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J191" s="15" t="s">
         <v>69</v>
@@ -7855,14 +7856,14 @@
       <c r="D192" s="14"/>
       <c r="E192" s="14"/>
       <c r="F192" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G192" s="19"/>
       <c r="H192" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I192" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J192" s="15" t="s">
         <v>69</v>
@@ -7888,14 +7889,14 @@
       <c r="D193" s="14"/>
       <c r="E193" s="14"/>
       <c r="F193" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G193" s="19"/>
       <c r="H193" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I193" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J193" s="15" t="s">
         <v>69</v>
@@ -7928,7 +7929,7 @@
         <v>79</v>
       </c>
       <c r="I194" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J194" s="15" t="s">
         <v>69</v>
@@ -7954,14 +7955,14 @@
       <c r="D195" s="14"/>
       <c r="E195" s="14"/>
       <c r="F195" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G195" s="17"/>
       <c r="H195" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I195" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J195" s="15" t="s">
         <v>69</v>
@@ -7987,14 +7988,14 @@
       <c r="D196" s="14"/>
       <c r="E196" s="14"/>
       <c r="F196" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G196" s="19"/>
       <c r="H196" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I196" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J196" s="15" t="s">
         <v>69</v>
@@ -8020,14 +8021,14 @@
       <c r="D197" s="14"/>
       <c r="E197" s="14"/>
       <c r="F197" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G197" s="19"/>
       <c r="H197" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I197" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J197" s="15" t="s">
         <v>69</v>
@@ -8039,7 +8040,7 @@
       <c r="M197" s="15"/>
       <c r="N197" s="15"/>
       <c r="O197" s="48" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P197" s="2"/>
       <c r="Q197" s="3"/>
@@ -8055,14 +8056,14 @@
       <c r="D198" s="14"/>
       <c r="E198" s="14"/>
       <c r="F198" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G198" s="19"/>
       <c r="H198" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I198" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J198" s="15"/>
       <c r="K198" s="15" t="s">
@@ -8086,14 +8087,14 @@
       <c r="D199" s="14"/>
       <c r="E199" s="14"/>
       <c r="F199" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G199" s="19"/>
       <c r="H199" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I199" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J199" s="15" t="s">
         <v>69</v>
@@ -8126,7 +8127,7 @@
         <v>79</v>
       </c>
       <c r="I200" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J200" s="15" t="s">
         <v>69</v>
@@ -8152,14 +8153,14 @@
       <c r="D201" s="14"/>
       <c r="E201" s="14"/>
       <c r="F201" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G201" s="17"/>
       <c r="H201" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I201" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J201" s="15" t="s">
         <v>69</v>
@@ -8171,7 +8172,7 @@
       <c r="M201" s="15"/>
       <c r="N201" s="15"/>
       <c r="O201" s="48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P201" s="2"/>
       <c r="Q201" s="3"/>
@@ -8187,14 +8188,14 @@
       <c r="D202" s="14"/>
       <c r="E202" s="14"/>
       <c r="F202" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G202" s="19"/>
       <c r="H202" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I202" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J202" s="15" t="s">
         <v>69</v>
@@ -8206,7 +8207,7 @@
       <c r="M202" s="15"/>
       <c r="N202" s="15"/>
       <c r="O202" s="48" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P202" s="2"/>
       <c r="Q202" s="3"/>
@@ -8229,7 +8230,7 @@
         <v>79</v>
       </c>
       <c r="I203" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J203" s="15" t="s">
         <v>69</v>
@@ -8262,7 +8263,7 @@
         <v>79</v>
       </c>
       <c r="I204" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J204" s="15" t="s">
         <v>69</v>
@@ -8295,7 +8296,7 @@
         <v>79</v>
       </c>
       <c r="I205" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J205" s="15" t="s">
         <v>69</v>
@@ -8328,7 +8329,7 @@
         <v>79</v>
       </c>
       <c r="I206" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J206" s="15" t="s">
         <v>69</v>
@@ -8353,7 +8354,7 @@
       <c r="C207" s="14"/>
       <c r="D207" s="39"/>
       <c r="E207" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F207" s="28"/>
       <c r="G207" s="28"/>
@@ -8361,7 +8362,7 @@
         <v>68</v>
       </c>
       <c r="I207" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J207" s="15" t="s">
         <v>69</v>
@@ -8394,7 +8395,7 @@
         <v>68</v>
       </c>
       <c r="I208" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J208" s="15" t="s">
         <v>69</v>
@@ -8427,7 +8428,7 @@
         <v>68</v>
       </c>
       <c r="I209" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J209" s="15" t="s">
         <v>69</v>
@@ -8485,7 +8486,7 @@
         <v>79</v>
       </c>
       <c r="I211" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J211" s="15" t="s">
         <v>69</v>
@@ -8508,7 +8509,7 @@
       <c r="C212" s="14"/>
       <c r="D212" s="14"/>
       <c r="E212" s="66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F212" s="67"/>
       <c r="G212" s="67"/>
@@ -8516,7 +8517,7 @@
         <v>79</v>
       </c>
       <c r="I212" s="92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J212" s="68"/>
       <c r="K212" s="68"/>
@@ -8545,7 +8546,7 @@
         <v>79</v>
       </c>
       <c r="I213" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J213" s="15" t="s">
         <v>69</v>
@@ -8571,14 +8572,14 @@
       <c r="D214" s="14"/>
       <c r="E214" s="14"/>
       <c r="F214" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G214" s="17"/>
       <c r="H214" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I214" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J214" s="15" t="s">
         <v>69</v>
@@ -8590,7 +8591,7 @@
       <c r="M214" s="15"/>
       <c r="N214" s="15"/>
       <c r="O214" s="48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P214" s="2"/>
       <c r="Q214" s="3"/>
@@ -8613,7 +8614,7 @@
         <v>68</v>
       </c>
       <c r="I215" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J215" s="15" t="s">
         <v>69</v>
@@ -8646,7 +8647,7 @@
         <v>79</v>
       </c>
       <c r="I216" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J216" s="15" t="s">
         <v>69</v>
@@ -8658,7 +8659,7 @@
       <c r="M216" s="15"/>
       <c r="N216" s="15"/>
       <c r="O216" s="48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P216" s="2"/>
       <c r="Q216" s="3"/>
@@ -8674,14 +8675,14 @@
       <c r="D217" s="14"/>
       <c r="E217" s="14"/>
       <c r="F217" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G217" s="17"/>
       <c r="H217" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I217" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J217" s="15" t="s">
         <v>69</v>
@@ -8707,14 +8708,14 @@
       <c r="D218" s="14"/>
       <c r="E218" s="14"/>
       <c r="F218" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G218" s="19"/>
       <c r="H218" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I218" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J218" s="15" t="s">
         <v>69</v>
@@ -8747,7 +8748,7 @@
         <v>79</v>
       </c>
       <c r="I219" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J219" s="15" t="s">
         <v>69</v>
@@ -8773,14 +8774,14 @@
       <c r="D220" s="14"/>
       <c r="E220" s="14"/>
       <c r="F220" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G220" s="17"/>
       <c r="H220" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I220" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J220" s="15" t="s">
         <v>69</v>
@@ -8806,14 +8807,14 @@
       <c r="D221" s="14"/>
       <c r="E221" s="14"/>
       <c r="F221" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G221" s="19"/>
       <c r="H221" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I221" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J221" s="15" t="s">
         <v>69</v>
@@ -8838,7 +8839,7 @@
       <c r="C222" s="14"/>
       <c r="D222" s="14"/>
       <c r="E222" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F222" s="28"/>
       <c r="G222" s="2"/>
@@ -8846,7 +8847,7 @@
         <v>79</v>
       </c>
       <c r="I222" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J222" s="15" t="s">
         <v>69</v>
@@ -8872,14 +8873,14 @@
       <c r="D223" s="14"/>
       <c r="E223" s="14"/>
       <c r="F223" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G223" s="17"/>
       <c r="H223" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I223" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J223" s="15" t="s">
         <v>69</v>
@@ -8905,14 +8906,14 @@
       <c r="D224" s="14"/>
       <c r="E224" s="14"/>
       <c r="F224" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G224" s="19"/>
       <c r="H224" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I224" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J224" s="15"/>
       <c r="K224" s="15"/>
@@ -8934,14 +8935,14 @@
       <c r="D225" s="14"/>
       <c r="E225" s="14"/>
       <c r="F225" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G225" s="19"/>
       <c r="H225" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I225" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J225" s="15" t="s">
         <v>69</v>
@@ -8966,7 +8967,7 @@
       <c r="C226" s="14"/>
       <c r="D226" s="14"/>
       <c r="E226" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F226" s="28"/>
       <c r="G226" s="2"/>
@@ -8974,7 +8975,7 @@
         <v>79</v>
       </c>
       <c r="I226" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J226" s="15" t="s">
         <v>69</v>
@@ -9000,14 +9001,14 @@
       <c r="D227" s="14"/>
       <c r="E227" s="14"/>
       <c r="F227" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G227" s="17"/>
       <c r="H227" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I227" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J227" s="15" t="s">
         <v>69</v>
@@ -9019,7 +9020,7 @@
       <c r="M227" s="15"/>
       <c r="N227" s="15"/>
       <c r="O227" s="48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P227" s="2"/>
       <c r="Q227" s="3"/>
@@ -9035,14 +9036,14 @@
       <c r="D228" s="14"/>
       <c r="E228" s="14"/>
       <c r="F228" s="32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G228" s="19"/>
       <c r="H228" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I228" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J228" s="15" t="s">
         <v>69</v>
@@ -9075,7 +9076,7 @@
         <v>79</v>
       </c>
       <c r="I229" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J229" s="15" t="s">
         <v>69</v>
@@ -9087,7 +9088,7 @@
       <c r="M229" s="15"/>
       <c r="N229" s="15"/>
       <c r="O229" s="48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P229" s="2"/>
       <c r="Q229" s="3"/>
@@ -9110,7 +9111,7 @@
         <v>68</v>
       </c>
       <c r="I230" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J230" s="15" t="s">
         <v>69</v>
@@ -9143,7 +9144,7 @@
         <v>68</v>
       </c>
       <c r="I231" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J231" s="15" t="s">
         <v>69</v>
@@ -9167,7 +9168,7 @@
       <c r="B232" s="2"/>
       <c r="C232" s="14"/>
       <c r="D232" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
@@ -9176,7 +9177,7 @@
         <v>79</v>
       </c>
       <c r="I232" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J232" s="15" t="s">
         <v>69</v>
@@ -9188,7 +9189,7 @@
       <c r="M232" s="15"/>
       <c r="N232" s="15"/>
       <c r="O232" s="48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P232" s="2"/>
       <c r="Q232" s="3"/>
@@ -9203,7 +9204,7 @@
       <c r="C233" s="14"/>
       <c r="D233" s="14"/>
       <c r="E233" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F233" s="28"/>
       <c r="G233" s="28"/>
@@ -9211,7 +9212,7 @@
         <v>68</v>
       </c>
       <c r="I233" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J233" s="15" t="s">
         <v>69</v>
@@ -9223,7 +9224,7 @@
       <c r="M233" s="15"/>
       <c r="N233" s="15"/>
       <c r="O233" s="48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P233" s="2"/>
       <c r="Q233" s="3"/>
@@ -9246,7 +9247,7 @@
         <v>68</v>
       </c>
       <c r="I234" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J234" s="15" t="s">
         <v>69</v>
@@ -9279,7 +9280,7 @@
         <v>68</v>
       </c>
       <c r="I235" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J235" s="15" t="s">
         <v>69</v>
@@ -9302,7 +9303,7 @@
       </c>
       <c r="B236" s="2"/>
       <c r="C236" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D236" s="25"/>
       <c r="E236" s="20"/>
@@ -9328,7 +9329,7 @@
       <c r="B237" s="2"/>
       <c r="C237" s="14"/>
       <c r="D237" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E237" s="28"/>
       <c r="F237" s="28"/>
@@ -9360,7 +9361,7 @@
       <c r="C238" s="14"/>
       <c r="D238" s="14"/>
       <c r="E238" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F238" s="28"/>
       <c r="G238" s="28"/>
@@ -9392,7 +9393,7 @@
       <c r="D239" s="14"/>
       <c r="E239" s="14"/>
       <c r="F239" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G239" s="17"/>
       <c r="H239" s="15" t="s">
@@ -9423,7 +9424,7 @@
       <c r="D240" s="14"/>
       <c r="E240" s="14"/>
       <c r="F240" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G240" s="19"/>
       <c r="H240" s="15" t="s">
@@ -9453,7 +9454,7 @@
       <c r="C241" s="14"/>
       <c r="D241" s="14"/>
       <c r="E241" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
@@ -9483,7 +9484,7 @@
       <c r="B242" s="2"/>
       <c r="C242" s="14"/>
       <c r="D242" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E242" s="17"/>
       <c r="F242" s="28"/>
@@ -9514,7 +9515,7 @@
       <c r="B243" s="2"/>
       <c r="C243" s="14"/>
       <c r="D243" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="28"/>
@@ -9546,7 +9547,7 @@
       <c r="C244" s="14"/>
       <c r="D244" s="14"/>
       <c r="E244" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F244" s="28"/>
       <c r="G244" s="28"/>
@@ -9577,7 +9578,7 @@
       <c r="C245" s="14"/>
       <c r="D245" s="14"/>
       <c r="E245" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F245" s="28"/>
       <c r="G245" s="28"/>
@@ -9608,7 +9609,7 @@
       <c r="C246" s="14"/>
       <c r="D246" s="14"/>
       <c r="E246" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F246" s="28"/>
       <c r="G246" s="28"/>
@@ -9668,7 +9669,7 @@
       </c>
       <c r="B248" s="2"/>
       <c r="C248" s="44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D248" s="20"/>
       <c r="E248" s="20"/>
@@ -9703,7 +9704,7 @@
         <v>79</v>
       </c>
       <c r="I249" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J249" s="15" t="s">
         <v>69</v>
@@ -9728,7 +9729,7 @@
       <c r="C250" s="14"/>
       <c r="D250" s="14"/>
       <c r="E250" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F250" s="28"/>
       <c r="G250" s="28"/>
@@ -9736,7 +9737,7 @@
         <v>68</v>
       </c>
       <c r="I250" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J250" s="15" t="s">
         <v>69</v>
@@ -9761,7 +9762,7 @@
       <c r="C251" s="14"/>
       <c r="D251" s="14"/>
       <c r="E251" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F251" s="28"/>
       <c r="G251" s="28"/>
@@ -9769,7 +9770,7 @@
         <v>68</v>
       </c>
       <c r="I251" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J251" s="15" t="s">
         <v>69</v>
@@ -9794,7 +9795,7 @@
       <c r="C252" s="14"/>
       <c r="D252" s="14"/>
       <c r="E252" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F252" s="28"/>
       <c r="G252" s="28"/>
@@ -9802,7 +9803,7 @@
         <v>68</v>
       </c>
       <c r="I252" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J252" s="15" t="s">
         <v>69</v>
@@ -9835,7 +9836,7 @@
         <v>79</v>
       </c>
       <c r="I253" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J253" s="15" t="s">
         <v>69</v>
@@ -9860,7 +9861,7 @@
       <c r="C254" s="14"/>
       <c r="D254" s="14"/>
       <c r="E254" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F254" s="28"/>
       <c r="G254" s="28"/>
@@ -9868,7 +9869,7 @@
         <v>68</v>
       </c>
       <c r="I254" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J254" s="15" t="s">
         <v>69</v>
@@ -9893,7 +9894,7 @@
       <c r="C255" s="14"/>
       <c r="D255" s="14"/>
       <c r="E255" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F255" s="28"/>
       <c r="G255" s="28"/>
@@ -9901,7 +9902,7 @@
         <v>68</v>
       </c>
       <c r="I255" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J255" s="15" t="s">
         <v>69</v>
@@ -9926,7 +9927,7 @@
       <c r="C256" s="14"/>
       <c r="D256" s="14"/>
       <c r="E256" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F256" s="28"/>
       <c r="G256" s="28"/>
@@ -9934,7 +9935,7 @@
         <v>68</v>
       </c>
       <c r="I256" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J256" s="15" t="s">
         <v>69</v>
@@ -9990,7 +9991,7 @@
       <c r="C258" s="14"/>
       <c r="D258" s="14"/>
       <c r="E258" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F258" s="28"/>
       <c r="G258" s="28"/>
@@ -10021,7 +10022,7 @@
       <c r="C259" s="14"/>
       <c r="D259" s="14"/>
       <c r="E259" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F259" s="28"/>
       <c r="G259" s="28"/>
@@ -10052,7 +10053,7 @@
       <c r="C260" s="14"/>
       <c r="D260" s="14"/>
       <c r="E260" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F260" s="28"/>
       <c r="G260" s="28"/>
@@ -10082,7 +10083,7 @@
       <c r="B261" s="2"/>
       <c r="C261" s="14"/>
       <c r="D261" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" s="28"/>
@@ -10091,7 +10092,7 @@
         <v>79</v>
       </c>
       <c r="I261" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J261" s="15" t="s">
         <v>69</v>
@@ -10116,7 +10117,7 @@
       <c r="C262" s="14"/>
       <c r="D262" s="14"/>
       <c r="E262" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F262" s="28"/>
       <c r="G262" s="28"/>
@@ -10124,7 +10125,7 @@
         <v>68</v>
       </c>
       <c r="I262" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J262" s="15" t="s">
         <v>69</v>
@@ -10149,7 +10150,7 @@
       <c r="C263" s="14"/>
       <c r="D263" s="14"/>
       <c r="E263" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F263" s="28"/>
       <c r="G263" s="28"/>
@@ -10157,7 +10158,7 @@
         <v>68</v>
       </c>
       <c r="I263" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J263" s="15" t="s">
         <v>69</v>
@@ -10182,7 +10183,7 @@
       <c r="C264" s="14"/>
       <c r="D264" s="14"/>
       <c r="E264" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F264" s="28"/>
       <c r="G264" s="28"/>
@@ -10190,7 +10191,7 @@
         <v>68</v>
       </c>
       <c r="I264" s="86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J264" s="15" t="s">
         <v>69</v>
@@ -10214,7 +10215,7 @@
       <c r="B265" s="2"/>
       <c r="C265" s="14"/>
       <c r="D265" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E265" s="2"/>
       <c r="F265" s="28"/>
@@ -10246,7 +10247,7 @@
       <c r="C266" s="14"/>
       <c r="D266" s="14"/>
       <c r="E266" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F266" s="28"/>
       <c r="G266" s="28"/>
@@ -10277,7 +10278,7 @@
       <c r="C267" s="14"/>
       <c r="D267" s="14"/>
       <c r="E267" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F267" s="28"/>
       <c r="G267" s="28"/>
@@ -10308,7 +10309,7 @@
       <c r="C268" s="14"/>
       <c r="D268" s="14"/>
       <c r="E268" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F268" s="28"/>
       <c r="G268" s="28"/>
@@ -10339,7 +10340,7 @@
       <c r="C269" s="14"/>
       <c r="D269" s="14"/>
       <c r="E269" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F269" s="28"/>
       <c r="G269" s="28"/>
@@ -10401,7 +10402,7 @@
       <c r="C271" s="14"/>
       <c r="D271" s="14"/>
       <c r="E271" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F271" s="28"/>
       <c r="G271" s="28"/>
@@ -10432,7 +10433,7 @@
       <c r="C272" s="14"/>
       <c r="D272" s="14"/>
       <c r="E272" s="31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F272" s="28"/>
       <c r="G272" s="28"/>
@@ -10463,7 +10464,7 @@
       <c r="C273" s="18"/>
       <c r="D273" s="18"/>
       <c r="E273" s="31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F273" s="17"/>
       <c r="G273" s="17"/>
@@ -10488,17 +10489,17 @@
     </row>
     <row r="276" spans="1:19" ht="12.5">
       <c r="C276" s="45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="277" spans="1:19" ht="12.5">
       <c r="C277" s="45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="278" spans="1:19" ht="12.5">
       <c r="C278" s="45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
